--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -22,11 +22,11 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$L$1:$L$287</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$O$1:$O$3</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
     <definedName name="travelrelation">'cv_sample'!$G$1:$G$3</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="609">
   <si>
     <t>alias</t>
   </si>
@@ -454,6 +454,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -553,6 +565,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -670,6 +700,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -677,6 +710,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2361,10 +2397,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2405,10 +2441,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +2471,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2455,7 +2491,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2472,7 +2508,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2489,7 +2525,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2506,7 +2542,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2523,7 +2559,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2540,7 +2576,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2557,7 +2593,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2574,7 +2610,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2591,7 +2627,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2605,7 +2641,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2619,7 +2655,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2633,7 +2669,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2647,7 +2683,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2657,8 +2693,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2668,8 +2707,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2679,8 +2721,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2690,8 +2735,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2702,7 +2750,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2713,7 +2761,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2724,7 +2772,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2735,7 +2783,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2746,7 +2794,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2757,7 +2805,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2768,7 +2816,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2779,7 +2827,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2790,7 +2838,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2801,7 +2849,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2812,7 +2860,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2823,7 +2871,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2834,7 +2882,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2845,7 +2893,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2853,7 +2901,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2861,7 +2909,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2869,7 +2917,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2877,7 +2925,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2885,7 +2933,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2893,7 +2941,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2901,7 +2949,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2909,7 +2957,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2917,7 +2965,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2925,176 +2973,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3119,27 +3207,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3162,122 +3250,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3304,126 +3392,126 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -3458,2280 +3546,2280 @@
   <sheetData>
     <row r="1" spans="7:15">
       <c r="G1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="I1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="O1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="7:15">
       <c r="G2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="I2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="L2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="7:15">
       <c r="G3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="L3" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="O3" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="7:15">
       <c r="I4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="L4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="7:15">
       <c r="I5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="L5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="7:15">
       <c r="I6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="L6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="7:15">
       <c r="I7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="L7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="7:15">
       <c r="I8" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L8" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="7:15">
       <c r="I9" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="L9" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="7:15">
       <c r="I10" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="L10" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="7:15">
       <c r="I11" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L11" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="7:15">
       <c r="I12" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="L12" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="7:15">
       <c r="I13" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="L13" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="7:15">
       <c r="I14" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="L14" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="7:15">
       <c r="I15" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="L15" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="7:15">
       <c r="I16" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="L16" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="9:12">
       <c r="I17" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="L17" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="9:12">
       <c r="I18" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="L18" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="9:12">
       <c r="I19" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="L19" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="9:12">
       <c r="I20" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L20" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="9:12">
       <c r="I21" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="9:12">
       <c r="I22" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="L22" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="9:12">
       <c r="I23" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="L23" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="9:12">
       <c r="I24" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="L24" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="9:12">
       <c r="I25" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="L25" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="9:12">
       <c r="I26" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="L26" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="9:12">
       <c r="I27" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L27" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="9:12">
       <c r="I28" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="L28" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="9:12">
       <c r="I29" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="9:12">
       <c r="I30" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="L30" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="9:12">
       <c r="I31" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="9:12">
       <c r="I32" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="9:12">
       <c r="I33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="9:12">
       <c r="I34" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="9:12">
       <c r="I35" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="9:12">
       <c r="I36" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="9:12">
       <c r="I37" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="9:12">
       <c r="I38" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="9:12">
       <c r="I39" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="9:12">
       <c r="I40" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="9:12">
       <c r="I41" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="9:12">
       <c r="I42" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="9:12">
       <c r="I43" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="L43" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="9:12">
       <c r="I44" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="L44" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="9:12">
       <c r="I45" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="9:12">
       <c r="I46" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="9:12">
       <c r="I47" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="9:12">
       <c r="I48" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="L48" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="9:12">
       <c r="I49" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="L49" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="9:12">
       <c r="I50" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="L50" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="9:12">
       <c r="I51" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="L51" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="9:12">
       <c r="I52" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="L52" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="9:12">
       <c r="I53" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="L53" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="9:12">
       <c r="I54" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="L54" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="9:12">
       <c r="I55" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="L55" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="9:12">
       <c r="I56" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="L56" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="9:12">
       <c r="I57" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="L57" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="9:12">
       <c r="I58" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="L58" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="9:12">
       <c r="I59" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="L59" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="9:12">
       <c r="I60" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L60" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="9:12">
       <c r="I61" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="L61" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="9:12">
       <c r="I62" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="L62" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="9:12">
       <c r="I63" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="L63" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="64" spans="9:12">
       <c r="I64" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="L64" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="9:12">
       <c r="I65" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="L65" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="9:12">
       <c r="I66" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="L66" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="9:12">
       <c r="I67" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="L67" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="9:12">
       <c r="I68" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L68" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="9:12">
       <c r="I69" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="L69" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="9:12">
       <c r="I70" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="L70" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="9:12">
       <c r="I71" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="L71" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" spans="9:12">
       <c r="I72" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="L72" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="9:12">
       <c r="I73" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="L73" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="9:12">
       <c r="I74" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="L74" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="9:12">
       <c r="I75" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="L75" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="9:12">
       <c r="I76" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="L76" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="9:12">
       <c r="I77" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="L77" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="9:12">
       <c r="I78" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="L78" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="9:12">
       <c r="I79" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="L79" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="9:12">
       <c r="I80" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="L80" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="9:12">
       <c r="I81" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="L81" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="9:12">
       <c r="I82" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="L82" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="9:12">
       <c r="I83" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="L83" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="9:12">
       <c r="I84" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="L84" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="9:12">
       <c r="I85" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="L85" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="9:12">
       <c r="I86" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="L86" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="9:12">
       <c r="I87" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="L87" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="9:12">
       <c r="I88" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="L88" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="9:12">
       <c r="I89" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="L89" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="9:12">
       <c r="I90" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="L90" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="9:12">
       <c r="I91" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="L91" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="9:12">
       <c r="I92" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="L92" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="9:12">
       <c r="I93" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L93" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="9:12">
       <c r="I94" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="L94" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="9:12">
       <c r="I95" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="L95" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="9:12">
       <c r="I96" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="L96" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="9:12">
       <c r="I97" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="L97" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="9:12">
       <c r="I98" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="L98" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="9:12">
       <c r="I99" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="L99" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="9:12">
       <c r="I100" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L100" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="9:12">
       <c r="I101" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="L101" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="9:12">
       <c r="I102" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="L102" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="9:12">
       <c r="I103" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="L103" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="9:12">
       <c r="I104" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="L104" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="9:12">
       <c r="I105" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="L105" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="9:12">
       <c r="I106" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="L106" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="9:12">
       <c r="I107" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="L107" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="9:12">
       <c r="I108" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="L108" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="9:12">
       <c r="I109" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="L109" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="9:12">
       <c r="I110" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="L110" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111" spans="9:12">
       <c r="I111" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="L111" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="9:12">
       <c r="I112" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="L112" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="113" spans="9:12">
       <c r="I113" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="L113" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="114" spans="9:12">
       <c r="I114" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="L114" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="115" spans="9:12">
       <c r="I115" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L115" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="9:12">
       <c r="I116" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="L116" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="9:12">
       <c r="I117" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="L117" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="9:12">
       <c r="I118" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="L118" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="9:12">
       <c r="I119" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="L119" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="9:12">
       <c r="I120" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="L120" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="9:12">
       <c r="I121" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="L121" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="9:12">
       <c r="I122" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="L122" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="9:12">
       <c r="I123" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="L123" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="9:12">
       <c r="I124" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="L124" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="9:12">
       <c r="I125" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="L125" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="9:12">
       <c r="I126" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="L126" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="9:12">
       <c r="I127" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="L127" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="9:12">
       <c r="I128" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="L128" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="9:12">
       <c r="I129" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="L129" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="9:12">
       <c r="I130" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="L130" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="9:12">
       <c r="I131" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="L131" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="9:12">
       <c r="I132" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="L132" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="133" spans="9:12">
       <c r="I133" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="L133" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="134" spans="9:12">
       <c r="I134" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="L134" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="135" spans="9:12">
       <c r="I135" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="L135" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="9:12">
       <c r="I136" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="L136" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="137" spans="9:12">
       <c r="I137" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="L137" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="9:12">
       <c r="I138" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="L138" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="9:12">
       <c r="I139" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="L139" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="9:12">
       <c r="I140" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="L140" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="9:12">
       <c r="I141" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="L141" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" spans="9:12">
       <c r="I142" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="L142" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="9:12">
       <c r="I143" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="L143" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="9:12">
       <c r="I144" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="L144" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="9:12">
       <c r="I145" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="L145" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="9:12">
       <c r="I146" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="L146" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="9:12">
       <c r="I147" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="L147" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="9:12">
       <c r="I148" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="L148" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" spans="9:12">
       <c r="I149" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="L149" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="9:12">
       <c r="I150" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="L150" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="9:12">
       <c r="I151" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="L151" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="9:12">
       <c r="I152" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="L152" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="9:12">
       <c r="I153" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="L153" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="9:12">
       <c r="I154" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="L154" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="9:12">
       <c r="I155" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="L155" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="9:12">
       <c r="I156" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="L156" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="9:12">
       <c r="I157" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="L157" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="158" spans="9:12">
       <c r="I158" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="L158" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="9:12">
       <c r="I159" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="L159" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="9:12">
       <c r="I160" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="L160" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="9:12">
       <c r="I161" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="L161" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="162" spans="9:12">
       <c r="I162" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="L162" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="163" spans="9:12">
       <c r="I163" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="L163" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="9:12">
       <c r="I164" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="L164" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="9:12">
       <c r="I165" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="L165" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="9:12">
       <c r="I166" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="L166" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167" spans="9:12">
       <c r="I167" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="L167" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="9:12">
       <c r="I168" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="L168" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="9:12">
       <c r="I169" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="L169" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="9:12">
       <c r="I170" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="L170" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="9:12">
       <c r="I171" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="L171" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="172" spans="9:12">
       <c r="I172" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L172" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="9:12">
       <c r="I173" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="L173" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="174" spans="9:12">
       <c r="I174" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="L174" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="175" spans="9:12">
       <c r="I175" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="L175" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="9:12">
       <c r="I176" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="L176" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="177" spans="9:12">
       <c r="I177" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="L177" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="9:12">
       <c r="I178" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="L178" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="9:12">
       <c r="I179" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="L179" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="9:12">
       <c r="I180" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="L180" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="9:12">
       <c r="I181" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="L181" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="182" spans="9:12">
       <c r="I182" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="L182" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" spans="9:12">
       <c r="I183" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="L183" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="184" spans="9:12">
       <c r="I184" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="L184" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="185" spans="9:12">
       <c r="I185" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="L185" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="9:12">
       <c r="I186" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="L186" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="187" spans="9:12">
       <c r="I187" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="L187" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="9:12">
       <c r="I188" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="L188" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="189" spans="9:12">
       <c r="I189" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="L189" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="190" spans="9:12">
       <c r="I190" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="L190" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="191" spans="9:12">
       <c r="I191" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="L191" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="192" spans="9:12">
       <c r="I192" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="L192" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="193" spans="9:12">
       <c r="I193" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="L193" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="194" spans="9:12">
       <c r="I194" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="L194" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="195" spans="9:12">
       <c r="I195" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="L195" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196" spans="9:12">
       <c r="I196" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="L196" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="197" spans="9:12">
       <c r="I197" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="L197" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="198" spans="9:12">
       <c r="I198" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="L198" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="199" spans="9:12">
       <c r="I199" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="L199" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="200" spans="9:12">
       <c r="I200" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="L200" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="201" spans="9:12">
       <c r="I201" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="L201" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="202" spans="9:12">
       <c r="I202" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="L202" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="203" spans="9:12">
       <c r="I203" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="L203" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="204" spans="9:12">
       <c r="I204" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="L204" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="205" spans="9:12">
       <c r="I205" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="L205" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="206" spans="9:12">
       <c r="I206" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="L206" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="207" spans="9:12">
       <c r="I207" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="L207" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="208" spans="9:12">
       <c r="I208" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="L208" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="209" spans="9:12">
       <c r="I209" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="L209" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="210" spans="9:12">
       <c r="I210" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="L210" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="211" spans="9:12">
       <c r="I211" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L211" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="212" spans="9:12">
       <c r="I212" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="L212" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="213" spans="9:12">
       <c r="I213" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="L213" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="214" spans="9:12">
       <c r="I214" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="L214" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="215" spans="9:12">
       <c r="I215" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="L215" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="216" spans="9:12">
       <c r="I216" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="L216" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="217" spans="9:12">
       <c r="I217" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="L217" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="9:12">
       <c r="I218" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="L218" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="9:12">
       <c r="I219" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="L219" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="220" spans="9:12">
       <c r="I220" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="L220" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="221" spans="9:12">
       <c r="I221" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="L221" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" spans="9:12">
       <c r="I222" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="L222" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="9:12">
       <c r="I223" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="L223" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224" spans="9:12">
       <c r="I224" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="L224" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="225" spans="9:12">
       <c r="I225" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="L225" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="226" spans="9:12">
       <c r="I226" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="L226" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="9:12">
       <c r="I227" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="L227" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="9:12">
       <c r="I228" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="L228" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="229" spans="9:12">
       <c r="I229" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="L229" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="9:12">
       <c r="I230" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="L230" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="231" spans="9:12">
       <c r="I231" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="L231" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="232" spans="9:12">
       <c r="I232" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="L232" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="233" spans="9:12">
       <c r="I233" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="L233" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="234" spans="9:12">
       <c r="I234" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="L234" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="235" spans="9:12">
       <c r="I235" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="L235" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="236" spans="9:12">
       <c r="I236" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="L236" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="237" spans="9:12">
       <c r="I237" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="L237" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="238" spans="9:12">
       <c r="I238" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="L238" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="239" spans="9:12">
       <c r="I239" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="L239" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="240" spans="9:12">
       <c r="I240" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="L240" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="241" spans="9:12">
       <c r="I241" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="L241" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="242" spans="9:12">
       <c r="I242" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="L242" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="243" spans="9:12">
       <c r="I243" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="L243" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="244" spans="9:12">
       <c r="I244" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="L244" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="245" spans="9:12">
       <c r="I245" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="L245" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="246" spans="9:12">
       <c r="I246" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="L246" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="9:12">
       <c r="I247" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="L247" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="248" spans="9:12">
       <c r="I248" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="L248" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="249" spans="9:12">
       <c r="I249" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="L249" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="250" spans="9:12">
       <c r="I250" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="L250" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="251" spans="9:12">
       <c r="I251" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="L251" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="252" spans="9:12">
       <c r="I252" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="L252" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="253" spans="9:12">
       <c r="I253" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="L253" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="254" spans="9:12">
       <c r="I254" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="L254" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="255" spans="9:12">
       <c r="I255" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="L255" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="256" spans="9:12">
       <c r="I256" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="L256" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="257" spans="9:12">
       <c r="I257" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="L257" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="258" spans="9:12">
       <c r="I258" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="L258" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="259" spans="9:12">
       <c r="I259" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="L259" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="260" spans="9:12">
       <c r="I260" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="L260" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="261" spans="9:12">
       <c r="I261" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="L261" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="262" spans="9:12">
       <c r="I262" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="L262" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="263" spans="9:12">
       <c r="I263" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="L263" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="264" spans="9:12">
       <c r="I264" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="L264" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="9:12">
       <c r="I265" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="L265" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="266" spans="9:12">
       <c r="I266" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="L266" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="267" spans="9:12">
       <c r="I267" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="L267" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="268" spans="9:12">
       <c r="I268" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="L268" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="269" spans="9:12">
       <c r="I269" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="L269" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="270" spans="9:12">
       <c r="I270" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="L270" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="271" spans="9:12">
       <c r="I271" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="L271" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="9:12">
       <c r="I272" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="L272" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="273" spans="9:12">
       <c r="I273" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="L273" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="274" spans="9:12">
       <c r="L274" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="275" spans="9:12">
       <c r="L275" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="9:12">
       <c r="L276" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="277" spans="9:12">
       <c r="L277" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="278" spans="9:12">
       <c r="L278" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="279" spans="9:12">
       <c r="L279" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="280" spans="9:12">
       <c r="L280" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281" spans="9:12">
       <c r="L281" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="9:12">
       <c r="L282" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="283" spans="9:12">
       <c r="L283" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="284" spans="9:12">
       <c r="L284" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="285" spans="9:12">
       <c r="L285" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="286" spans="9:12">
       <c r="L286" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="287" spans="9:12">
       <c r="L287" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -103,7 +103,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -4088,7 +4088,7 @@
         <v>340</v>
       </c>
       <c r="K65" t="s">
-        <v>336</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="8:11">
@@ -4096,7 +4096,7 @@
         <v>341</v>
       </c>
       <c r="K66" t="s">
-        <v>560</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="8:11">

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="611">
   <si>
     <t>alias</t>
   </si>
@@ -815,6 +815,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3395,126 +3398,126 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -3549,2285 +3552,2285 @@
   <sheetData>
     <row r="1" spans="6:15">
       <c r="F1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="6:15">
       <c r="F2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="6:15">
       <c r="F3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="6:15">
       <c r="H4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="6:15">
       <c r="H5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="6:15">
       <c r="H6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="6:15">
       <c r="H7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="6:15">
       <c r="H8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="6:15">
       <c r="H9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="6:15">
       <c r="H10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="6:15">
       <c r="H11" t="s">
+        <v>287</v>
+      </c>
+      <c r="K11" t="s">
         <v>286</v>
-      </c>
-      <c r="K11" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="6:15">
       <c r="H12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K12" t="s">
         <v>287</v>
-      </c>
-      <c r="K12" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="13" spans="6:15">
       <c r="H13" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" t="s">
         <v>288</v>
-      </c>
-      <c r="K13" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="14" spans="6:15">
       <c r="H14" t="s">
+        <v>290</v>
+      </c>
+      <c r="K14" t="s">
         <v>289</v>
-      </c>
-      <c r="K14" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="15" spans="6:15">
       <c r="H15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K15" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="6:15">
       <c r="H16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="8:11">
       <c r="H17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="8:11">
       <c r="H18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="8:11">
       <c r="H21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="8:11">
       <c r="H22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K22" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="8:11">
       <c r="H23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="8:11">
       <c r="H24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="8:11">
       <c r="H25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="8:11">
       <c r="H26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="8:11">
       <c r="H27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="8:11">
       <c r="H28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="8:11">
       <c r="H29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="8:11">
       <c r="H30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="8:11">
       <c r="H31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="8:11">
       <c r="H32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="8:11">
       <c r="H33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="34" spans="8:11">
       <c r="H34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="8:11">
       <c r="H35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="8:11">
       <c r="H36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="8:11">
       <c r="H37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="8:11">
       <c r="H38" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="8:11">
       <c r="H39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K39" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="8:11">
       <c r="H40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="8:11">
       <c r="H41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K41" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="8:11">
       <c r="H42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K42" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="8:11">
       <c r="H43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="8:11">
       <c r="H44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K44" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="8:11">
       <c r="H45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K45" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="8:11">
       <c r="H46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K46" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="8:11">
       <c r="H47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K47" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="8:11">
       <c r="H48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="8:11">
       <c r="H49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K49" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="8:11">
       <c r="H50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K50" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="8:11">
       <c r="H51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K51" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="8:11">
       <c r="H52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K52" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="8:11">
       <c r="H53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K53" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="8:11">
       <c r="H54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="8:11">
       <c r="H55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K55" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="8:11">
       <c r="H56" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K56" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="8:11">
       <c r="H57" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K57" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="8:11">
       <c r="H58" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="8:11">
       <c r="H59" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K59" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="8:11">
       <c r="H60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K60" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="8:11">
       <c r="H61" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K61" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="8:11">
       <c r="H62" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K62" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="8:11">
       <c r="H63" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K63" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="64" spans="8:11">
       <c r="H64" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K64" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="8:11">
       <c r="H65" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K65" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="66" spans="8:11">
       <c r="H66" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K66" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="8:11">
       <c r="H67" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="8:11">
       <c r="H68" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K68" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="8:11">
       <c r="H69" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K69" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="8:11">
       <c r="H70" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K70" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="8:11">
       <c r="H71" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K71" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="8:11">
       <c r="H72" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K72" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="73" spans="8:11">
       <c r="H73" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K73" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="8:11">
       <c r="H74" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K74" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="8:11">
       <c r="H75" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K75" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="8:11">
       <c r="H76" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K76" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="8:11">
       <c r="H77" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K77" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="8:11">
       <c r="H78" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K78" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="8:11">
       <c r="H79" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K79" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="8:11">
       <c r="H80" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K80" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="8:11">
       <c r="H81" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K81" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" spans="8:11">
       <c r="H82" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K82" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="8:11">
       <c r="H83" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K83" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="8:11">
       <c r="H84" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K84" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="8:11">
       <c r="H85" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K85" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="8:11">
       <c r="H86" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K86" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="8:11">
       <c r="H87" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K87" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="8:11">
       <c r="H88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K88" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="8:11">
       <c r="H89" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K89" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="8:11">
       <c r="H90" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K90" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="8:11">
       <c r="H91" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K91" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="8:11">
       <c r="H92" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K92" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="8:11">
       <c r="H93" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="8:11">
       <c r="H94" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K94" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="8:11">
       <c r="H95" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K95" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="8:11">
       <c r="H96" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K96" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="8:11">
       <c r="H97" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K97" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="8:11">
       <c r="H98" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K98" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="8:11">
       <c r="H99" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K99" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="8:11">
       <c r="H100" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K100" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="101" spans="8:11">
       <c r="H101" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K101" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" spans="8:11">
       <c r="H102" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K102" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="8:11">
       <c r="H103" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K103" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="8:11">
       <c r="H104" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K104" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="8:11">
       <c r="H105" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K105" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="8:11">
       <c r="H106" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K106" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="8:11">
       <c r="H107" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K107" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="8:11">
       <c r="H108" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K108" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="8:11">
       <c r="H109" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K109" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="8:11">
       <c r="H110" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K110" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111" spans="8:11">
       <c r="H111" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K111" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="112" spans="8:11">
       <c r="H112" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K112" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="8:11">
       <c r="H113" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K113" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="8:11">
       <c r="H114" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K114" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="115" spans="8:11">
       <c r="H115" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K115" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="116" spans="8:11">
       <c r="H116" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K116" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="117" spans="8:11">
       <c r="H117" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K117" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="118" spans="8:11">
       <c r="H118" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K118" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="119" spans="8:11">
       <c r="H119" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K119" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="120" spans="8:11">
       <c r="H120" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K120" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121" spans="8:11">
       <c r="H121" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K121" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="122" spans="8:11">
       <c r="H122" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K122" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="123" spans="8:11">
       <c r="H123" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K123" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="124" spans="8:11">
       <c r="H124" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K124" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="8:11">
       <c r="H125" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K125" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="8:11">
       <c r="H126" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K126" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127" spans="8:11">
       <c r="H127" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K127" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="8:11">
       <c r="H128" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K128" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="8:11">
       <c r="H129" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K129" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="8:11">
       <c r="H130" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K130" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131" spans="8:11">
       <c r="H131" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K131" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="8:11">
       <c r="H132" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K132" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="133" spans="8:11">
       <c r="H133" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K133" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="134" spans="8:11">
       <c r="H134" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K134" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="8:11">
       <c r="H135" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K135" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="136" spans="8:11">
       <c r="H136" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K136" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="137" spans="8:11">
       <c r="H137" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K137" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="138" spans="8:11">
       <c r="H138" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K138" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="139" spans="8:11">
       <c r="H139" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K139" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="8:11">
       <c r="H140" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K140" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141" spans="8:11">
       <c r="H141" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K141" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142" spans="8:11">
       <c r="H142" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K142" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="143" spans="8:11">
       <c r="H143" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K143" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144" spans="8:11">
       <c r="H144" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K144" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145" spans="8:11">
       <c r="H145" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K145" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="146" spans="8:11">
       <c r="H146" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K146" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="147" spans="8:11">
       <c r="H147" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K147" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="148" spans="8:11">
       <c r="H148" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K148" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="149" spans="8:11">
       <c r="H149" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K149" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="150" spans="8:11">
       <c r="H150" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K150" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="151" spans="8:11">
       <c r="H151" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K151" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="8:11">
       <c r="H152" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K152" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="8:11">
       <c r="H153" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K153" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154" spans="8:11">
       <c r="H154" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K154" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="155" spans="8:11">
       <c r="H155" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K155" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="8:11">
       <c r="H156" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K156" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="157" spans="8:11">
       <c r="H157" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K157" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="158" spans="8:11">
       <c r="H158" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K158" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="159" spans="8:11">
       <c r="H159" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K159" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="160" spans="8:11">
       <c r="H160" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K160" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="161" spans="8:11">
       <c r="H161" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K161" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="162" spans="8:11">
       <c r="H162" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K162" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="163" spans="8:11">
       <c r="H163" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K163" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="164" spans="8:11">
       <c r="H164" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K164" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="165" spans="8:11">
       <c r="H165" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K165" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="166" spans="8:11">
       <c r="H166" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K166" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="167" spans="8:11">
       <c r="H167" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K167" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="168" spans="8:11">
       <c r="H168" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K168" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" spans="8:11">
       <c r="H169" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K169" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" spans="8:11">
       <c r="H170" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K170" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="8:11">
       <c r="H171" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K171" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="172" spans="8:11">
       <c r="H172" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K172" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="173" spans="8:11">
       <c r="H173" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K173" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="8:11">
       <c r="H174" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K174" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="8:11">
       <c r="H175" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K175" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="176" spans="8:11">
       <c r="H176" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K176" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="177" spans="8:11">
       <c r="H177" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K177" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="178" spans="8:11">
       <c r="H178" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K178" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="179" spans="8:11">
       <c r="H179" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K179" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="180" spans="8:11">
       <c r="H180" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K180" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="8:11">
       <c r="H181" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K181" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" spans="8:11">
       <c r="H182" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K182" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="183" spans="8:11">
       <c r="H183" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K183" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="184" spans="8:11">
       <c r="H184" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K184" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="185" spans="8:11">
       <c r="H185" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K185" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="186" spans="8:11">
       <c r="H186" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K186" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="187" spans="8:11">
       <c r="H187" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K187" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="188" spans="8:11">
       <c r="H188" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K188" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="189" spans="8:11">
       <c r="H189" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K189" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="190" spans="8:11">
       <c r="H190" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K190" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="191" spans="8:11">
       <c r="H191" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K191" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="192" spans="8:11">
       <c r="H192" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K192" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="193" spans="8:11">
       <c r="H193" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K193" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="194" spans="8:11">
       <c r="H194" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K194" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="195" spans="8:11">
       <c r="H195" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K195" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="196" spans="8:11">
       <c r="H196" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K196" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="197" spans="8:11">
       <c r="H197" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K197" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="198" spans="8:11">
       <c r="H198" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K198" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="199" spans="8:11">
       <c r="H199" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K199" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="200" spans="8:11">
       <c r="H200" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K200" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="201" spans="8:11">
       <c r="H201" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K201" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="202" spans="8:11">
       <c r="H202" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K202" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="203" spans="8:11">
       <c r="H203" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K203" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="204" spans="8:11">
       <c r="H204" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K204" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="205" spans="8:11">
       <c r="H205" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K205" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="206" spans="8:11">
       <c r="H206" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K206" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="207" spans="8:11">
       <c r="H207" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K207" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="208" spans="8:11">
       <c r="H208" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K208" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="8:11">
       <c r="H209" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K209" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="210" spans="8:11">
       <c r="H210" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K210" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="211" spans="8:11">
       <c r="H211" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K211" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="212" spans="8:11">
       <c r="H212" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K212" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="213" spans="8:11">
       <c r="H213" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K213" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="214" spans="8:11">
       <c r="H214" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K214" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="215" spans="8:11">
       <c r="H215" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K215" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="216" spans="8:11">
       <c r="H216" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K216" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="217" spans="8:11">
       <c r="H217" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K217" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="218" spans="8:11">
       <c r="H218" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K218" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="219" spans="8:11">
       <c r="H219" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K219" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="220" spans="8:11">
       <c r="H220" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K220" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="221" spans="8:11">
       <c r="H221" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K221" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="222" spans="8:11">
       <c r="H222" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K222" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="223" spans="8:11">
       <c r="H223" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K223" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="224" spans="8:11">
       <c r="H224" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K224" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="225" spans="8:11">
       <c r="H225" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K225" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="226" spans="8:11">
       <c r="H226" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K226" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="227" spans="8:11">
       <c r="H227" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K227" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="228" spans="8:11">
       <c r="H228" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K228" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="229" spans="8:11">
       <c r="H229" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K229" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="230" spans="8:11">
       <c r="H230" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K230" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="231" spans="8:11">
       <c r="H231" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K231" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="232" spans="8:11">
       <c r="H232" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K232" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="233" spans="8:11">
       <c r="H233" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K233" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="234" spans="8:11">
       <c r="H234" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K234" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="235" spans="8:11">
       <c r="H235" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K235" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="236" spans="8:11">
       <c r="H236" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K236" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="237" spans="8:11">
       <c r="H237" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K237" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="238" spans="8:11">
       <c r="H238" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K238" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="239" spans="8:11">
       <c r="H239" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K239" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="240" spans="8:11">
       <c r="H240" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K240" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="241" spans="8:11">
       <c r="H241" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K241" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="242" spans="8:11">
       <c r="H242" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K242" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="243" spans="8:11">
       <c r="H243" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K243" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="244" spans="8:11">
       <c r="H244" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K244" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="245" spans="8:11">
       <c r="H245" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K245" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="246" spans="8:11">
       <c r="H246" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K246" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="247" spans="8:11">
       <c r="H247" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K247" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="248" spans="8:11">
       <c r="H248" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K248" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="249" spans="8:11">
       <c r="H249" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K249" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="250" spans="8:11">
       <c r="H250" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K250" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="251" spans="8:11">
       <c r="H251" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K251" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="252" spans="8:11">
       <c r="H252" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K252" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="253" spans="8:11">
       <c r="H253" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K253" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="254" spans="8:11">
       <c r="H254" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K254" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="255" spans="8:11">
       <c r="H255" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K255" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="256" spans="8:11">
       <c r="H256" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K256" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="257" spans="8:11">
       <c r="H257" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K257" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="258" spans="8:11">
       <c r="H258" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K258" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="259" spans="8:11">
       <c r="H259" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K259" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="260" spans="8:11">
       <c r="H260" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K260" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="261" spans="8:11">
       <c r="H261" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K261" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="262" spans="8:11">
       <c r="H262" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K262" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="263" spans="8:11">
       <c r="H263" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K263" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="264" spans="8:11">
       <c r="H264" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K264" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="265" spans="8:11">
       <c r="H265" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K265" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="266" spans="8:11">
       <c r="H266" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K266" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="267" spans="8:11">
       <c r="H267" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K267" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="268" spans="8:11">
       <c r="H268" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K268" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="269" spans="8:11">
       <c r="H269" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K269" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="270" spans="8:11">
       <c r="H270" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K270" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="271" spans="8:11">
       <c r="H271" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K271" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="272" spans="8:11">
       <c r="H272" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K272" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="273" spans="8:11">
       <c r="H273" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K273" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="274" spans="8:11">
       <c r="K274" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275" spans="8:11">
       <c r="K275" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="276" spans="8:11">
       <c r="K276" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="277" spans="8:11">
       <c r="K277" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="278" spans="8:11">
       <c r="K278" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="279" spans="8:11">
       <c r="K279" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="280" spans="8:11">
       <c r="K280" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="281" spans="8:11">
       <c r="K281" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282" spans="8:11">
       <c r="K282" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="8:11">
       <c r="K283" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="284" spans="8:11">
       <c r="K284" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="8:11">
       <c r="K285" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="286" spans="8:11">
       <c r="K286" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="287" spans="8:11">
       <c r="K287" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="288" spans="8:11">
       <c r="K288" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -115,7 +115,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -133,7 +133,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -20,7 +20,7 @@
     <definedName name="clinicalsetting">'cv_sample'!$G$1:$G$2</definedName>
     <definedName name="countryoftravel">'cv_sample'!$H$1:$H$273</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$O$1:$O$3</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="612">
   <si>
     <t>alias</t>
   </si>
@@ -1705,6 +1705,18 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>subject exposure duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+  </si>
+  <si>
     <t>Arctic Ocean</t>
   </si>
   <si>
@@ -1759,6 +1771,9 @@
     <t>Tasman Sea</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1799,18 +1814,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>subject exposure duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
   </si>
   <si>
     <t>host disease status</t>
@@ -3422,37 +3425,37 @@
         <v>554</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="150" customHeight="1">
@@ -3487,37 +3490,37 @@
         <v>555</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -3531,7 +3534,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>countryoftravel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
@@ -3544,7 +3547,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:O288"/>
+  <dimension ref="F1:O289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3560,11 +3563,11 @@
       <c r="H1" t="s">
         <v>277</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>277</v>
       </c>
       <c r="O1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="6:15">
@@ -3577,11 +3580,11 @@
       <c r="H2" t="s">
         <v>278</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>278</v>
       </c>
       <c r="O2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="6:15">
@@ -3591,18 +3594,18 @@
       <c r="H3" t="s">
         <v>279</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>279</v>
       </c>
       <c r="O3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="6:15">
       <c r="H4" t="s">
         <v>280</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3610,7 +3613,7 @@
       <c r="H5" t="s">
         <v>281</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3618,7 +3621,7 @@
       <c r="H6" t="s">
         <v>282</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3626,7 +3629,7 @@
       <c r="H7" t="s">
         <v>283</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3634,7 +3637,7 @@
       <c r="H8" t="s">
         <v>284</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3642,7 +3645,7 @@
       <c r="H9" t="s">
         <v>285</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3650,15 +3653,15 @@
       <c r="H10" t="s">
         <v>286</v>
       </c>
-      <c r="K10" t="s">
-        <v>556</v>
+      <c r="M10" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="6:15">
       <c r="H11" t="s">
         <v>287</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3666,7 +3669,7 @@
       <c r="H12" t="s">
         <v>288</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3674,7 +3677,7 @@
       <c r="H13" t="s">
         <v>289</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3682,7 +3685,7 @@
       <c r="H14" t="s">
         <v>290</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3690,2147 +3693,2152 @@
       <c r="H15" t="s">
         <v>291</v>
       </c>
-      <c r="K15" t="s">
-        <v>557</v>
+      <c r="M15" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="6:15">
       <c r="H16" t="s">
         <v>292</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="8:11">
+    <row r="17" spans="8:13">
       <c r="H17" t="s">
         <v>293</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="8:11">
+    <row r="18" spans="8:13">
       <c r="H18" t="s">
         <v>294</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="8:11">
+    <row r="19" spans="8:13">
       <c r="H19" t="s">
         <v>295</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="8:11">
+    <row r="20" spans="8:13">
       <c r="H20" t="s">
         <v>296</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="8:11">
+    <row r="21" spans="8:13">
       <c r="H21" t="s">
         <v>297</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="8:11">
+    <row r="22" spans="8:13">
       <c r="H22" t="s">
         <v>298</v>
       </c>
-      <c r="K22" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11">
+      <c r="M22" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13">
       <c r="H23" t="s">
         <v>299</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="8:11">
+    <row r="24" spans="8:13">
       <c r="H24" t="s">
         <v>300</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="8:11">
+    <row r="25" spans="8:13">
       <c r="H25" t="s">
         <v>301</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="8:11">
+    <row r="26" spans="8:13">
       <c r="H26" t="s">
         <v>302</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="8:11">
+    <row r="27" spans="8:13">
       <c r="H27" t="s">
         <v>303</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="8:11">
+    <row r="28" spans="8:13">
       <c r="H28" t="s">
         <v>304</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="8:11">
+    <row r="29" spans="8:13">
       <c r="H29" t="s">
         <v>305</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="8:11">
+    <row r="30" spans="8:13">
       <c r="H30" t="s">
         <v>306</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="8:11">
+    <row r="31" spans="8:13">
       <c r="H31" t="s">
         <v>307</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="8:11">
+    <row r="32" spans="8:13">
       <c r="H32" t="s">
         <v>308</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="8:11">
+    <row r="33" spans="8:13">
       <c r="H33" t="s">
         <v>309</v>
       </c>
-      <c r="K33" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11">
+      <c r="M33" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13">
       <c r="H34" t="s">
         <v>310</v>
       </c>
-      <c r="K34" t="s">
+      <c r="M34" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="8:11">
+    <row r="35" spans="8:13">
       <c r="H35" t="s">
         <v>311</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M35" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="8:11">
+    <row r="36" spans="8:13">
       <c r="H36" t="s">
         <v>312</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="8:11">
+    <row r="37" spans="8:13">
       <c r="H37" t="s">
         <v>313</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="8:11">
+    <row r="38" spans="8:13">
       <c r="H38" t="s">
         <v>314</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="8:11">
+    <row r="39" spans="8:13">
       <c r="H39" t="s">
         <v>315</v>
       </c>
-      <c r="K39" t="s">
+      <c r="M39" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="8:11">
+    <row r="40" spans="8:13">
       <c r="H40" t="s">
         <v>316</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="8:11">
+    <row r="41" spans="8:13">
       <c r="H41" t="s">
         <v>317</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="42" spans="8:11">
+    <row r="42" spans="8:13">
       <c r="H42" t="s">
         <v>318</v>
       </c>
-      <c r="K42" t="s">
+      <c r="M42" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="8:11">
+    <row r="43" spans="8:13">
       <c r="H43" t="s">
         <v>319</v>
       </c>
-      <c r="K43" t="s">
+      <c r="M43" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="8:11">
+    <row r="44" spans="8:13">
       <c r="H44" t="s">
         <v>320</v>
       </c>
-      <c r="K44" t="s">
+      <c r="M44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="8:11">
+    <row r="45" spans="8:13">
       <c r="H45" t="s">
         <v>321</v>
       </c>
-      <c r="K45" t="s">
+      <c r="M45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="8:11">
+    <row r="46" spans="8:13">
       <c r="H46" t="s">
         <v>322</v>
       </c>
-      <c r="K46" t="s">
+      <c r="M46" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="47" spans="8:11">
+    <row r="47" spans="8:13">
       <c r="H47" t="s">
         <v>323</v>
       </c>
-      <c r="K47" t="s">
+      <c r="M47" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="48" spans="8:11">
+    <row r="48" spans="8:13">
       <c r="H48" t="s">
         <v>324</v>
       </c>
-      <c r="K48" t="s">
+      <c r="M48" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="8:11">
+    <row r="49" spans="8:13">
       <c r="H49" t="s">
         <v>325</v>
       </c>
-      <c r="K49" t="s">
+      <c r="M49" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="8:11">
+    <row r="50" spans="8:13">
       <c r="H50" t="s">
         <v>326</v>
       </c>
-      <c r="K50" t="s">
+      <c r="M50" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="8:11">
+    <row r="51" spans="8:13">
       <c r="H51" t="s">
         <v>327</v>
       </c>
-      <c r="K51" t="s">
+      <c r="M51" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="52" spans="8:11">
+    <row r="52" spans="8:13">
       <c r="H52" t="s">
         <v>328</v>
       </c>
-      <c r="K52" t="s">
+      <c r="M52" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="53" spans="8:11">
+    <row r="53" spans="8:13">
       <c r="H53" t="s">
         <v>329</v>
       </c>
-      <c r="K53" t="s">
+      <c r="M53" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="8:11">
+    <row r="54" spans="8:13">
       <c r="H54" t="s">
         <v>330</v>
       </c>
-      <c r="K54" t="s">
+      <c r="M54" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="55" spans="8:11">
+    <row r="55" spans="8:13">
       <c r="H55" t="s">
         <v>331</v>
       </c>
-      <c r="K55" t="s">
+      <c r="M55" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="56" spans="8:11">
+    <row r="56" spans="8:13">
       <c r="H56" t="s">
         <v>332</v>
       </c>
-      <c r="K56" t="s">
+      <c r="M56" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="8:11">
+    <row r="57" spans="8:13">
       <c r="H57" t="s">
         <v>333</v>
       </c>
-      <c r="K57" t="s">
+      <c r="M57" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="8:11">
+    <row r="58" spans="8:13">
       <c r="H58" t="s">
         <v>334</v>
       </c>
-      <c r="K58" t="s">
+      <c r="M58" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="59" spans="8:11">
+    <row r="59" spans="8:13">
       <c r="H59" t="s">
         <v>335</v>
       </c>
-      <c r="K59" t="s">
+      <c r="M59" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="60" spans="8:11">
+    <row r="60" spans="8:13">
       <c r="H60" t="s">
         <v>336</v>
       </c>
-      <c r="K60" t="s">
+      <c r="M60" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="61" spans="8:11">
+    <row r="61" spans="8:13">
       <c r="H61" t="s">
         <v>337</v>
       </c>
-      <c r="K61" t="s">
+      <c r="M61" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="8:11">
+    <row r="62" spans="8:13">
       <c r="H62" t="s">
         <v>338</v>
       </c>
-      <c r="K62" t="s">
+      <c r="M62" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="8:11">
+    <row r="63" spans="8:13">
       <c r="H63" t="s">
         <v>339</v>
       </c>
-      <c r="K63" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="64" spans="8:11">
+      <c r="M63" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="64" spans="8:13">
       <c r="H64" t="s">
         <v>340</v>
       </c>
-      <c r="K64" t="s">
+      <c r="M64" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="8:11">
+    <row r="65" spans="8:13">
       <c r="H65" t="s">
         <v>341</v>
       </c>
-      <c r="K65" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="66" spans="8:11">
+      <c r="M65" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="66" spans="8:13">
       <c r="H66" t="s">
         <v>342</v>
       </c>
-      <c r="K66" t="s">
+      <c r="M66" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="67" spans="8:11">
+    <row r="67" spans="8:13">
       <c r="H67" t="s">
         <v>343</v>
       </c>
-      <c r="K67" t="s">
+      <c r="M67" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="8:11">
+    <row r="68" spans="8:13">
       <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="K68" t="s">
+      <c r="M68" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="69" spans="8:11">
+    <row r="69" spans="8:13">
       <c r="H69" t="s">
         <v>345</v>
       </c>
-      <c r="K69" t="s">
+      <c r="M69" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="70" spans="8:11">
+    <row r="70" spans="8:13">
       <c r="H70" t="s">
         <v>346</v>
       </c>
-      <c r="K70" t="s">
+      <c r="M70" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="71" spans="8:11">
+    <row r="71" spans="8:13">
       <c r="H71" t="s">
         <v>347</v>
       </c>
-      <c r="K71" t="s">
+      <c r="M71" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="72" spans="8:11">
+    <row r="72" spans="8:13">
       <c r="H72" t="s">
         <v>348</v>
       </c>
-      <c r="K72" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="73" spans="8:11">
+      <c r="M72" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="73" spans="8:13">
       <c r="H73" t="s">
         <v>349</v>
       </c>
-      <c r="K73" t="s">
+      <c r="M73" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="8:11">
+    <row r="74" spans="8:13">
       <c r="H74" t="s">
         <v>350</v>
       </c>
-      <c r="K74" t="s">
+      <c r="M74" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="8:11">
+    <row r="75" spans="8:13">
       <c r="H75" t="s">
         <v>351</v>
       </c>
-      <c r="K75" t="s">
+      <c r="M75" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="76" spans="8:11">
+    <row r="76" spans="8:13">
       <c r="H76" t="s">
         <v>352</v>
       </c>
-      <c r="K76" t="s">
+      <c r="M76" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="77" spans="8:11">
+    <row r="77" spans="8:13">
       <c r="H77" t="s">
         <v>353</v>
       </c>
-      <c r="K77" t="s">
+      <c r="M77" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="8:11">
+    <row r="78" spans="8:13">
       <c r="H78" t="s">
         <v>354</v>
       </c>
-      <c r="K78" t="s">
+      <c r="M78" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="79" spans="8:11">
+    <row r="79" spans="8:13">
       <c r="H79" t="s">
         <v>355</v>
       </c>
-      <c r="K79" t="s">
+      <c r="M79" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="8:11">
+    <row r="80" spans="8:13">
       <c r="H80" t="s">
         <v>356</v>
       </c>
-      <c r="K80" t="s">
+      <c r="M80" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="8:11">
+    <row r="81" spans="8:13">
       <c r="H81" t="s">
         <v>357</v>
       </c>
-      <c r="K81" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="82" spans="8:11">
+      <c r="M81" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="82" spans="8:13">
       <c r="H82" t="s">
         <v>358</v>
       </c>
-      <c r="K82" t="s">
+      <c r="M82" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="83" spans="8:11">
+    <row r="83" spans="8:13">
       <c r="H83" t="s">
         <v>359</v>
       </c>
-      <c r="K83" t="s">
+      <c r="M83" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="84" spans="8:11">
+    <row r="84" spans="8:13">
       <c r="H84" t="s">
         <v>360</v>
       </c>
-      <c r="K84" t="s">
+      <c r="M84" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="85" spans="8:11">
+    <row r="85" spans="8:13">
       <c r="H85" t="s">
         <v>361</v>
       </c>
-      <c r="K85" t="s">
+      <c r="M85" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="86" spans="8:11">
+    <row r="86" spans="8:13">
       <c r="H86" t="s">
         <v>362</v>
       </c>
-      <c r="K86" t="s">
+      <c r="M86" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="8:11">
+    <row r="87" spans="8:13">
       <c r="H87" t="s">
         <v>363</v>
       </c>
-      <c r="K87" t="s">
+      <c r="M87" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="8:11">
+    <row r="88" spans="8:13">
       <c r="H88" t="s">
         <v>364</v>
       </c>
-      <c r="K88" t="s">
+      <c r="M88" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="89" spans="8:11">
+    <row r="89" spans="8:13">
       <c r="H89" t="s">
         <v>365</v>
       </c>
-      <c r="K89" t="s">
+      <c r="M89" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="90" spans="8:11">
+    <row r="90" spans="8:13">
       <c r="H90" t="s">
         <v>366</v>
       </c>
-      <c r="K90" t="s">
+      <c r="M90" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="91" spans="8:11">
+    <row r="91" spans="8:13">
       <c r="H91" t="s">
         <v>367</v>
       </c>
-      <c r="K91" t="s">
+      <c r="M91" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="8:11">
+    <row r="92" spans="8:13">
       <c r="H92" t="s">
         <v>368</v>
       </c>
-      <c r="K92" t="s">
+      <c r="M92" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="93" spans="8:11">
+    <row r="93" spans="8:13">
       <c r="H93" t="s">
         <v>369</v>
       </c>
-      <c r="K93" t="s">
+      <c r="M93" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="94" spans="8:11">
+    <row r="94" spans="8:13">
       <c r="H94" t="s">
         <v>370</v>
       </c>
-      <c r="K94" t="s">
+      <c r="M94" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="8:11">
+    <row r="95" spans="8:13">
       <c r="H95" t="s">
         <v>371</v>
       </c>
-      <c r="K95" t="s">
+      <c r="M95" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="96" spans="8:11">
+    <row r="96" spans="8:13">
       <c r="H96" t="s">
         <v>372</v>
       </c>
-      <c r="K96" t="s">
+      <c r="M96" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="8:11">
+    <row r="97" spans="8:13">
       <c r="H97" t="s">
         <v>373</v>
       </c>
-      <c r="K97" t="s">
+      <c r="M97" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="98" spans="8:11">
+    <row r="98" spans="8:13">
       <c r="H98" t="s">
         <v>374</v>
       </c>
-      <c r="K98" t="s">
+      <c r="M98" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="99" spans="8:11">
+    <row r="99" spans="8:13">
       <c r="H99" t="s">
         <v>375</v>
       </c>
-      <c r="K99" t="s">
+      <c r="M99" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="8:11">
+    <row r="100" spans="8:13">
       <c r="H100" t="s">
         <v>376</v>
       </c>
-      <c r="K100" t="s">
+      <c r="M100" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="101" spans="8:11">
+    <row r="101" spans="8:13">
       <c r="H101" t="s">
         <v>377</v>
       </c>
-      <c r="K101" t="s">
+      <c r="M101" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="102" spans="8:11">
+    <row r="102" spans="8:13">
       <c r="H102" t="s">
         <v>378</v>
       </c>
-      <c r="K102" t="s">
+      <c r="M102" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="8:11">
+    <row r="103" spans="8:13">
       <c r="H103" t="s">
         <v>379</v>
       </c>
-      <c r="K103" t="s">
+      <c r="M103" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="104" spans="8:11">
+    <row r="104" spans="8:13">
       <c r="H104" t="s">
         <v>380</v>
       </c>
-      <c r="K104" t="s">
+      <c r="M104" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="8:11">
+    <row r="105" spans="8:13">
       <c r="H105" t="s">
         <v>381</v>
       </c>
-      <c r="K105" t="s">
+      <c r="M105" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="8:11">
+    <row r="106" spans="8:13">
       <c r="H106" t="s">
         <v>382</v>
       </c>
-      <c r="K106" t="s">
+      <c r="M106" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="8:11">
+    <row r="107" spans="8:13">
       <c r="H107" t="s">
         <v>383</v>
       </c>
-      <c r="K107" t="s">
+      <c r="M107" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="108" spans="8:11">
+    <row r="108" spans="8:13">
       <c r="H108" t="s">
         <v>384</v>
       </c>
-      <c r="K108" t="s">
+      <c r="M108" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="109" spans="8:11">
+    <row r="109" spans="8:13">
       <c r="H109" t="s">
         <v>385</v>
       </c>
-      <c r="K109" t="s">
+      <c r="M109" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="8:11">
+    <row r="110" spans="8:13">
       <c r="H110" t="s">
         <v>386</v>
       </c>
-      <c r="K110" t="s">
+      <c r="M110" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="8:11">
+    <row r="111" spans="8:13">
       <c r="H111" t="s">
         <v>387</v>
       </c>
-      <c r="K111" t="s">
+      <c r="M111" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="8:11">
+    <row r="112" spans="8:13">
       <c r="H112" t="s">
         <v>388</v>
       </c>
-      <c r="K112" t="s">
+      <c r="M112" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="8:11">
+    <row r="113" spans="8:13">
       <c r="H113" t="s">
         <v>389</v>
       </c>
-      <c r="K113" t="s">
+      <c r="M113" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="8:11">
+    <row r="114" spans="8:13">
       <c r="H114" t="s">
         <v>390</v>
       </c>
-      <c r="K114" t="s">
+      <c r="M114" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="115" spans="8:11">
+    <row r="115" spans="8:13">
       <c r="H115" t="s">
         <v>391</v>
       </c>
-      <c r="K115" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="116" spans="8:11">
+      <c r="M115" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="116" spans="8:13">
       <c r="H116" t="s">
         <v>392</v>
       </c>
-      <c r="K116" t="s">
+      <c r="M116" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="117" spans="8:11">
+    <row r="117" spans="8:13">
       <c r="H117" t="s">
         <v>393</v>
       </c>
-      <c r="K117" t="s">
+      <c r="M117" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="118" spans="8:11">
+    <row r="118" spans="8:13">
       <c r="H118" t="s">
         <v>394</v>
       </c>
-      <c r="K118" t="s">
+      <c r="M118" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="119" spans="8:11">
+    <row r="119" spans="8:13">
       <c r="H119" t="s">
         <v>395</v>
       </c>
-      <c r="K119" t="s">
+      <c r="M119" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="120" spans="8:11">
+    <row r="120" spans="8:13">
       <c r="H120" t="s">
         <v>396</v>
       </c>
-      <c r="K120" t="s">
+      <c r="M120" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="121" spans="8:11">
+    <row r="121" spans="8:13">
       <c r="H121" t="s">
         <v>397</v>
       </c>
-      <c r="K121" t="s">
+      <c r="M121" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="122" spans="8:11">
+    <row r="122" spans="8:13">
       <c r="H122" t="s">
         <v>398</v>
       </c>
-      <c r="K122" t="s">
+      <c r="M122" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="123" spans="8:11">
+    <row r="123" spans="8:13">
       <c r="H123" t="s">
         <v>399</v>
       </c>
-      <c r="K123" t="s">
+      <c r="M123" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="124" spans="8:11">
+    <row r="124" spans="8:13">
       <c r="H124" t="s">
         <v>400</v>
       </c>
-      <c r="K124" t="s">
+      <c r="M124" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="125" spans="8:11">
+    <row r="125" spans="8:13">
       <c r="H125" t="s">
         <v>401</v>
       </c>
-      <c r="K125" t="s">
+      <c r="M125" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="126" spans="8:11">
+    <row r="126" spans="8:13">
       <c r="H126" t="s">
         <v>402</v>
       </c>
-      <c r="K126" t="s">
+      <c r="M126" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="127" spans="8:11">
+    <row r="127" spans="8:13">
       <c r="H127" t="s">
         <v>403</v>
       </c>
-      <c r="K127" t="s">
+      <c r="M127" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="8:11">
+    <row r="128" spans="8:13">
       <c r="H128" t="s">
         <v>404</v>
       </c>
-      <c r="K128" t="s">
+      <c r="M128" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="8:11">
+    <row r="129" spans="8:13">
       <c r="H129" t="s">
         <v>405</v>
       </c>
-      <c r="K129" t="s">
+      <c r="M129" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="130" spans="8:11">
+    <row r="130" spans="8:13">
       <c r="H130" t="s">
         <v>406</v>
       </c>
-      <c r="K130" t="s">
+      <c r="M130" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="131" spans="8:11">
+    <row r="131" spans="8:13">
       <c r="H131" t="s">
         <v>407</v>
       </c>
-      <c r="K131" t="s">
+      <c r="M131" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="132" spans="8:11">
+    <row r="132" spans="8:13">
       <c r="H132" t="s">
         <v>408</v>
       </c>
-      <c r="K132" t="s">
+      <c r="M132" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="133" spans="8:11">
+    <row r="133" spans="8:13">
       <c r="H133" t="s">
         <v>409</v>
       </c>
-      <c r="K133" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="134" spans="8:11">
+      <c r="M133" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="134" spans="8:13">
       <c r="H134" t="s">
         <v>410</v>
       </c>
-      <c r="K134" t="s">
+      <c r="M134" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="135" spans="8:11">
+    <row r="135" spans="8:13">
       <c r="H135" t="s">
         <v>411</v>
       </c>
-      <c r="K135" t="s">
+      <c r="M135" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="136" spans="8:11">
+    <row r="136" spans="8:13">
       <c r="H136" t="s">
         <v>412</v>
       </c>
-      <c r="K136" t="s">
+      <c r="M136" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="137" spans="8:11">
+    <row r="137" spans="8:13">
       <c r="H137" t="s">
         <v>413</v>
       </c>
-      <c r="K137" t="s">
+      <c r="M137" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="138" spans="8:11">
+    <row r="138" spans="8:13">
       <c r="H138" t="s">
         <v>414</v>
       </c>
-      <c r="K138" t="s">
+      <c r="M138" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="139" spans="8:11">
+    <row r="139" spans="8:13">
       <c r="H139" t="s">
         <v>415</v>
       </c>
-      <c r="K139" t="s">
+      <c r="M139" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="140" spans="8:11">
+    <row r="140" spans="8:13">
       <c r="H140" t="s">
         <v>416</v>
       </c>
-      <c r="K140" t="s">
+      <c r="M140" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="141" spans="8:11">
+    <row r="141" spans="8:13">
       <c r="H141" t="s">
         <v>417</v>
       </c>
-      <c r="K141" t="s">
+      <c r="M141" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="142" spans="8:11">
+    <row r="142" spans="8:13">
       <c r="H142" t="s">
         <v>418</v>
       </c>
-      <c r="K142" t="s">
+      <c r="M142" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="143" spans="8:11">
+    <row r="143" spans="8:13">
       <c r="H143" t="s">
         <v>419</v>
       </c>
-      <c r="K143" t="s">
+      <c r="M143" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="144" spans="8:11">
+    <row r="144" spans="8:13">
       <c r="H144" t="s">
         <v>420</v>
       </c>
-      <c r="K144" t="s">
+      <c r="M144" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="145" spans="8:11">
+    <row r="145" spans="8:13">
       <c r="H145" t="s">
         <v>421</v>
       </c>
-      <c r="K145" t="s">
+      <c r="M145" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="146" spans="8:11">
+    <row r="146" spans="8:13">
       <c r="H146" t="s">
         <v>422</v>
       </c>
-      <c r="K146" t="s">
+      <c r="M146" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="147" spans="8:11">
+    <row r="147" spans="8:13">
       <c r="H147" t="s">
         <v>423</v>
       </c>
-      <c r="K147" t="s">
+      <c r="M147" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="148" spans="8:11">
+    <row r="148" spans="8:13">
       <c r="H148" t="s">
         <v>424</v>
       </c>
-      <c r="K148" t="s">
+      <c r="M148" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="149" spans="8:11">
+    <row r="149" spans="8:13">
       <c r="H149" t="s">
         <v>425</v>
       </c>
-      <c r="K149" t="s">
+      <c r="M149" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="150" spans="8:11">
+    <row r="150" spans="8:13">
       <c r="H150" t="s">
         <v>426</v>
       </c>
-      <c r="K150" t="s">
+      <c r="M150" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="151" spans="8:11">
+    <row r="151" spans="8:13">
       <c r="H151" t="s">
         <v>427</v>
       </c>
-      <c r="K151" t="s">
+      <c r="M151" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="152" spans="8:11">
+    <row r="152" spans="8:13">
       <c r="H152" t="s">
         <v>428</v>
       </c>
-      <c r="K152" t="s">
+      <c r="M152" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="153" spans="8:11">
+    <row r="153" spans="8:13">
       <c r="H153" t="s">
         <v>429</v>
       </c>
-      <c r="K153" t="s">
+      <c r="M153" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="8:11">
+    <row r="154" spans="8:13">
       <c r="H154" t="s">
         <v>430</v>
       </c>
-      <c r="K154" t="s">
+      <c r="M154" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="155" spans="8:11">
+    <row r="155" spans="8:13">
       <c r="H155" t="s">
         <v>431</v>
       </c>
-      <c r="K155" t="s">
+      <c r="M155" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="156" spans="8:11">
+    <row r="156" spans="8:13">
       <c r="H156" t="s">
         <v>432</v>
       </c>
-      <c r="K156" t="s">
+      <c r="M156" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="157" spans="8:11">
+    <row r="157" spans="8:13">
       <c r="H157" t="s">
         <v>433</v>
       </c>
-      <c r="K157" t="s">
+      <c r="M157" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="158" spans="8:11">
+    <row r="158" spans="8:13">
       <c r="H158" t="s">
         <v>434</v>
       </c>
-      <c r="K158" t="s">
+      <c r="M158" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="159" spans="8:11">
+    <row r="159" spans="8:13">
       <c r="H159" t="s">
         <v>435</v>
       </c>
-      <c r="K159" t="s">
+      <c r="M159" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="160" spans="8:11">
+    <row r="160" spans="8:13">
       <c r="H160" t="s">
         <v>436</v>
       </c>
-      <c r="K160" t="s">
+      <c r="M160" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="161" spans="8:11">
+    <row r="161" spans="8:13">
       <c r="H161" t="s">
         <v>437</v>
       </c>
-      <c r="K161" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="162" spans="8:11">
+      <c r="M161" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="162" spans="8:13">
       <c r="H162" t="s">
         <v>438</v>
       </c>
-      <c r="K162" t="s">
+      <c r="M162" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="163" spans="8:11">
+    <row r="163" spans="8:13">
       <c r="H163" t="s">
         <v>439</v>
       </c>
-      <c r="K163" t="s">
+      <c r="M163" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="164" spans="8:11">
+    <row r="164" spans="8:13">
       <c r="H164" t="s">
         <v>440</v>
       </c>
-      <c r="K164" t="s">
+      <c r="M164" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="165" spans="8:11">
+    <row r="165" spans="8:13">
       <c r="H165" t="s">
         <v>441</v>
       </c>
-      <c r="K165" t="s">
+      <c r="M165" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="166" spans="8:11">
+    <row r="166" spans="8:13">
       <c r="H166" t="s">
         <v>442</v>
       </c>
-      <c r="K166" t="s">
+      <c r="M166" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="167" spans="8:11">
+    <row r="167" spans="8:13">
       <c r="H167" t="s">
         <v>443</v>
       </c>
-      <c r="K167" t="s">
+      <c r="M167" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="168" spans="8:11">
+    <row r="168" spans="8:13">
       <c r="H168" t="s">
         <v>444</v>
       </c>
-      <c r="K168" t="s">
+      <c r="M168" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="169" spans="8:11">
+    <row r="169" spans="8:13">
       <c r="H169" t="s">
         <v>445</v>
       </c>
-      <c r="K169" t="s">
+      <c r="M169" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="170" spans="8:11">
+    <row r="170" spans="8:13">
       <c r="H170" t="s">
         <v>446</v>
       </c>
-      <c r="K170" t="s">
+      <c r="M170" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="171" spans="8:11">
+    <row r="171" spans="8:13">
       <c r="H171" t="s">
         <v>447</v>
       </c>
-      <c r="K171" t="s">
+      <c r="M171" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="172" spans="8:11">
+    <row r="172" spans="8:13">
       <c r="H172" t="s">
         <v>448</v>
       </c>
-      <c r="K172" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="173" spans="8:11">
+      <c r="M172" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="173" spans="8:13">
       <c r="H173" t="s">
         <v>449</v>
       </c>
-      <c r="K173" t="s">
+      <c r="M173" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="174" spans="8:11">
+    <row r="174" spans="8:13">
       <c r="H174" t="s">
         <v>450</v>
       </c>
-      <c r="K174" t="s">
+      <c r="M174" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="175" spans="8:11">
+    <row r="175" spans="8:13">
       <c r="H175" t="s">
         <v>451</v>
       </c>
-      <c r="K175" t="s">
+      <c r="M175" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="176" spans="8:11">
+    <row r="176" spans="8:13">
       <c r="H176" t="s">
         <v>452</v>
       </c>
-      <c r="K176" t="s">
+      <c r="M176" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="177" spans="8:11">
+    <row r="177" spans="8:13">
       <c r="H177" t="s">
         <v>453</v>
       </c>
-      <c r="K177" t="s">
+      <c r="M177" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="178" spans="8:11">
+    <row r="178" spans="8:13">
       <c r="H178" t="s">
         <v>454</v>
       </c>
-      <c r="K178" t="s">
+      <c r="M178" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="179" spans="8:11">
+    <row r="179" spans="8:13">
       <c r="H179" t="s">
         <v>455</v>
       </c>
-      <c r="K179" t="s">
+      <c r="M179" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="180" spans="8:11">
+    <row r="180" spans="8:13">
       <c r="H180" t="s">
         <v>456</v>
       </c>
-      <c r="K180" t="s">
+      <c r="M180" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="181" spans="8:11">
+    <row r="181" spans="8:13">
       <c r="H181" t="s">
         <v>457</v>
       </c>
-      <c r="K181" t="s">
+      <c r="M181" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="182" spans="8:11">
+    <row r="182" spans="8:13">
       <c r="H182" t="s">
         <v>458</v>
       </c>
-      <c r="K182" t="s">
+      <c r="M182" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="183" spans="8:11">
+    <row r="183" spans="8:13">
       <c r="H183" t="s">
         <v>459</v>
       </c>
-      <c r="K183" t="s">
+      <c r="M183" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="184" spans="8:11">
+    <row r="184" spans="8:13">
       <c r="H184" t="s">
         <v>460</v>
       </c>
-      <c r="K184" t="s">
+      <c r="M184" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="185" spans="8:11">
+    <row r="185" spans="8:13">
       <c r="H185" t="s">
         <v>461</v>
       </c>
-      <c r="K185" t="s">
+      <c r="M185" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="186" spans="8:11">
+    <row r="186" spans="8:13">
       <c r="H186" t="s">
         <v>462</v>
       </c>
-      <c r="K186" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="187" spans="8:11">
+      <c r="M186" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="187" spans="8:13">
       <c r="H187" t="s">
         <v>463</v>
       </c>
-      <c r="K187" t="s">
+      <c r="M187" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="188" spans="8:11">
+    <row r="188" spans="8:13">
       <c r="H188" t="s">
         <v>464</v>
       </c>
-      <c r="K188" t="s">
+      <c r="M188" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="189" spans="8:11">
+    <row r="189" spans="8:13">
       <c r="H189" t="s">
         <v>465</v>
       </c>
-      <c r="K189" t="s">
+      <c r="M189" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="190" spans="8:11">
+    <row r="190" spans="8:13">
       <c r="H190" t="s">
         <v>466</v>
       </c>
-      <c r="K190" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="191" spans="8:11">
+      <c r="M190" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="191" spans="8:13">
       <c r="H191" t="s">
         <v>467</v>
       </c>
-      <c r="K191" t="s">
+      <c r="M191" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="192" spans="8:11">
+    <row r="192" spans="8:13">
       <c r="H192" t="s">
         <v>468</v>
       </c>
-      <c r="K192" t="s">
+      <c r="M192" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="193" spans="8:11">
+    <row r="193" spans="8:13">
       <c r="H193" t="s">
         <v>469</v>
       </c>
-      <c r="K193" t="s">
+      <c r="M193" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="194" spans="8:11">
+    <row r="194" spans="8:13">
       <c r="H194" t="s">
         <v>470</v>
       </c>
-      <c r="K194" t="s">
+      <c r="M194" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="195" spans="8:11">
+    <row r="195" spans="8:13">
       <c r="H195" t="s">
         <v>471</v>
       </c>
-      <c r="K195" t="s">
+      <c r="M195" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="196" spans="8:11">
+    <row r="196" spans="8:13">
       <c r="H196" t="s">
         <v>472</v>
       </c>
-      <c r="K196" t="s">
+      <c r="M196" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="197" spans="8:11">
+    <row r="197" spans="8:13">
       <c r="H197" t="s">
         <v>473</v>
       </c>
-      <c r="K197" t="s">
+      <c r="M197" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="198" spans="8:11">
+    <row r="198" spans="8:13">
       <c r="H198" t="s">
         <v>474</v>
       </c>
-      <c r="K198" t="s">
+      <c r="M198" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="199" spans="8:11">
+    <row r="199" spans="8:13">
       <c r="H199" t="s">
         <v>475</v>
       </c>
-      <c r="K199" t="s">
+      <c r="M199" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="200" spans="8:11">
+    <row r="200" spans="8:13">
       <c r="H200" t="s">
         <v>476</v>
       </c>
-      <c r="K200" t="s">
+      <c r="M200" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="201" spans="8:11">
+    <row r="201" spans="8:13">
       <c r="H201" t="s">
         <v>477</v>
       </c>
-      <c r="K201" t="s">
+      <c r="M201" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="202" spans="8:11">
+    <row r="202" spans="8:13">
       <c r="H202" t="s">
         <v>478</v>
       </c>
-      <c r="K202" t="s">
+      <c r="M202" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="203" spans="8:11">
+    <row r="203" spans="8:13">
       <c r="H203" t="s">
         <v>479</v>
       </c>
-      <c r="K203" t="s">
+      <c r="M203" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="204" spans="8:11">
+    <row r="204" spans="8:13">
       <c r="H204" t="s">
         <v>480</v>
       </c>
-      <c r="K204" t="s">
+      <c r="M204" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="205" spans="8:11">
+    <row r="205" spans="8:13">
       <c r="H205" t="s">
         <v>481</v>
       </c>
-      <c r="K205" t="s">
+      <c r="M205" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="206" spans="8:11">
+    <row r="206" spans="8:13">
       <c r="H206" t="s">
         <v>482</v>
       </c>
-      <c r="K206" t="s">
+      <c r="M206" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="207" spans="8:11">
+    <row r="207" spans="8:13">
       <c r="H207" t="s">
         <v>483</v>
       </c>
-      <c r="K207" t="s">
+      <c r="M207" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="208" spans="8:11">
+    <row r="208" spans="8:13">
       <c r="H208" t="s">
         <v>484</v>
       </c>
-      <c r="K208" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="209" spans="8:11">
+      <c r="M208" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="209" spans="8:13">
       <c r="H209" t="s">
         <v>485</v>
       </c>
-      <c r="K209" t="s">
+      <c r="M209" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="210" spans="8:11">
+    <row r="210" spans="8:13">
       <c r="H210" t="s">
         <v>486</v>
       </c>
-      <c r="K210" t="s">
+      <c r="M210" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="211" spans="8:11">
+    <row r="211" spans="8:13">
       <c r="H211" t="s">
         <v>487</v>
       </c>
-      <c r="K211" t="s">
+      <c r="M211" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="212" spans="8:11">
+    <row r="212" spans="8:13">
       <c r="H212" t="s">
         <v>488</v>
       </c>
-      <c r="K212" t="s">
+      <c r="M212" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="213" spans="8:11">
+    <row r="213" spans="8:13">
       <c r="H213" t="s">
         <v>489</v>
       </c>
-      <c r="K213" t="s">
+      <c r="M213" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="214" spans="8:11">
+    <row r="214" spans="8:13">
       <c r="H214" t="s">
         <v>490</v>
       </c>
-      <c r="K214" t="s">
+      <c r="M214" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="215" spans="8:11">
+    <row r="215" spans="8:13">
       <c r="H215" t="s">
         <v>491</v>
       </c>
-      <c r="K215" t="s">
+      <c r="M215" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="216" spans="8:11">
+    <row r="216" spans="8:13">
       <c r="H216" t="s">
         <v>492</v>
       </c>
-      <c r="K216" t="s">
+      <c r="M216" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="217" spans="8:11">
+    <row r="217" spans="8:13">
       <c r="H217" t="s">
         <v>493</v>
       </c>
-      <c r="K217" t="s">
+      <c r="M217" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="218" spans="8:11">
+    <row r="218" spans="8:13">
       <c r="H218" t="s">
         <v>494</v>
       </c>
-      <c r="K218" t="s">
+      <c r="M218" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="219" spans="8:11">
+    <row r="219" spans="8:13">
       <c r="H219" t="s">
         <v>495</v>
       </c>
-      <c r="K219" t="s">
+      <c r="M219" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="220" spans="8:11">
+    <row r="220" spans="8:13">
       <c r="H220" t="s">
         <v>496</v>
       </c>
-      <c r="K220" t="s">
+      <c r="M220" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="221" spans="8:11">
+    <row r="221" spans="8:13">
       <c r="H221" t="s">
         <v>497</v>
       </c>
-      <c r="K221" t="s">
+      <c r="M221" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="222" spans="8:11">
+    <row r="222" spans="8:13">
       <c r="H222" t="s">
         <v>498</v>
       </c>
-      <c r="K222" t="s">
+      <c r="M222" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="223" spans="8:11">
+    <row r="223" spans="8:13">
       <c r="H223" t="s">
         <v>499</v>
       </c>
-      <c r="K223" t="s">
+      <c r="M223" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="224" spans="8:11">
+    <row r="224" spans="8:13">
       <c r="H224" t="s">
         <v>500</v>
       </c>
-      <c r="K224" t="s">
+      <c r="M224" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="225" spans="8:11">
+    <row r="225" spans="8:13">
       <c r="H225" t="s">
         <v>501</v>
       </c>
-      <c r="K225" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="226" spans="8:11">
+      <c r="M225" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="226" spans="8:13">
       <c r="H226" t="s">
         <v>502</v>
       </c>
-      <c r="K226" t="s">
+      <c r="M226" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="227" spans="8:11">
+    <row r="227" spans="8:13">
       <c r="H227" t="s">
         <v>503</v>
       </c>
-      <c r="K227" t="s">
+      <c r="M227" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="228" spans="8:11">
+    <row r="228" spans="8:13">
       <c r="H228" t="s">
         <v>504</v>
       </c>
-      <c r="K228" t="s">
+      <c r="M228" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="229" spans="8:11">
+    <row r="229" spans="8:13">
       <c r="H229" t="s">
         <v>505</v>
       </c>
-      <c r="K229" t="s">
+      <c r="M229" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="230" spans="8:11">
+    <row r="230" spans="8:13">
       <c r="H230" t="s">
         <v>506</v>
       </c>
-      <c r="K230" t="s">
+      <c r="M230" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="231" spans="8:11">
+    <row r="231" spans="8:13">
       <c r="H231" t="s">
         <v>507</v>
       </c>
-      <c r="K231" t="s">
+      <c r="M231" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="232" spans="8:11">
+    <row r="232" spans="8:13">
       <c r="H232" t="s">
         <v>508</v>
       </c>
-      <c r="K232" t="s">
+      <c r="M232" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="233" spans="8:11">
+    <row r="233" spans="8:13">
       <c r="H233" t="s">
         <v>509</v>
       </c>
-      <c r="K233" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="234" spans="8:11">
+      <c r="M233" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="234" spans="8:13">
       <c r="H234" t="s">
         <v>510</v>
       </c>
-      <c r="K234" t="s">
+      <c r="M234" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="235" spans="8:11">
+    <row r="235" spans="8:13">
       <c r="H235" t="s">
         <v>511</v>
       </c>
-      <c r="K235" t="s">
+      <c r="M235" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="236" spans="8:11">
+    <row r="236" spans="8:13">
       <c r="H236" t="s">
         <v>512</v>
       </c>
-      <c r="K236" t="s">
+      <c r="M236" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="237" spans="8:11">
+    <row r="237" spans="8:13">
       <c r="H237" t="s">
         <v>513</v>
       </c>
-      <c r="K237" t="s">
+      <c r="M237" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="238" spans="8:11">
+    <row r="238" spans="8:13">
       <c r="H238" t="s">
         <v>514</v>
       </c>
-      <c r="K238" t="s">
+      <c r="M238" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="239" spans="8:11">
+    <row r="239" spans="8:13">
       <c r="H239" t="s">
         <v>515</v>
       </c>
-      <c r="K239" t="s">
+      <c r="M239" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="240" spans="8:11">
+    <row r="240" spans="8:13">
       <c r="H240" t="s">
         <v>516</v>
       </c>
-      <c r="K240" t="s">
+      <c r="M240" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="241" spans="8:11">
+    <row r="241" spans="8:13">
       <c r="H241" t="s">
         <v>517</v>
       </c>
-      <c r="K241" t="s">
+      <c r="M241" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="242" spans="8:11">
+    <row r="242" spans="8:13">
       <c r="H242" t="s">
         <v>518</v>
       </c>
-      <c r="K242" t="s">
+      <c r="M242" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="243" spans="8:11">
+    <row r="243" spans="8:13">
       <c r="H243" t="s">
         <v>519</v>
       </c>
-      <c r="K243" t="s">
+      <c r="M243" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="244" spans="8:11">
+    <row r="244" spans="8:13">
       <c r="H244" t="s">
         <v>520</v>
       </c>
-      <c r="K244" t="s">
+      <c r="M244" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="245" spans="8:11">
+    <row r="245" spans="8:13">
       <c r="H245" t="s">
         <v>521</v>
       </c>
-      <c r="K245" t="s">
+      <c r="M245" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="246" spans="8:11">
+    <row r="246" spans="8:13">
       <c r="H246" t="s">
         <v>522</v>
       </c>
-      <c r="K246" t="s">
+      <c r="M246" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="247" spans="8:11">
+    <row r="247" spans="8:13">
       <c r="H247" t="s">
         <v>523</v>
       </c>
-      <c r="K247" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="248" spans="8:11">
+      <c r="M247" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="248" spans="8:13">
       <c r="H248" t="s">
         <v>524</v>
       </c>
-      <c r="K248" t="s">
+      <c r="M248" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="249" spans="8:11">
+    <row r="249" spans="8:13">
       <c r="H249" t="s">
         <v>525</v>
       </c>
-      <c r="K249" t="s">
+      <c r="M249" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="250" spans="8:11">
+    <row r="250" spans="8:13">
       <c r="H250" t="s">
         <v>526</v>
       </c>
-      <c r="K250" t="s">
+      <c r="M250" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="251" spans="8:11">
+    <row r="251" spans="8:13">
       <c r="H251" t="s">
         <v>527</v>
       </c>
-      <c r="K251" t="s">
+      <c r="M251" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="252" spans="8:11">
+    <row r="252" spans="8:13">
       <c r="H252" t="s">
         <v>528</v>
       </c>
-      <c r="K252" t="s">
+      <c r="M252" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="253" spans="8:11">
+    <row r="253" spans="8:13">
       <c r="H253" t="s">
         <v>529</v>
       </c>
-      <c r="K253" t="s">
+      <c r="M253" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="254" spans="8:11">
+    <row r="254" spans="8:13">
       <c r="H254" t="s">
         <v>530</v>
       </c>
-      <c r="K254" t="s">
+      <c r="M254" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="255" spans="8:11">
+    <row r="255" spans="8:13">
       <c r="H255" t="s">
         <v>531</v>
       </c>
-      <c r="K255" t="s">
+      <c r="M255" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="256" spans="8:11">
+    <row r="256" spans="8:13">
       <c r="H256" t="s">
         <v>532</v>
       </c>
-      <c r="K256" t="s">
+      <c r="M256" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="257" spans="8:11">
+    <row r="257" spans="8:13">
       <c r="H257" t="s">
         <v>533</v>
       </c>
-      <c r="K257" t="s">
+      <c r="M257" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="258" spans="8:11">
+    <row r="258" spans="8:13">
       <c r="H258" t="s">
         <v>534</v>
       </c>
-      <c r="K258" t="s">
+      <c r="M258" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="259" spans="8:11">
+    <row r="259" spans="8:13">
       <c r="H259" t="s">
         <v>535</v>
       </c>
-      <c r="K259" t="s">
+      <c r="M259" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="260" spans="8:11">
+    <row r="260" spans="8:13">
       <c r="H260" t="s">
         <v>536</v>
       </c>
-      <c r="K260" t="s">
+      <c r="M260" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="261" spans="8:11">
+    <row r="261" spans="8:13">
       <c r="H261" t="s">
         <v>537</v>
       </c>
-      <c r="K261" t="s">
+      <c r="M261" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="262" spans="8:11">
+    <row r="262" spans="8:13">
       <c r="H262" t="s">
         <v>538</v>
       </c>
-      <c r="K262" t="s">
+      <c r="M262" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="263" spans="8:11">
+    <row r="263" spans="8:13">
       <c r="H263" t="s">
         <v>539</v>
       </c>
-      <c r="K263" t="s">
+      <c r="M263" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="264" spans="8:11">
+    <row r="264" spans="8:13">
       <c r="H264" t="s">
         <v>540</v>
       </c>
-      <c r="K264" t="s">
+      <c r="M264" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="265" spans="8:11">
+    <row r="265" spans="8:13">
       <c r="H265" t="s">
         <v>541</v>
       </c>
-      <c r="K265" t="s">
+      <c r="M265" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="266" spans="8:11">
+    <row r="266" spans="8:13">
       <c r="H266" t="s">
         <v>542</v>
       </c>
-      <c r="K266" t="s">
+      <c r="M266" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="267" spans="8:11">
+    <row r="267" spans="8:13">
       <c r="H267" t="s">
         <v>543</v>
       </c>
-      <c r="K267" t="s">
+      <c r="M267" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="268" spans="8:11">
+    <row r="268" spans="8:13">
       <c r="H268" t="s">
         <v>544</v>
       </c>
-      <c r="K268" t="s">
+      <c r="M268" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="269" spans="8:11">
+    <row r="269" spans="8:13">
       <c r="H269" t="s">
         <v>545</v>
       </c>
-      <c r="K269" t="s">
+      <c r="M269" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="270" spans="8:11">
+    <row r="270" spans="8:13">
       <c r="H270" t="s">
         <v>546</v>
       </c>
-      <c r="K270" t="s">
+      <c r="M270" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="271" spans="8:11">
+    <row r="271" spans="8:13">
       <c r="H271" t="s">
         <v>547</v>
       </c>
-      <c r="K271" t="s">
+      <c r="M271" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="272" spans="8:11">
+    <row r="272" spans="8:13">
       <c r="H272" t="s">
         <v>548</v>
       </c>
-      <c r="K272" t="s">
+      <c r="M272" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="273" spans="8:11">
+    <row r="273" spans="8:13">
       <c r="H273" t="s">
         <v>549</v>
       </c>
-      <c r="K273" t="s">
+      <c r="M273" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="274" spans="8:11">
-      <c r="K274" t="s">
+    <row r="274" spans="8:13">
+      <c r="M274" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="275" spans="8:11">
-      <c r="K275" t="s">
+    <row r="275" spans="8:13">
+      <c r="M275" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="276" spans="8:11">
-      <c r="K276" t="s">
+    <row r="276" spans="8:13">
+      <c r="M276" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="277" spans="8:11">
-      <c r="K277" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="278" spans="8:11">
-      <c r="K278" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="279" spans="8:11">
-      <c r="K279" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="280" spans="8:11">
-      <c r="K280" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="281" spans="8:11">
-      <c r="K281" t="s">
+    <row r="277" spans="8:13">
+      <c r="M277" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="282" spans="8:11">
-      <c r="K282" t="s">
+    <row r="278" spans="8:13">
+      <c r="M278" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="283" spans="8:11">
-      <c r="K283" t="s">
+    <row r="279" spans="8:13">
+      <c r="M279" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="284" spans="8:11">
-      <c r="K284" t="s">
+    <row r="280" spans="8:13">
+      <c r="M280" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="285" spans="8:11">
-      <c r="K285" t="s">
+    <row r="281" spans="8:13">
+      <c r="M281" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="286" spans="8:11">
-      <c r="K286" t="s">
+    <row r="282" spans="8:13">
+      <c r="M282" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="287" spans="8:11">
-      <c r="K287" t="s">
+    <row r="283" spans="8:13">
+      <c r="M283" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="288" spans="8:11">
-      <c r="K288" t="s">
+    <row r="284" spans="8:13">
+      <c r="M284" t="s">
         <v>585</v>
+      </c>
+    </row>
+    <row r="285" spans="8:13">
+      <c r="M285" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="286" spans="8:13">
+      <c r="M286" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="287" spans="8:13">
+      <c r="M287" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="288" spans="8:13">
+      <c r="M288" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="289" spans="13:13">
+      <c r="M289" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -22,7 +22,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$O$1:$O$3</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="613">
   <si>
     <t>alias</t>
   </si>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2409,7 +2412,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2453,7 +2456,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2480,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3192,6 +3195,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3216,27 +3224,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3259,122 +3267,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3401,126 +3409,126 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -3555,2290 +3563,2290 @@
   <sheetData>
     <row r="1" spans="6:15">
       <c r="F1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="6:15">
       <c r="F2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="6:15">
       <c r="F3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="6:15">
       <c r="H4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="6:15">
       <c r="H5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="6:15">
       <c r="H6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="6:15">
       <c r="H7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="6:15">
       <c r="H8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="6:15">
       <c r="H9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="6:15">
       <c r="H10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="6:15">
       <c r="H11" t="s">
+        <v>288</v>
+      </c>
+      <c r="M11" t="s">
         <v>287</v>
-      </c>
-      <c r="M11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="6:15">
       <c r="H12" t="s">
+        <v>289</v>
+      </c>
+      <c r="M12" t="s">
         <v>288</v>
-      </c>
-      <c r="M12" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="13" spans="6:15">
       <c r="H13" t="s">
+        <v>290</v>
+      </c>
+      <c r="M13" t="s">
         <v>289</v>
-      </c>
-      <c r="M13" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="14" spans="6:15">
       <c r="H14" t="s">
+        <v>291</v>
+      </c>
+      <c r="M14" t="s">
         <v>290</v>
-      </c>
-      <c r="M14" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="15" spans="6:15">
       <c r="H15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M15" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="6:15">
       <c r="H16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="8:13">
       <c r="H17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="8:13">
       <c r="H18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="8:13">
       <c r="H19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="8:13">
       <c r="H20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="8:13">
       <c r="H21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="8:13">
       <c r="H22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M22" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="8:13">
       <c r="H23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="8:13">
       <c r="H24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="8:13">
       <c r="H25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="8:13">
       <c r="H26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="8:13">
       <c r="H27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="8:13">
       <c r="H28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="8:13">
       <c r="H29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="8:13">
       <c r="H30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="8:13">
       <c r="H31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="8:13">
       <c r="H32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="8:13">
       <c r="H33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="8:13">
       <c r="H34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="8:13">
       <c r="H35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="8:13">
       <c r="H36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="8:13">
       <c r="H37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="8:13">
       <c r="H38" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="8:13">
       <c r="H39" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="8:13">
       <c r="H40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="8:13">
       <c r="H41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M41" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="8:13">
       <c r="H42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="8:13">
       <c r="H43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="8:13">
       <c r="H44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="8:13">
       <c r="H45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M45" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="8:13">
       <c r="H46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="8:13">
       <c r="H47" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="8:13">
       <c r="H48" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M48" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="8:13">
       <c r="H49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M49" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="8:13">
       <c r="H50" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="8:13">
       <c r="H51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M51" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="8:13">
       <c r="H52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="8:13">
       <c r="H53" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="8:13">
       <c r="H54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="8:13">
       <c r="H55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M55" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="8:13">
       <c r="H56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M56" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="8:13">
       <c r="H57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M57" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="8:13">
       <c r="H58" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M58" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="8:13">
       <c r="H59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M59" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="8:13">
       <c r="H60" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="8:13">
       <c r="H61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="8:13">
       <c r="H62" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M62" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="8:13">
       <c r="H63" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M63" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="8:13">
       <c r="H64" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M64" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="8:13">
       <c r="H65" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M65" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="8:13">
       <c r="H66" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M66" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="8:13">
       <c r="H67" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="8:13">
       <c r="H68" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="8:13">
       <c r="H69" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="8:13">
       <c r="H70" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M70" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="8:13">
       <c r="H71" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M71" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="8:13">
       <c r="H72" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M72" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="8:13">
       <c r="H73" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M73" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="8:13">
       <c r="H74" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M74" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="8:13">
       <c r="H75" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M75" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="8:13">
       <c r="H76" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M76" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="8:13">
       <c r="H77" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M77" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="8:13">
       <c r="H78" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M78" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="8:13">
       <c r="H79" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M79" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="8:13">
       <c r="H80" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M80" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="8:13">
       <c r="H81" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M81" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="82" spans="8:13">
       <c r="H82" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M82" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="8:13">
       <c r="H83" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M83" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="8:13">
       <c r="H84" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M84" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="8:13">
       <c r="H85" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M85" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="8:13">
       <c r="H86" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M86" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="8:13">
       <c r="H87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M87" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="8:13">
       <c r="H88" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M88" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="8:13">
       <c r="H89" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M89" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="8:13">
       <c r="H90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M90" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="8:13">
       <c r="H91" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M91" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="8:13">
       <c r="H92" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M92" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="8:13">
       <c r="H93" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="8:13">
       <c r="H94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="8:13">
       <c r="H95" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M95" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="8:13">
       <c r="H96" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M96" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="8:13">
       <c r="H97" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M97" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="8:13">
       <c r="H98" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M98" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="8:13">
       <c r="H99" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M99" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="8:13">
       <c r="H100" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M100" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="8:13">
       <c r="H101" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M101" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="8:13">
       <c r="H102" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M102" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="8:13">
       <c r="H103" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M103" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="8:13">
       <c r="H104" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M104" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="8:13">
       <c r="H105" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M105" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="8:13">
       <c r="H106" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M106" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="8:13">
       <c r="H107" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M107" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="8:13">
       <c r="H108" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M108" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="8:13">
       <c r="H109" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M109" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="8:13">
       <c r="H110" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M110" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="8:13">
       <c r="H111" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M111" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="112" spans="8:13">
       <c r="H112" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M112" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="8:13">
       <c r="H113" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M113" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="114" spans="8:13">
       <c r="H114" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M114" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="8:13">
       <c r="H115" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M115" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="116" spans="8:13">
       <c r="H116" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M116" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117" spans="8:13">
       <c r="H117" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M117" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="8:13">
       <c r="H118" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M118" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="119" spans="8:13">
       <c r="H119" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M119" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="120" spans="8:13">
       <c r="H120" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M120" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="121" spans="8:13">
       <c r="H121" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M121" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="122" spans="8:13">
       <c r="H122" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M122" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="8:13">
       <c r="H123" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M123" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="8:13">
       <c r="H124" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M124" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="8:13">
       <c r="H125" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M125" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126" spans="8:13">
       <c r="H126" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M126" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="8:13">
       <c r="H127" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M127" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="8:13">
       <c r="H128" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M128" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="8:13">
       <c r="H129" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M129" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" spans="8:13">
       <c r="H130" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M130" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="131" spans="8:13">
       <c r="H131" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M131" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="132" spans="8:13">
       <c r="H132" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M132" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="133" spans="8:13">
       <c r="H133" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M133" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="134" spans="8:13">
       <c r="H134" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M134" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="135" spans="8:13">
       <c r="H135" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M135" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="136" spans="8:13">
       <c r="H136" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M136" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="137" spans="8:13">
       <c r="H137" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M137" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="138" spans="8:13">
       <c r="H138" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M138" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="139" spans="8:13">
       <c r="H139" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M139" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="140" spans="8:13">
       <c r="H140" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M140" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="141" spans="8:13">
       <c r="H141" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M141" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="142" spans="8:13">
       <c r="H142" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M142" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="143" spans="8:13">
       <c r="H143" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M143" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="144" spans="8:13">
       <c r="H144" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M144" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="145" spans="8:13">
       <c r="H145" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M145" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="146" spans="8:13">
       <c r="H146" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M146" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="147" spans="8:13">
       <c r="H147" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M147" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="148" spans="8:13">
       <c r="H148" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M148" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="149" spans="8:13">
       <c r="H149" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M149" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="150" spans="8:13">
       <c r="H150" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M150" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="151" spans="8:13">
       <c r="H151" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M151" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="8:13">
       <c r="H152" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M152" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="153" spans="8:13">
       <c r="H153" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M153" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="154" spans="8:13">
       <c r="H154" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M154" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="155" spans="8:13">
       <c r="H155" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M155" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="156" spans="8:13">
       <c r="H156" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M156" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="157" spans="8:13">
       <c r="H157" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M157" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="158" spans="8:13">
       <c r="H158" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M158" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="159" spans="8:13">
       <c r="H159" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M159" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="160" spans="8:13">
       <c r="H160" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M160" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="8:13">
       <c r="H161" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M161" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="8:13">
       <c r="H162" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M162" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="8:13">
       <c r="H163" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M163" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="164" spans="8:13">
       <c r="H164" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M164" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="8:13">
       <c r="H165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M165" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="166" spans="8:13">
       <c r="H166" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M166" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="167" spans="8:13">
       <c r="H167" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M167" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="8:13">
       <c r="H168" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M168" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="8:13">
       <c r="H169" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M169" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="8:13">
       <c r="H170" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M170" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="171" spans="8:13">
       <c r="H171" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M171" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="172" spans="8:13">
       <c r="H172" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M172" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="173" spans="8:13">
       <c r="H173" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M173" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="8:13">
       <c r="H174" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M174" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="175" spans="8:13">
       <c r="H175" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M175" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="176" spans="8:13">
       <c r="H176" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M176" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="177" spans="8:13">
       <c r="H177" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M177" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="178" spans="8:13">
       <c r="H178" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M178" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="179" spans="8:13">
       <c r="H179" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M179" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="180" spans="8:13">
       <c r="H180" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M180" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="181" spans="8:13">
       <c r="H181" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M181" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="182" spans="8:13">
       <c r="H182" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M182" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="183" spans="8:13">
       <c r="H183" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M183" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="184" spans="8:13">
       <c r="H184" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M184" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="185" spans="8:13">
       <c r="H185" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M185" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="186" spans="8:13">
       <c r="H186" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M186" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="8:13">
       <c r="H187" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M187" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="188" spans="8:13">
       <c r="H188" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M188" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="189" spans="8:13">
       <c r="H189" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M189" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="190" spans="8:13">
       <c r="H190" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M190" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="191" spans="8:13">
       <c r="H191" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M191" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="192" spans="8:13">
       <c r="H192" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M192" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="193" spans="8:13">
       <c r="H193" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M193" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="194" spans="8:13">
       <c r="H194" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M194" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="195" spans="8:13">
       <c r="H195" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M195" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="196" spans="8:13">
       <c r="H196" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M196" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="197" spans="8:13">
       <c r="H197" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M197" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="198" spans="8:13">
       <c r="H198" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M198" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="199" spans="8:13">
       <c r="H199" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M199" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="200" spans="8:13">
       <c r="H200" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M200" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="201" spans="8:13">
       <c r="H201" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M201" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="202" spans="8:13">
       <c r="H202" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M202" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="203" spans="8:13">
       <c r="H203" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M203" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="204" spans="8:13">
       <c r="H204" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M204" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="205" spans="8:13">
       <c r="H205" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M205" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="206" spans="8:13">
       <c r="H206" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M206" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="207" spans="8:13">
       <c r="H207" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M207" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="208" spans="8:13">
       <c r="H208" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M208" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="209" spans="8:13">
       <c r="H209" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M209" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="210" spans="8:13">
       <c r="H210" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M210" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="211" spans="8:13">
       <c r="H211" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M211" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="212" spans="8:13">
       <c r="H212" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M212" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="213" spans="8:13">
       <c r="H213" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M213" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="214" spans="8:13">
       <c r="H214" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M214" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="215" spans="8:13">
       <c r="H215" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M215" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="216" spans="8:13">
       <c r="H216" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M216" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="217" spans="8:13">
       <c r="H217" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M217" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="218" spans="8:13">
       <c r="H218" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M218" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="219" spans="8:13">
       <c r="H219" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M219" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="220" spans="8:13">
       <c r="H220" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M220" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="221" spans="8:13">
       <c r="H221" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M221" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="222" spans="8:13">
       <c r="H222" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M222" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="223" spans="8:13">
       <c r="H223" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M223" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="224" spans="8:13">
       <c r="H224" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M224" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="225" spans="8:13">
       <c r="H225" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M225" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="226" spans="8:13">
       <c r="H226" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M226" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="227" spans="8:13">
       <c r="H227" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M227" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="228" spans="8:13">
       <c r="H228" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M228" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="229" spans="8:13">
       <c r="H229" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M229" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="230" spans="8:13">
       <c r="H230" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M230" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="8:13">
       <c r="H231" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M231" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="232" spans="8:13">
       <c r="H232" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M232" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="233" spans="8:13">
       <c r="H233" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M233" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="234" spans="8:13">
       <c r="H234" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M234" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="235" spans="8:13">
       <c r="H235" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M235" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="236" spans="8:13">
       <c r="H236" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M236" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="237" spans="8:13">
       <c r="H237" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M237" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="238" spans="8:13">
       <c r="H238" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M238" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239" spans="8:13">
       <c r="H239" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M239" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="240" spans="8:13">
       <c r="H240" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M240" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="241" spans="8:13">
       <c r="H241" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M241" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="242" spans="8:13">
       <c r="H242" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M242" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="243" spans="8:13">
       <c r="H243" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M243" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="244" spans="8:13">
       <c r="H244" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M244" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="245" spans="8:13">
       <c r="H245" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M245" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="246" spans="8:13">
       <c r="H246" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M246" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="247" spans="8:13">
       <c r="H247" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M247" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="248" spans="8:13">
       <c r="H248" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M248" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="249" spans="8:13">
       <c r="H249" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M249" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="250" spans="8:13">
       <c r="H250" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M250" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="251" spans="8:13">
       <c r="H251" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M251" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="252" spans="8:13">
       <c r="H252" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M252" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="253" spans="8:13">
       <c r="H253" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M253" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="254" spans="8:13">
       <c r="H254" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M254" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="255" spans="8:13">
       <c r="H255" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M255" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="256" spans="8:13">
       <c r="H256" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M256" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="257" spans="8:13">
       <c r="H257" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M257" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="258" spans="8:13">
       <c r="H258" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M258" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="259" spans="8:13">
       <c r="H259" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M259" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="260" spans="8:13">
       <c r="H260" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M260" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="261" spans="8:13">
       <c r="H261" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M261" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="262" spans="8:13">
       <c r="H262" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M262" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="263" spans="8:13">
       <c r="H263" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M263" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="264" spans="8:13">
       <c r="H264" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M264" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="265" spans="8:13">
       <c r="H265" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M265" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="266" spans="8:13">
       <c r="H266" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M266" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="267" spans="8:13">
       <c r="H267" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M267" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="268" spans="8:13">
       <c r="H268" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M268" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="269" spans="8:13">
       <c r="H269" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M269" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="270" spans="8:13">
       <c r="H270" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M270" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="271" spans="8:13">
       <c r="H271" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M271" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="272" spans="8:13">
       <c r="H272" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M272" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="273" spans="8:13">
       <c r="H273" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M273" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="274" spans="8:13">
       <c r="M274" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="8:13">
       <c r="M275" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="276" spans="8:13">
       <c r="M276" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="277" spans="8:13">
       <c r="M277" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="8:13">
       <c r="M278" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="279" spans="8:13">
       <c r="M279" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="8:13">
       <c r="M280" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="281" spans="8:13">
       <c r="M281" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="282" spans="8:13">
       <c r="M282" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="283" spans="8:13">
       <c r="M283" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="284" spans="8:13">
       <c r="M284" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="285" spans="8:13">
       <c r="M285" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="286" spans="8:13">
       <c r="M286" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="287" spans="8:13">
       <c r="M287" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="288" spans="8:13">
       <c r="M288" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="289" spans="13:13">
       <c r="M289" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -22,7 +22,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$O$1:$O$3</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="614">
   <si>
     <t>alias</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2412,7 +2415,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2456,7 +2459,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2486,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3200,6 +3203,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3224,27 +3232,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3267,122 +3275,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3409,126 +3417,126 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -3563,2290 +3571,2290 @@
   <sheetData>
     <row r="1" spans="6:15">
       <c r="F1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="6:15">
       <c r="F2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="6:15">
       <c r="F3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="6:15">
       <c r="H4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="6:15">
       <c r="H5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="6:15">
       <c r="H6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="6:15">
       <c r="H7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="6:15">
       <c r="H8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="6:15">
       <c r="H9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="6:15">
       <c r="H10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="6:15">
       <c r="H11" t="s">
+        <v>289</v>
+      </c>
+      <c r="M11" t="s">
         <v>288</v>
-      </c>
-      <c r="M11" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="12" spans="6:15">
       <c r="H12" t="s">
+        <v>290</v>
+      </c>
+      <c r="M12" t="s">
         <v>289</v>
-      </c>
-      <c r="M12" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="13" spans="6:15">
       <c r="H13" t="s">
+        <v>291</v>
+      </c>
+      <c r="M13" t="s">
         <v>290</v>
-      </c>
-      <c r="M13" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="6:15">
       <c r="H14" t="s">
+        <v>292</v>
+      </c>
+      <c r="M14" t="s">
         <v>291</v>
-      </c>
-      <c r="M14" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="6:15">
       <c r="H15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M15" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="6:15">
       <c r="H16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="8:13">
       <c r="H17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="8:13">
       <c r="H18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="8:13">
       <c r="H19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="8:13">
       <c r="H20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="8:13">
       <c r="H21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="8:13">
       <c r="H22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M22" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="8:13">
       <c r="H23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="8:13">
       <c r="H24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="8:13">
       <c r="H25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="8:13">
       <c r="H26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="8:13">
       <c r="H27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="8:13">
       <c r="H28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="8:13">
       <c r="H29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="8:13">
       <c r="H30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="8:13">
       <c r="H31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="8:13">
       <c r="H32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="8:13">
       <c r="H33" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="8:13">
       <c r="H34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="8:13">
       <c r="H35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="8:13">
       <c r="H36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="8:13">
       <c r="H37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="8:13">
       <c r="H38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="8:13">
       <c r="H39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="8:13">
       <c r="H40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="8:13">
       <c r="H41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="8:13">
       <c r="H42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="8:13">
       <c r="H43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="8:13">
       <c r="H44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="8:13">
       <c r="H45" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="8:13">
       <c r="H46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="8:13">
       <c r="H47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="8:13">
       <c r="H48" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="8:13">
       <c r="H49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="8:13">
       <c r="H50" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M50" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="8:13">
       <c r="H51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="8:13">
       <c r="H52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="8:13">
       <c r="H53" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M53" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="8:13">
       <c r="H54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M54" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="8:13">
       <c r="H55" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="8:13">
       <c r="H56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M56" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="8:13">
       <c r="H57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="8:13">
       <c r="H58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M58" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="8:13">
       <c r="H59" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="8:13">
       <c r="H60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="8:13">
       <c r="H61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="8:13">
       <c r="H62" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="8:13">
       <c r="H63" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M63" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64" spans="8:13">
       <c r="H64" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M64" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="8:13">
       <c r="H65" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M65" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" spans="8:13">
       <c r="H66" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M66" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="8:13">
       <c r="H67" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M67" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="8:13">
       <c r="H68" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="8:13">
       <c r="H69" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M69" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="8:13">
       <c r="H70" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M70" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="8:13">
       <c r="H71" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M71" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="8:13">
       <c r="H72" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M72" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="73" spans="8:13">
       <c r="H73" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M73" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="8:13">
       <c r="H74" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M74" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="8:13">
       <c r="H75" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M75" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="8:13">
       <c r="H76" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M76" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="8:13">
       <c r="H77" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M77" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="8:13">
       <c r="H78" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M78" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="8:13">
       <c r="H79" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M79" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="8:13">
       <c r="H80" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M80" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="8:13">
       <c r="H81" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M81" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="8:13">
       <c r="H82" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M82" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="8:13">
       <c r="H83" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M83" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="8:13">
       <c r="H84" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M84" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="8:13">
       <c r="H85" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M85" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="8:13">
       <c r="H86" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="8:13">
       <c r="H87" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M87" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="8:13">
       <c r="H88" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M88" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="8:13">
       <c r="H89" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M89" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="8:13">
       <c r="H90" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M90" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="8:13">
       <c r="H91" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M91" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="8:13">
       <c r="H92" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M92" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="8:13">
       <c r="H93" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M93" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="8:13">
       <c r="H94" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M94" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="8:13">
       <c r="H95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M95" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="8:13">
       <c r="H96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M96" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="8:13">
       <c r="H97" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M97" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="8:13">
       <c r="H98" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M98" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="8:13">
       <c r="H99" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M99" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="8:13">
       <c r="H100" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M100" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="8:13">
       <c r="H101" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M101" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="8:13">
       <c r="H102" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M102" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="8:13">
       <c r="H103" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M103" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="8:13">
       <c r="H104" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M104" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="8:13">
       <c r="H105" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M105" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="8:13">
       <c r="H106" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M106" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="8:13">
       <c r="H107" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M107" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="8:13">
       <c r="H108" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M108" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="8:13">
       <c r="H109" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M109" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="8:13">
       <c r="H110" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M110" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111" spans="8:13">
       <c r="H111" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M111" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="8:13">
       <c r="H112" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M112" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="113" spans="8:13">
       <c r="H113" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M113" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="114" spans="8:13">
       <c r="H114" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M114" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="115" spans="8:13">
       <c r="H115" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M115" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="116" spans="8:13">
       <c r="H116" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M116" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="8:13">
       <c r="H117" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M117" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="8:13">
       <c r="H118" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M118" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="8:13">
       <c r="H119" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M119" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="8:13">
       <c r="H120" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M120" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="8:13">
       <c r="H121" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M121" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="8:13">
       <c r="H122" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M122" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="8:13">
       <c r="H123" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M123" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="8:13">
       <c r="H124" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M124" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="8:13">
       <c r="H125" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M125" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="8:13">
       <c r="H126" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M126" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="8:13">
       <c r="H127" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M127" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="8:13">
       <c r="H128" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M128" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="8:13">
       <c r="H129" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M129" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="8:13">
       <c r="H130" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M130" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="8:13">
       <c r="H131" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M131" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="8:13">
       <c r="H132" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M132" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="8:13">
       <c r="H133" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M133" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="134" spans="8:13">
       <c r="H134" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M134" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="135" spans="8:13">
       <c r="H135" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M135" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="136" spans="8:13">
       <c r="H136" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M136" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="137" spans="8:13">
       <c r="H137" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M137" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="8:13">
       <c r="H138" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M138" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="8:13">
       <c r="H139" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M139" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="8:13">
       <c r="H140" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M140" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="8:13">
       <c r="H141" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" spans="8:13">
       <c r="H142" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M142" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="8:13">
       <c r="H143" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M143" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="8:13">
       <c r="H144" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M144" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="8:13">
       <c r="H145" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M145" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="8:13">
       <c r="H146" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M146" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="8:13">
       <c r="H147" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M147" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="8:13">
       <c r="H148" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M148" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" spans="8:13">
       <c r="H149" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M149" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="8:13">
       <c r="H150" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M150" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="8:13">
       <c r="H151" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M151" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="8:13">
       <c r="H152" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M152" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="8:13">
       <c r="H153" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M153" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="8:13">
       <c r="H154" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M154" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="8:13">
       <c r="H155" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M155" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="8:13">
       <c r="H156" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M156" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="8:13">
       <c r="H157" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M157" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="158" spans="8:13">
       <c r="H158" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M158" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="8:13">
       <c r="H159" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M159" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="8:13">
       <c r="H160" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M160" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="8:13">
       <c r="H161" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M161" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="162" spans="8:13">
       <c r="H162" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M162" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="163" spans="8:13">
       <c r="H163" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M163" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="8:13">
       <c r="H164" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M164" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="8:13">
       <c r="H165" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M165" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="8:13">
       <c r="H166" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M166" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167" spans="8:13">
       <c r="H167" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M167" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="8:13">
       <c r="H168" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M168" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="8:13">
       <c r="H169" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M169" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="8:13">
       <c r="H170" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M170" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="8:13">
       <c r="H171" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M171" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="172" spans="8:13">
       <c r="H172" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M172" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="8:13">
       <c r="H173" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M173" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="174" spans="8:13">
       <c r="H174" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M174" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="175" spans="8:13">
       <c r="H175" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M175" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="8:13">
       <c r="H176" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M176" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="177" spans="8:13">
       <c r="H177" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M177" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="178" spans="8:13">
       <c r="H178" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M178" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="8:13">
       <c r="H179" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M179" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="8:13">
       <c r="H180" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M180" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="8:13">
       <c r="H181" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M181" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="182" spans="8:13">
       <c r="H182" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M182" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" spans="8:13">
       <c r="H183" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M183" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="184" spans="8:13">
       <c r="H184" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M184" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="185" spans="8:13">
       <c r="H185" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M185" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="186" spans="8:13">
       <c r="H186" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M186" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="187" spans="8:13">
       <c r="H187" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M187" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="8:13">
       <c r="H188" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M188" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="189" spans="8:13">
       <c r="H189" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M189" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="190" spans="8:13">
       <c r="H190" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M190" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="191" spans="8:13">
       <c r="H191" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M191" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="192" spans="8:13">
       <c r="H192" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M192" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="193" spans="8:13">
       <c r="H193" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M193" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="194" spans="8:13">
       <c r="H194" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M194" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="195" spans="8:13">
       <c r="H195" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M195" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196" spans="8:13">
       <c r="H196" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M196" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="197" spans="8:13">
       <c r="H197" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M197" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="198" spans="8:13">
       <c r="H198" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M198" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="199" spans="8:13">
       <c r="H199" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M199" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="200" spans="8:13">
       <c r="H200" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M200" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="201" spans="8:13">
       <c r="H201" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M201" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="202" spans="8:13">
       <c r="H202" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M202" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="203" spans="8:13">
       <c r="H203" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M203" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="204" spans="8:13">
       <c r="H204" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M204" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="205" spans="8:13">
       <c r="H205" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M205" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="206" spans="8:13">
       <c r="H206" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M206" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="207" spans="8:13">
       <c r="H207" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M207" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="208" spans="8:13">
       <c r="H208" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M208" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="209" spans="8:13">
       <c r="H209" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M209" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="210" spans="8:13">
       <c r="H210" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M210" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="211" spans="8:13">
       <c r="H211" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M211" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="212" spans="8:13">
       <c r="H212" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M212" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="213" spans="8:13">
       <c r="H213" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M213" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="214" spans="8:13">
       <c r="H214" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M214" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="215" spans="8:13">
       <c r="H215" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M215" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="216" spans="8:13">
       <c r="H216" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M216" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="217" spans="8:13">
       <c r="H217" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M217" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="8:13">
       <c r="H218" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M218" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="8:13">
       <c r="H219" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M219" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="220" spans="8:13">
       <c r="H220" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M220" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="221" spans="8:13">
       <c r="H221" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M221" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="222" spans="8:13">
       <c r="H222" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M222" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="8:13">
       <c r="H223" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M223" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224" spans="8:13">
       <c r="H224" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M224" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="225" spans="8:13">
       <c r="H225" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M225" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="226" spans="8:13">
       <c r="H226" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M226" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="8:13">
       <c r="H227" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M227" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="8:13">
       <c r="H228" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M228" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="229" spans="8:13">
       <c r="H229" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M229" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="8:13">
       <c r="H230" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M230" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="231" spans="8:13">
       <c r="H231" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M231" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="232" spans="8:13">
       <c r="H232" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M232" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="233" spans="8:13">
       <c r="H233" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M233" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="234" spans="8:13">
       <c r="H234" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M234" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="235" spans="8:13">
       <c r="H235" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M235" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="236" spans="8:13">
       <c r="H236" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M236" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="237" spans="8:13">
       <c r="H237" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M237" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="238" spans="8:13">
       <c r="H238" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M238" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="239" spans="8:13">
       <c r="H239" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M239" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="240" spans="8:13">
       <c r="H240" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M240" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="241" spans="8:13">
       <c r="H241" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M241" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="242" spans="8:13">
       <c r="H242" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M242" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="243" spans="8:13">
       <c r="H243" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M243" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="244" spans="8:13">
       <c r="H244" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M244" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="245" spans="8:13">
       <c r="H245" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M245" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="246" spans="8:13">
       <c r="H246" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M246" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="247" spans="8:13">
       <c r="H247" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M247" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="248" spans="8:13">
       <c r="H248" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M248" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="249" spans="8:13">
       <c r="H249" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M249" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="250" spans="8:13">
       <c r="H250" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M250" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="251" spans="8:13">
       <c r="H251" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M251" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="252" spans="8:13">
       <c r="H252" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M252" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="253" spans="8:13">
       <c r="H253" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M253" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="254" spans="8:13">
       <c r="H254" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M254" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="255" spans="8:13">
       <c r="H255" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M255" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="256" spans="8:13">
       <c r="H256" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M256" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="257" spans="8:13">
       <c r="H257" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M257" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="258" spans="8:13">
       <c r="H258" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M258" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="259" spans="8:13">
       <c r="H259" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M259" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="260" spans="8:13">
       <c r="H260" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M260" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="261" spans="8:13">
       <c r="H261" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M261" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="262" spans="8:13">
       <c r="H262" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M262" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="263" spans="8:13">
       <c r="H263" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M263" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="264" spans="8:13">
       <c r="H264" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M264" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="8:13">
       <c r="H265" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M265" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="266" spans="8:13">
       <c r="H266" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M266" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="267" spans="8:13">
       <c r="H267" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M267" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="268" spans="8:13">
       <c r="H268" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M268" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="269" spans="8:13">
       <c r="H269" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M269" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="270" spans="8:13">
       <c r="H270" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M270" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="271" spans="8:13">
       <c r="H271" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M271" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="8:13">
       <c r="H272" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M272" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="273" spans="8:13">
       <c r="H273" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M273" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="274" spans="8:13">
       <c r="M274" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="275" spans="8:13">
       <c r="M275" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="8:13">
       <c r="M276" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="277" spans="8:13">
       <c r="M277" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="278" spans="8:13">
       <c r="M278" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="8:13">
       <c r="M279" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="280" spans="8:13">
       <c r="M280" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="281" spans="8:13">
       <c r="M281" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="282" spans="8:13">
       <c r="M282" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="283" spans="8:13">
       <c r="M283" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="284" spans="8:13">
       <c r="M284" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="285" spans="8:13">
       <c r="M285" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="286" spans="8:13">
       <c r="M286" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="287" spans="8:13">
       <c r="M287" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="288" spans="8:13">
       <c r="M288" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="289" spans="13:13">
       <c r="M289" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -22,7 +22,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$O$1:$O$3</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="615">
   <si>
     <t>alias</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2415,7 +2418,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2459,7 +2462,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2486,7 +2489,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3208,6 +3211,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3232,27 +3240,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3275,122 +3283,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3417,126 +3425,126 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -3571,2290 +3579,2290 @@
   <sheetData>
     <row r="1" spans="6:15">
       <c r="F1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="6:15">
       <c r="F2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="6:15">
       <c r="F3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="6:15">
       <c r="H4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="6:15">
       <c r="H5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="6:15">
       <c r="H6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="6:15">
       <c r="H7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="6:15">
       <c r="H8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="6:15">
       <c r="H9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="6:15">
       <c r="H10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="6:15">
       <c r="H11" t="s">
+        <v>290</v>
+      </c>
+      <c r="M11" t="s">
         <v>289</v>
-      </c>
-      <c r="M11" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12" spans="6:15">
       <c r="H12" t="s">
+        <v>291</v>
+      </c>
+      <c r="M12" t="s">
         <v>290</v>
-      </c>
-      <c r="M12" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" spans="6:15">
       <c r="H13" t="s">
+        <v>292</v>
+      </c>
+      <c r="M13" t="s">
         <v>291</v>
-      </c>
-      <c r="M13" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="6:15">
       <c r="H14" t="s">
+        <v>293</v>
+      </c>
+      <c r="M14" t="s">
         <v>292</v>
-      </c>
-      <c r="M14" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="15" spans="6:15">
       <c r="H15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M15" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="6:15">
       <c r="H16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="8:13">
       <c r="H17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="8:13">
       <c r="H18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="8:13">
       <c r="H19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="8:13">
       <c r="H20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="8:13">
       <c r="H21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="8:13">
       <c r="H22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M22" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="8:13">
       <c r="H23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="8:13">
       <c r="H24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="8:13">
       <c r="H25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="8:13">
       <c r="H26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="8:13">
       <c r="H27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="8:13">
       <c r="H28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="8:13">
       <c r="H29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="8:13">
       <c r="H30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="8:13">
       <c r="H31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="8:13">
       <c r="H32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="8:13">
       <c r="H33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="8:13">
       <c r="H34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="8:13">
       <c r="H35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="8:13">
       <c r="H36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="8:13">
       <c r="H37" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="8:13">
       <c r="H38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="8:13">
       <c r="H39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="8:13">
       <c r="H40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="8:13">
       <c r="H41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="8:13">
       <c r="H42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="8:13">
       <c r="H43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="8:13">
       <c r="H44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="8:13">
       <c r="H45" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="8:13">
       <c r="H46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="8:13">
       <c r="H47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="8:13">
       <c r="H48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="8:13">
       <c r="H49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="8:13">
       <c r="H50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="8:13">
       <c r="H51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="8:13">
       <c r="H52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="8:13">
       <c r="H53" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="8:13">
       <c r="H54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="8:13">
       <c r="H55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="8:13">
       <c r="H56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M56" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="8:13">
       <c r="H57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M57" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="8:13">
       <c r="H58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M58" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="8:13">
       <c r="H59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M59" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="8:13">
       <c r="H60" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="8:13">
       <c r="H61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M61" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="8:13">
       <c r="H62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M62" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="8:13">
       <c r="H63" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M63" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="8:13">
       <c r="H64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="8:13">
       <c r="H65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M65" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="66" spans="8:13">
       <c r="H66" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M66" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="8:13">
       <c r="H67" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="8:13">
       <c r="H68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="8:13">
       <c r="H69" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M69" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="8:13">
       <c r="H70" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M70" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="8:13">
       <c r="H71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M71" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="8:13">
       <c r="H72" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M72" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="73" spans="8:13">
       <c r="H73" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M73" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="8:13">
       <c r="H74" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M74" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="8:13">
       <c r="H75" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M75" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="8:13">
       <c r="H76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M76" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="8:13">
       <c r="H77" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M77" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="8:13">
       <c r="H78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M78" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="8:13">
       <c r="H79" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M79" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="8:13">
       <c r="H80" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M80" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="8:13">
       <c r="H81" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M81" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="82" spans="8:13">
       <c r="H82" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M82" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="8:13">
       <c r="H83" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="8:13">
       <c r="H84" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="8:13">
       <c r="H85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M85" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="86" spans="8:13">
       <c r="H86" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M86" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="8:13">
       <c r="H87" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M87" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="88" spans="8:13">
       <c r="H88" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="8:13">
       <c r="H89" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M89" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="8:13">
       <c r="H90" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="8:13">
       <c r="H91" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M91" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="8:13">
       <c r="H92" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M92" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="93" spans="8:13">
       <c r="H93" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M93" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="8:13">
       <c r="H94" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="8:13">
       <c r="H95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M95" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="8:13">
       <c r="H96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M96" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="8:13">
       <c r="H97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M97" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="8:13">
       <c r="H98" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M98" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="8:13">
       <c r="H99" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M99" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="8:13">
       <c r="H100" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M100" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="8:13">
       <c r="H101" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M101" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="8:13">
       <c r="H102" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M102" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="8:13">
       <c r="H103" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M103" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="8:13">
       <c r="H104" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M104" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105" spans="8:13">
       <c r="H105" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M105" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="8:13">
       <c r="H106" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M106" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="8:13">
       <c r="H107" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M107" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="8:13">
       <c r="H108" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M108" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="109" spans="8:13">
       <c r="H109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M109" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="110" spans="8:13">
       <c r="H110" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M110" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="8:13">
       <c r="H111" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M111" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="112" spans="8:13">
       <c r="H112" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M112" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="8:13">
       <c r="H113" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M113" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="8:13">
       <c r="H114" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M114" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="8:13">
       <c r="H115" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M115" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="8:13">
       <c r="H116" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M116" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="8:13">
       <c r="H117" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M117" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="118" spans="8:13">
       <c r="H118" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M118" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="8:13">
       <c r="H119" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M119" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="120" spans="8:13">
       <c r="H120" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M120" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121" spans="8:13">
       <c r="H121" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M121" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="122" spans="8:13">
       <c r="H122" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M122" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="123" spans="8:13">
       <c r="H123" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M123" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124" spans="8:13">
       <c r="H124" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M124" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" spans="8:13">
       <c r="H125" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M125" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="126" spans="8:13">
       <c r="H126" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M126" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="8:13">
       <c r="H127" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M127" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" spans="8:13">
       <c r="H128" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M128" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129" spans="8:13">
       <c r="H129" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M129" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="8:13">
       <c r="H130" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M130" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="8:13">
       <c r="H131" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M131" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="8:13">
       <c r="H132" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M132" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="8:13">
       <c r="H133" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M133" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="134" spans="8:13">
       <c r="H134" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M134" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="135" spans="8:13">
       <c r="H135" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M135" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="8:13">
       <c r="H136" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M136" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="137" spans="8:13">
       <c r="H137" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M137" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138" spans="8:13">
       <c r="H138" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M138" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139" spans="8:13">
       <c r="H139" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M139" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="8:13">
       <c r="H140" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M140" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="8:13">
       <c r="H141" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M141" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="142" spans="8:13">
       <c r="H142" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M142" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="143" spans="8:13">
       <c r="H143" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M143" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="8:13">
       <c r="H144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M144" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="8:13">
       <c r="H145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M145" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="146" spans="8:13">
       <c r="H146" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M146" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="8:13">
       <c r="H147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M147" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="8:13">
       <c r="H148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M148" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="149" spans="8:13">
       <c r="H149" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M149" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="8:13">
       <c r="H150" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M150" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="151" spans="8:13">
       <c r="H151" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M151" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="8:13">
       <c r="H152" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M152" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="8:13">
       <c r="H153" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M153" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="8:13">
       <c r="H154" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M154" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="8:13">
       <c r="H155" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M155" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="156" spans="8:13">
       <c r="H156" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M156" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="8:13">
       <c r="H157" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M157" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="8:13">
       <c r="H158" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M158" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="159" spans="8:13">
       <c r="H159" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M159" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="8:13">
       <c r="H160" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M160" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161" spans="8:13">
       <c r="H161" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M161" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="8:13">
       <c r="H162" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M162" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="8:13">
       <c r="H163" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M163" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="164" spans="8:13">
       <c r="H164" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M164" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="165" spans="8:13">
       <c r="H165" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M165" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="8:13">
       <c r="H166" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M166" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="8:13">
       <c r="H167" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M167" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="8:13">
       <c r="H168" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M168" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="8:13">
       <c r="H169" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M169" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="8:13">
       <c r="H170" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M170" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="8:13">
       <c r="H171" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M171" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172" spans="8:13">
       <c r="H172" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M172" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="173" spans="8:13">
       <c r="H173" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M173" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="174" spans="8:13">
       <c r="H174" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M174" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="8:13">
       <c r="H175" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M175" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="176" spans="8:13">
       <c r="H176" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M176" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" spans="8:13">
       <c r="H177" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M177" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="8:13">
       <c r="H178" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M178" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="8:13">
       <c r="H179" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M179" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="8:13">
       <c r="H180" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M180" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="8:13">
       <c r="H181" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M181" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="8:13">
       <c r="H182" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M182" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="183" spans="8:13">
       <c r="H183" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M183" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="8:13">
       <c r="H184" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M184" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" spans="8:13">
       <c r="H185" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M185" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="8:13">
       <c r="H186" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M186" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="187" spans="8:13">
       <c r="H187" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M187" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="188" spans="8:13">
       <c r="H188" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M188" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="189" spans="8:13">
       <c r="H189" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M189" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="8:13">
       <c r="H190" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M190" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="8:13">
       <c r="H191" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M191" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="192" spans="8:13">
       <c r="H192" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M192" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="8:13">
       <c r="H193" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M193" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="194" spans="8:13">
       <c r="H194" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M194" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="8:13">
       <c r="H195" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M195" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="196" spans="8:13">
       <c r="H196" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M196" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="197" spans="8:13">
       <c r="H197" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M197" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="198" spans="8:13">
       <c r="H198" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M198" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="199" spans="8:13">
       <c r="H199" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M199" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="200" spans="8:13">
       <c r="H200" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M200" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="201" spans="8:13">
       <c r="H201" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M201" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="202" spans="8:13">
       <c r="H202" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M202" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="203" spans="8:13">
       <c r="H203" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M203" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="204" spans="8:13">
       <c r="H204" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M204" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" spans="8:13">
       <c r="H205" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M205" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="206" spans="8:13">
       <c r="H206" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M206" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="207" spans="8:13">
       <c r="H207" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M207" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="208" spans="8:13">
       <c r="H208" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M208" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="209" spans="8:13">
       <c r="H209" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M209" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="210" spans="8:13">
       <c r="H210" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M210" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="211" spans="8:13">
       <c r="H211" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M211" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="212" spans="8:13">
       <c r="H212" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M212" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="213" spans="8:13">
       <c r="H213" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M213" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="214" spans="8:13">
       <c r="H214" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M214" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="215" spans="8:13">
       <c r="H215" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M215" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="216" spans="8:13">
       <c r="H216" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M216" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="217" spans="8:13">
       <c r="H217" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M217" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="8:13">
       <c r="H218" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M218" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="219" spans="8:13">
       <c r="H219" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M219" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="220" spans="8:13">
       <c r="H220" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M220" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="8:13">
       <c r="H221" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M221" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" spans="8:13">
       <c r="H222" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M222" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="223" spans="8:13">
       <c r="H223" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M223" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="224" spans="8:13">
       <c r="H224" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M224" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" spans="8:13">
       <c r="H225" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M225" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226" spans="8:13">
       <c r="H226" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M226" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="227" spans="8:13">
       <c r="H227" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M227" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="228" spans="8:13">
       <c r="H228" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M228" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="229" spans="8:13">
       <c r="H229" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M229" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="230" spans="8:13">
       <c r="H230" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M230" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="8:13">
       <c r="H231" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M231" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="232" spans="8:13">
       <c r="H232" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M232" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="233" spans="8:13">
       <c r="H233" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M233" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="234" spans="8:13">
       <c r="H234" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M234" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="235" spans="8:13">
       <c r="H235" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M235" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="236" spans="8:13">
       <c r="H236" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M236" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="237" spans="8:13">
       <c r="H237" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M237" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="238" spans="8:13">
       <c r="H238" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M238" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="239" spans="8:13">
       <c r="H239" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M239" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="240" spans="8:13">
       <c r="H240" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M240" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241" spans="8:13">
       <c r="H241" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M241" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="8:13">
       <c r="H242" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M242" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="243" spans="8:13">
       <c r="H243" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M243" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="244" spans="8:13">
       <c r="H244" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M244" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="245" spans="8:13">
       <c r="H245" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M245" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="246" spans="8:13">
       <c r="H246" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M246" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="247" spans="8:13">
       <c r="H247" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M247" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="248" spans="8:13">
       <c r="H248" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M248" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="249" spans="8:13">
       <c r="H249" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M249" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="250" spans="8:13">
       <c r="H250" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M250" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="251" spans="8:13">
       <c r="H251" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M251" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="252" spans="8:13">
       <c r="H252" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M252" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="253" spans="8:13">
       <c r="H253" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M253" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="254" spans="8:13">
       <c r="H254" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M254" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="255" spans="8:13">
       <c r="H255" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M255" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="256" spans="8:13">
       <c r="H256" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M256" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="257" spans="8:13">
       <c r="H257" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M257" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="258" spans="8:13">
       <c r="H258" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M258" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="259" spans="8:13">
       <c r="H259" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M259" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="260" spans="8:13">
       <c r="H260" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M260" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="261" spans="8:13">
       <c r="H261" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M261" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="262" spans="8:13">
       <c r="H262" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M262" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="263" spans="8:13">
       <c r="H263" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M263" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="264" spans="8:13">
       <c r="H264" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M264" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="265" spans="8:13">
       <c r="H265" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M265" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="266" spans="8:13">
       <c r="H266" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M266" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="267" spans="8:13">
       <c r="H267" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M267" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="268" spans="8:13">
       <c r="H268" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M268" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="269" spans="8:13">
       <c r="H269" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M269" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="270" spans="8:13">
       <c r="H270" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M270" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="271" spans="8:13">
       <c r="H271" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M271" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="272" spans="8:13">
       <c r="H272" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M272" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="8:13">
       <c r="H273" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M273" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="274" spans="8:13">
       <c r="M274" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="275" spans="8:13">
       <c r="M275" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="276" spans="8:13">
       <c r="M276" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="8:13">
       <c r="M277" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="8:13">
       <c r="M278" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="279" spans="8:13">
       <c r="M279" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="280" spans="8:13">
       <c r="M280" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="281" spans="8:13">
       <c r="M281" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="282" spans="8:13">
       <c r="M282" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="283" spans="8:13">
       <c r="M283" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="284" spans="8:13">
       <c r="M284" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="285" spans="8:13">
       <c r="M285" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="286" spans="8:13">
       <c r="M286" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="287" spans="8:13">
       <c r="M287" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="288" spans="8:13">
       <c r="M288" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="289" spans="13:13">
       <c r="M289" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -22,7 +22,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$O$1:$O$3</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="616">
   <si>
     <t>alias</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2418,7 +2421,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2462,7 +2465,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2492,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3216,6 +3219,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3240,27 +3248,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3283,122 +3291,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3425,126 +3433,126 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -3579,2290 +3587,2290 @@
   <sheetData>
     <row r="1" spans="6:15">
       <c r="F1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="6:15">
       <c r="F2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="6:15">
       <c r="F3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="6:15">
       <c r="H4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="6:15">
       <c r="H5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="6:15">
       <c r="H6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="6:15">
       <c r="H7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="6:15">
       <c r="H8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="6:15">
       <c r="H9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="6:15">
       <c r="H10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="6:15">
       <c r="H11" t="s">
+        <v>291</v>
+      </c>
+      <c r="M11" t="s">
         <v>290</v>
-      </c>
-      <c r="M11" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="12" spans="6:15">
       <c r="H12" t="s">
+        <v>292</v>
+      </c>
+      <c r="M12" t="s">
         <v>291</v>
-      </c>
-      <c r="M12" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="6:15">
       <c r="H13" t="s">
+        <v>293</v>
+      </c>
+      <c r="M13" t="s">
         <v>292</v>
-      </c>
-      <c r="M13" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="6:15">
       <c r="H14" t="s">
+        <v>294</v>
+      </c>
+      <c r="M14" t="s">
         <v>293</v>
-      </c>
-      <c r="M14" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="15" spans="6:15">
       <c r="H15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M15" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="6:15">
       <c r="H16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="8:13">
       <c r="H17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="8:13">
       <c r="H18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="8:13">
       <c r="H19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="8:13">
       <c r="H20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="8:13">
       <c r="H21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="8:13">
       <c r="H22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M22" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="8:13">
       <c r="H23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="8:13">
       <c r="H24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="8:13">
       <c r="H25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="8:13">
       <c r="H26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="8:13">
       <c r="H27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="8:13">
       <c r="H28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="8:13">
       <c r="H29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="8:13">
       <c r="H30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="8:13">
       <c r="H31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="8:13">
       <c r="H32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="8:13">
       <c r="H33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="8:13">
       <c r="H34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="8:13">
       <c r="H35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="8:13">
       <c r="H36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="8:13">
       <c r="H37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="8:13">
       <c r="H38" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M38" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="8:13">
       <c r="H39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="8:13">
       <c r="H40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="8:13">
       <c r="H41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="8:13">
       <c r="H42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="8:13">
       <c r="H43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="8:13">
       <c r="H44" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="8:13">
       <c r="H45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="8:13">
       <c r="H46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="8:13">
       <c r="H47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="8:13">
       <c r="H48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="8:13">
       <c r="H49" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="8:13">
       <c r="H50" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="8:13">
       <c r="H51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="8:13">
       <c r="H52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="8:13">
       <c r="H53" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M53" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="8:13">
       <c r="H54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="8:13">
       <c r="H55" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="8:13">
       <c r="H56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="8:13">
       <c r="H57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="8:13">
       <c r="H58" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M58" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="8:13">
       <c r="H59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="8:13">
       <c r="H60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M60" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="8:13">
       <c r="H61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="8:13">
       <c r="H62" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M62" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="8:13">
       <c r="H63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M63" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="8:13">
       <c r="H64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M64" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="8:13">
       <c r="H65" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M65" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="66" spans="8:13">
       <c r="H66" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M66" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="8:13">
       <c r="H67" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M67" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="8:13">
       <c r="H68" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M68" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="8:13">
       <c r="H69" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M69" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="8:13">
       <c r="H70" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M70" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="8:13">
       <c r="H71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M71" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="8:13">
       <c r="H72" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M72" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" spans="8:13">
       <c r="H73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="8:13">
       <c r="H74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="8:13">
       <c r="H75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="8:13">
       <c r="H76" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M76" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="8:13">
       <c r="H77" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M77" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="8:13">
       <c r="H78" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M78" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="8:13">
       <c r="H79" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M79" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="8:13">
       <c r="H80" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M80" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="8:13">
       <c r="H81" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M81" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="8:13">
       <c r="H82" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="8:13">
       <c r="H83" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M83" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" spans="8:13">
       <c r="H84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M84" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" spans="8:13">
       <c r="H85" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M85" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="8:13">
       <c r="H86" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M86" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="8:13">
       <c r="H87" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="8:13">
       <c r="H88" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M88" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="8:13">
       <c r="H89" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M89" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="8:13">
       <c r="H90" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M90" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="8:13">
       <c r="H91" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M91" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="8:13">
       <c r="H92" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M92" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="8:13">
       <c r="H93" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M93" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="8:13">
       <c r="H94" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M94" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="8:13">
       <c r="H95" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="8:13">
       <c r="H96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="8:13">
       <c r="H97" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M97" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="8:13">
       <c r="H98" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M98" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="8:13">
       <c r="H99" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M99" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="8:13">
       <c r="H100" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M100" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="8:13">
       <c r="H101" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M101" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="8:13">
       <c r="H102" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M102" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="8:13">
       <c r="H103" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M103" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="8:13">
       <c r="H104" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M104" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="8:13">
       <c r="H105" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M105" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="8:13">
       <c r="H106" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M106" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="8:13">
       <c r="H107" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M107" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="8:13">
       <c r="H108" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M108" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="8:13">
       <c r="H109" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M109" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="8:13">
       <c r="H110" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M110" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="8:13">
       <c r="H111" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M111" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="8:13">
       <c r="H112" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M112" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="8:13">
       <c r="H113" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M113" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="8:13">
       <c r="H114" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M114" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="8:13">
       <c r="H115" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M115" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="8:13">
       <c r="H116" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M116" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="117" spans="8:13">
       <c r="H117" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M117" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="8:13">
       <c r="H118" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M118" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="119" spans="8:13">
       <c r="H119" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M119" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120" spans="8:13">
       <c r="H120" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M120" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="8:13">
       <c r="H121" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M121" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="8:13">
       <c r="H122" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M122" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="8:13">
       <c r="H123" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M123" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="8:13">
       <c r="H124" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M124" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="8:13">
       <c r="H125" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M125" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="8:13">
       <c r="H126" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M126" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127" spans="8:13">
       <c r="H127" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M127" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="128" spans="8:13">
       <c r="H128" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M128" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="8:13">
       <c r="H129" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M129" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="8:13">
       <c r="H130" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M130" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="8:13">
       <c r="H131" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M131" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="8:13">
       <c r="H132" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M132" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="8:13">
       <c r="H133" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M133" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="134" spans="8:13">
       <c r="H134" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M134" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="8:13">
       <c r="H135" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M135" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="136" spans="8:13">
       <c r="H136" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M136" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137" spans="8:13">
       <c r="H137" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M137" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="138" spans="8:13">
       <c r="H138" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M138" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="8:13">
       <c r="H139" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M139" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="140" spans="8:13">
       <c r="H140" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M140" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="8:13">
       <c r="H141" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M141" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="8:13">
       <c r="H142" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M142" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="8:13">
       <c r="H143" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M143" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" spans="8:13">
       <c r="H144" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M144" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="8:13">
       <c r="H145" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M145" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="8:13">
       <c r="H146" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M146" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="8:13">
       <c r="H147" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M147" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="8:13">
       <c r="H148" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M148" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="8:13">
       <c r="H149" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M149" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="8:13">
       <c r="H150" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M150" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="8:13">
       <c r="H151" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M151" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="152" spans="8:13">
       <c r="H152" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M152" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="153" spans="8:13">
       <c r="H153" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M153" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="8:13">
       <c r="H154" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M154" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="8:13">
       <c r="H155" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M155" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="8:13">
       <c r="H156" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M156" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="157" spans="8:13">
       <c r="H157" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M157" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="8:13">
       <c r="H158" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M158" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="8:13">
       <c r="H159" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M159" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="160" spans="8:13">
       <c r="H160" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M160" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="161" spans="8:13">
       <c r="H161" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M161" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="162" spans="8:13">
       <c r="H162" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M162" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="8:13">
       <c r="H163" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M163" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="8:13">
       <c r="H164" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M164" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="8:13">
       <c r="H165" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M165" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="8:13">
       <c r="H166" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M166" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="8:13">
       <c r="H167" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M167" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="8:13">
       <c r="H168" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M168" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="169" spans="8:13">
       <c r="H169" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M169" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="8:13">
       <c r="H170" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M170" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="8:13">
       <c r="H171" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M171" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" spans="8:13">
       <c r="H172" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M172" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="173" spans="8:13">
       <c r="H173" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M173" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="8:13">
       <c r="H174" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M174" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="8:13">
       <c r="H175" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M175" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="8:13">
       <c r="H176" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M176" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="8:13">
       <c r="H177" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M177" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="8:13">
       <c r="H178" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M178" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="179" spans="8:13">
       <c r="H179" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M179" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="180" spans="8:13">
       <c r="H180" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M180" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="181" spans="8:13">
       <c r="H181" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M181" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="8:13">
       <c r="H182" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M182" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="183" spans="8:13">
       <c r="H183" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M183" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="8:13">
       <c r="H184" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M184" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="8:13">
       <c r="H185" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M185" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="186" spans="8:13">
       <c r="H186" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M186" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="187" spans="8:13">
       <c r="H187" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M187" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" spans="8:13">
       <c r="H188" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M188" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="189" spans="8:13">
       <c r="H189" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M189" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" spans="8:13">
       <c r="H190" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M190" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="191" spans="8:13">
       <c r="H191" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M191" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="8:13">
       <c r="H192" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M192" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="8:13">
       <c r="H193" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M193" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="8:13">
       <c r="H194" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M194" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="195" spans="8:13">
       <c r="H195" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M195" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="196" spans="8:13">
       <c r="H196" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M196" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="197" spans="8:13">
       <c r="H197" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M197" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="8:13">
       <c r="H198" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M198" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="8:13">
       <c r="H199" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M199" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="8:13">
       <c r="H200" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M200" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="201" spans="8:13">
       <c r="H201" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M201" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="8:13">
       <c r="H202" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M202" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="203" spans="8:13">
       <c r="H203" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M203" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204" spans="8:13">
       <c r="H204" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M204" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="205" spans="8:13">
       <c r="H205" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M205" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="8:13">
       <c r="H206" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M206" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" spans="8:13">
       <c r="H207" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M207" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="208" spans="8:13">
       <c r="H208" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M208" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="209" spans="8:13">
       <c r="H209" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M209" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="210" spans="8:13">
       <c r="H210" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M210" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="211" spans="8:13">
       <c r="H211" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M211" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="8:13">
       <c r="H212" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M212" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="8:13">
       <c r="H213" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M213" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="214" spans="8:13">
       <c r="H214" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M214" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="215" spans="8:13">
       <c r="H215" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M215" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="216" spans="8:13">
       <c r="H216" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M216" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="217" spans="8:13">
       <c r="H217" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M217" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" spans="8:13">
       <c r="H218" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M218" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="8:13">
       <c r="H219" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M219" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="8:13">
       <c r="H220" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M220" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="221" spans="8:13">
       <c r="H221" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M221" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="8:13">
       <c r="H222" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M222" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="223" spans="8:13">
       <c r="H223" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M223" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="8:13">
       <c r="H224" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M224" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="8:13">
       <c r="H225" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M225" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="8:13">
       <c r="H226" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M226" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="227" spans="8:13">
       <c r="H227" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M227" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="8:13">
       <c r="H228" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M228" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="229" spans="8:13">
       <c r="H229" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M229" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="8:13">
       <c r="H230" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M230" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="231" spans="8:13">
       <c r="H231" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M231" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" spans="8:13">
       <c r="H232" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M232" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="233" spans="8:13">
       <c r="H233" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M233" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="234" spans="8:13">
       <c r="H234" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M234" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="235" spans="8:13">
       <c r="H235" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M235" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="236" spans="8:13">
       <c r="H236" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M236" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="237" spans="8:13">
       <c r="H237" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M237" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="238" spans="8:13">
       <c r="H238" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M238" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="239" spans="8:13">
       <c r="H239" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M239" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="240" spans="8:13">
       <c r="H240" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M240" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="241" spans="8:13">
       <c r="H241" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M241" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="242" spans="8:13">
       <c r="H242" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M242" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="243" spans="8:13">
       <c r="H243" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M243" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="244" spans="8:13">
       <c r="H244" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M244" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="245" spans="8:13">
       <c r="H245" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M245" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="246" spans="8:13">
       <c r="H246" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M246" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="247" spans="8:13">
       <c r="H247" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M247" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="248" spans="8:13">
       <c r="H248" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M248" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="249" spans="8:13">
       <c r="H249" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M249" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="250" spans="8:13">
       <c r="H250" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M250" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="251" spans="8:13">
       <c r="H251" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M251" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="252" spans="8:13">
       <c r="H252" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M252" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="253" spans="8:13">
       <c r="H253" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M253" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="254" spans="8:13">
       <c r="H254" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M254" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="255" spans="8:13">
       <c r="H255" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M255" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="256" spans="8:13">
       <c r="H256" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M256" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="257" spans="8:13">
       <c r="H257" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M257" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="258" spans="8:13">
       <c r="H258" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M258" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="259" spans="8:13">
       <c r="H259" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M259" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="260" spans="8:13">
       <c r="H260" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M260" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="261" spans="8:13">
       <c r="H261" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M261" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="8:13">
       <c r="H262" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M262" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="263" spans="8:13">
       <c r="H263" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M263" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="264" spans="8:13">
       <c r="H264" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M264" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="265" spans="8:13">
       <c r="H265" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M265" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="266" spans="8:13">
       <c r="H266" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M266" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="267" spans="8:13">
       <c r="H267" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M267" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="268" spans="8:13">
       <c r="H268" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M268" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="269" spans="8:13">
       <c r="H269" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M269" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="270" spans="8:13">
       <c r="H270" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M270" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="8:13">
       <c r="H271" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M271" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="272" spans="8:13">
       <c r="H272" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M272" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="273" spans="8:13">
       <c r="H273" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M273" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="274" spans="8:13">
       <c r="M274" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="275" spans="8:13">
       <c r="M275" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="8:13">
       <c r="M276" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="277" spans="8:13">
       <c r="M277" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="278" spans="8:13">
       <c r="M278" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="279" spans="8:13">
       <c r="M279" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="280" spans="8:13">
       <c r="M280" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="281" spans="8:13">
       <c r="M281" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="282" spans="8:13">
       <c r="M282" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="283" spans="8:13">
       <c r="M283" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="284" spans="8:13">
       <c r="M284" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="285" spans="8:13">
       <c r="M285" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="286" spans="8:13">
       <c r="M286" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="287" spans="8:13">
       <c r="M287" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="288" spans="8:13">
       <c r="M288" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="289" spans="13:13">
       <c r="M289" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -20,7 +20,7 @@
     <definedName name="clinicalsetting">'cv_sample'!$G$1:$G$2</definedName>
     <definedName name="countryoftravel">'cv_sample'!$H$1:$H$273</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$294</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$O$1:$O$3</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="619">
   <si>
     <t>alias</t>
   </si>
@@ -847,7 +847,7 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>subject exposure</t>
+    <t>subject_exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
@@ -862,7 +862,7 @@
     <t>travel-related</t>
   </si>
   <si>
-    <t>travel-relation</t>
+    <t>travelrelation</t>
   </si>
   <si>
     <t>(Optional) Designates the relation of the main diagnosis to the patient's travel.</t>
@@ -874,7 +874,7 @@
     <t>during travel</t>
   </si>
   <si>
-    <t>clinical setting</t>
+    <t>clinical_setting</t>
   </si>
   <si>
     <t>(Optional) The timing of the clinic visit in relation to travel.</t>
@@ -1699,7 +1699,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>country of travel</t>
+    <t>country_of_travel</t>
   </si>
   <si>
     <t>(Optional) The name of the country of patient's travel.</t>
@@ -1711,22 +1711,22 @@
     <t>(Mandatory) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>subject exposure duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>subject_exposure_duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
   </si>
   <si>
     <t>Arctic Ocean</t>
@@ -1747,7 +1747,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>East Timor</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Falkland Islands (Islas Malvinas)</t>
@@ -1759,12 +1759,21 @@
     <t>Kerguelen Archipelago</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Mediterranean Sea</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1822,13 +1831,13 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
@@ -1843,13 +1852,13 @@
     <t>recovered with sequelae</t>
   </si>
   <si>
-    <t>host disease outcome</t>
+    <t>host_disease_outcome</t>
   </si>
   <si>
     <t>(Optional) Disease outcome in the host.</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Mandatory) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
@@ -1873,13 +1882,13 @@
     <t>(Recommended) Serological variety of a species (usually a prokaryote) characterized by its antigenic properties</t>
   </si>
   <si>
-    <t>serovar_in-silico</t>
+    <t>serovar_insilico</t>
   </si>
   <si>
     <t>(Recommended) Serological variety of a species characterized by its antigenic properties derived by in silico prediction</t>
   </si>
   <si>
-    <t>isolation source host-associated</t>
+    <t>isolation_source_hostassociated</t>
   </si>
   <si>
     <t>(Recommended) Name of host tissue or organ sampled for analysis. example: tracheal tissue</t>
@@ -3463,31 +3472,31 @@
         <v>562</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="150" customHeight="1">
@@ -3528,31 +3537,31 @@
         <v>563</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -3579,7 +3588,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:O289"/>
+  <dimension ref="F1:O294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3599,7 +3608,7 @@
         <v>281</v>
       </c>
       <c r="O1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="6:15">
@@ -3616,7 +3625,7 @@
         <v>282</v>
       </c>
       <c r="O2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="6:15">
@@ -3630,7 +3639,7 @@
         <v>283</v>
       </c>
       <c r="O3" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="6:15">
@@ -4182,7 +4191,7 @@
         <v>352</v>
       </c>
       <c r="M72" t="s">
-        <v>570</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="8:13">
@@ -4190,7 +4199,7 @@
         <v>353</v>
       </c>
       <c r="M73" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="8:13">
@@ -4198,7 +4207,7 @@
         <v>354</v>
       </c>
       <c r="M74" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="8:13">
@@ -4206,7 +4215,7 @@
         <v>355</v>
       </c>
       <c r="M75" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="8:13">
@@ -4214,7 +4223,7 @@
         <v>356</v>
       </c>
       <c r="M76" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="8:13">
@@ -4222,7 +4231,7 @@
         <v>357</v>
       </c>
       <c r="M77" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="8:13">
@@ -4230,7 +4239,7 @@
         <v>358</v>
       </c>
       <c r="M78" t="s">
-        <v>353</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79" spans="8:13">
@@ -4774,7 +4783,7 @@
         <v>426</v>
       </c>
       <c r="M146" t="s">
-        <v>423</v>
+        <v>574</v>
       </c>
     </row>
     <row r="147" spans="8:13">
@@ -4782,7 +4791,7 @@
         <v>427</v>
       </c>
       <c r="M147" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="8:13">
@@ -4790,7 +4799,7 @@
         <v>428</v>
       </c>
       <c r="M148" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="149" spans="8:13">
@@ -4798,7 +4807,7 @@
         <v>429</v>
       </c>
       <c r="M149" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="8:13">
@@ -4894,7 +4903,7 @@
         <v>441</v>
       </c>
       <c r="M161" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="162" spans="8:13">
@@ -4910,7 +4919,7 @@
         <v>443</v>
       </c>
       <c r="M163" t="s">
-        <v>439</v>
+        <v>576</v>
       </c>
     </row>
     <row r="164" spans="8:13">
@@ -4982,7 +4991,7 @@
         <v>452</v>
       </c>
       <c r="M172" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="173" spans="8:13">
@@ -5094,7 +5103,7 @@
         <v>466</v>
       </c>
       <c r="M186" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="187" spans="8:13">
@@ -5102,7 +5111,7 @@
         <v>467</v>
       </c>
       <c r="M187" t="s">
-        <v>462</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" spans="8:13">
@@ -5110,7 +5119,7 @@
         <v>468</v>
       </c>
       <c r="M188" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="189" spans="8:13">
@@ -5118,7 +5127,7 @@
         <v>469</v>
       </c>
       <c r="M189" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="8:13">
@@ -5126,7 +5135,7 @@
         <v>470</v>
       </c>
       <c r="M190" t="s">
-        <v>577</v>
+        <v>464</v>
       </c>
     </row>
     <row r="191" spans="8:13">
@@ -5134,7 +5143,7 @@
         <v>471</v>
       </c>
       <c r="M191" t="s">
-        <v>465</v>
+        <v>580</v>
       </c>
     </row>
     <row r="192" spans="8:13">
@@ -5142,7 +5151,7 @@
         <v>472</v>
       </c>
       <c r="M192" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="8:13">
@@ -5150,7 +5159,7 @@
         <v>473</v>
       </c>
       <c r="M193" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="194" spans="8:13">
@@ -5158,7 +5167,7 @@
         <v>474</v>
       </c>
       <c r="M194" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="8:13">
@@ -5166,7 +5175,7 @@
         <v>475</v>
       </c>
       <c r="M195" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="196" spans="8:13">
@@ -5174,7 +5183,7 @@
         <v>476</v>
       </c>
       <c r="M196" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="197" spans="8:13">
@@ -5182,7 +5191,7 @@
         <v>477</v>
       </c>
       <c r="M197" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="198" spans="8:13">
@@ -5190,7 +5199,7 @@
         <v>478</v>
       </c>
       <c r="M198" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="199" spans="8:13">
@@ -5198,7 +5207,7 @@
         <v>479</v>
       </c>
       <c r="M199" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="200" spans="8:13">
@@ -5206,7 +5215,7 @@
         <v>480</v>
       </c>
       <c r="M200" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="201" spans="8:13">
@@ -5214,7 +5223,7 @@
         <v>481</v>
       </c>
       <c r="M201" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="202" spans="8:13">
@@ -5222,7 +5231,7 @@
         <v>482</v>
       </c>
       <c r="M202" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="203" spans="8:13">
@@ -5230,7 +5239,7 @@
         <v>483</v>
       </c>
       <c r="M203" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="204" spans="8:13">
@@ -5238,7 +5247,7 @@
         <v>484</v>
       </c>
       <c r="M204" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" spans="8:13">
@@ -5246,7 +5255,7 @@
         <v>485</v>
       </c>
       <c r="M205" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="206" spans="8:13">
@@ -5254,7 +5263,7 @@
         <v>486</v>
       </c>
       <c r="M206" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="207" spans="8:13">
@@ -5262,7 +5271,7 @@
         <v>487</v>
       </c>
       <c r="M207" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="208" spans="8:13">
@@ -5270,7 +5279,7 @@
         <v>488</v>
       </c>
       <c r="M208" t="s">
-        <v>578</v>
+        <v>481</v>
       </c>
     </row>
     <row r="209" spans="8:13">
@@ -5278,7 +5287,7 @@
         <v>489</v>
       </c>
       <c r="M209" t="s">
-        <v>482</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="8:13">
@@ -5286,7 +5295,7 @@
         <v>490</v>
       </c>
       <c r="M210" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="211" spans="8:13">
@@ -5294,7 +5303,7 @@
         <v>491</v>
       </c>
       <c r="M211" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="212" spans="8:13">
@@ -5302,7 +5311,7 @@
         <v>492</v>
       </c>
       <c r="M212" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="213" spans="8:13">
@@ -5310,7 +5319,7 @@
         <v>493</v>
       </c>
       <c r="M213" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="214" spans="8:13">
@@ -5318,7 +5327,7 @@
         <v>494</v>
       </c>
       <c r="M214" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="215" spans="8:13">
@@ -5326,7 +5335,7 @@
         <v>495</v>
       </c>
       <c r="M215" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="216" spans="8:13">
@@ -5334,7 +5343,7 @@
         <v>496</v>
       </c>
       <c r="M216" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="217" spans="8:13">
@@ -5342,7 +5351,7 @@
         <v>497</v>
       </c>
       <c r="M217" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="8:13">
@@ -5350,7 +5359,7 @@
         <v>498</v>
       </c>
       <c r="M218" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="8:13">
@@ -5358,7 +5367,7 @@
         <v>499</v>
       </c>
       <c r="M219" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="220" spans="8:13">
@@ -5366,7 +5375,7 @@
         <v>500</v>
       </c>
       <c r="M220" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="221" spans="8:13">
@@ -5374,7 +5383,7 @@
         <v>501</v>
       </c>
       <c r="M221" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="222" spans="8:13">
@@ -5382,7 +5391,7 @@
         <v>502</v>
       </c>
       <c r="M222" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="223" spans="8:13">
@@ -5390,7 +5399,7 @@
         <v>503</v>
       </c>
       <c r="M223" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="224" spans="8:13">
@@ -5398,7 +5407,7 @@
         <v>504</v>
       </c>
       <c r="M224" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="225" spans="8:13">
@@ -5406,7 +5415,7 @@
         <v>505</v>
       </c>
       <c r="M225" t="s">
-        <v>579</v>
+        <v>498</v>
       </c>
     </row>
     <row r="226" spans="8:13">
@@ -5414,7 +5423,7 @@
         <v>506</v>
       </c>
       <c r="M226" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="8:13">
@@ -5422,7 +5431,7 @@
         <v>507</v>
       </c>
       <c r="M227" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="8:13">
@@ -5430,7 +5439,7 @@
         <v>508</v>
       </c>
       <c r="M228" t="s">
-        <v>503</v>
+        <v>582</v>
       </c>
     </row>
     <row r="229" spans="8:13">
@@ -5438,7 +5447,7 @@
         <v>509</v>
       </c>
       <c r="M229" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="230" spans="8:13">
@@ -5446,7 +5455,7 @@
         <v>510</v>
       </c>
       <c r="M230" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="8:13">
@@ -5454,7 +5463,7 @@
         <v>511</v>
       </c>
       <c r="M231" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="232" spans="8:13">
@@ -5462,7 +5471,7 @@
         <v>512</v>
       </c>
       <c r="M232" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="233" spans="8:13">
@@ -5470,7 +5479,7 @@
         <v>513</v>
       </c>
       <c r="M233" t="s">
-        <v>580</v>
+        <v>505</v>
       </c>
     </row>
     <row r="234" spans="8:13">
@@ -5478,7 +5487,7 @@
         <v>514</v>
       </c>
       <c r="M234" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="235" spans="8:13">
@@ -5486,7 +5495,7 @@
         <v>515</v>
       </c>
       <c r="M235" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="236" spans="8:13">
@@ -5494,7 +5503,7 @@
         <v>516</v>
       </c>
       <c r="M236" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="237" spans="8:13">
@@ -5502,7 +5511,7 @@
         <v>517</v>
       </c>
       <c r="M237" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
     </row>
     <row r="238" spans="8:13">
@@ -5510,7 +5519,7 @@
         <v>518</v>
       </c>
       <c r="M238" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="239" spans="8:13">
@@ -5518,7 +5527,7 @@
         <v>519</v>
       </c>
       <c r="M239" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="240" spans="8:13">
@@ -5526,7 +5535,7 @@
         <v>520</v>
       </c>
       <c r="M240" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="241" spans="8:13">
@@ -5534,7 +5543,7 @@
         <v>521</v>
       </c>
       <c r="M241" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="242" spans="8:13">
@@ -5542,7 +5551,7 @@
         <v>522</v>
       </c>
       <c r="M242" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="243" spans="8:13">
@@ -5550,7 +5559,7 @@
         <v>523</v>
       </c>
       <c r="M243" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="244" spans="8:13">
@@ -5558,7 +5567,7 @@
         <v>524</v>
       </c>
       <c r="M244" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="245" spans="8:13">
@@ -5566,7 +5575,7 @@
         <v>525</v>
       </c>
       <c r="M245" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="246" spans="8:13">
@@ -5574,7 +5583,7 @@
         <v>526</v>
       </c>
       <c r="M246" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="247" spans="8:13">
@@ -5582,7 +5591,7 @@
         <v>527</v>
       </c>
       <c r="M247" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
     </row>
     <row r="248" spans="8:13">
@@ -5590,7 +5599,7 @@
         <v>528</v>
       </c>
       <c r="M248" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="249" spans="8:13">
@@ -5598,7 +5607,7 @@
         <v>529</v>
       </c>
       <c r="M249" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="250" spans="8:13">
@@ -5606,7 +5615,7 @@
         <v>530</v>
       </c>
       <c r="M250" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="251" spans="8:13">
@@ -5614,7 +5623,7 @@
         <v>531</v>
       </c>
       <c r="M251" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
     </row>
     <row r="252" spans="8:13">
@@ -5622,7 +5631,7 @@
         <v>532</v>
       </c>
       <c r="M252" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="253" spans="8:13">
@@ -5630,7 +5639,7 @@
         <v>533</v>
       </c>
       <c r="M253" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="254" spans="8:13">
@@ -5638,7 +5647,7 @@
         <v>534</v>
       </c>
       <c r="M254" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="255" spans="8:13">
@@ -5646,7 +5655,7 @@
         <v>535</v>
       </c>
       <c r="M255" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="256" spans="8:13">
@@ -5654,7 +5663,7 @@
         <v>536</v>
       </c>
       <c r="M256" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="257" spans="8:13">
@@ -5662,7 +5671,7 @@
         <v>537</v>
       </c>
       <c r="M257" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="258" spans="8:13">
@@ -5670,7 +5679,7 @@
         <v>538</v>
       </c>
       <c r="M258" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="259" spans="8:13">
@@ -5678,7 +5687,7 @@
         <v>539</v>
       </c>
       <c r="M259" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="260" spans="8:13">
@@ -5686,7 +5695,7 @@
         <v>540</v>
       </c>
       <c r="M260" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="261" spans="8:13">
@@ -5694,7 +5703,7 @@
         <v>541</v>
       </c>
       <c r="M261" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="262" spans="8:13">
@@ -5702,7 +5711,7 @@
         <v>542</v>
       </c>
       <c r="M262" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="263" spans="8:13">
@@ -5710,7 +5719,7 @@
         <v>543</v>
       </c>
       <c r="M263" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="264" spans="8:13">
@@ -5718,7 +5727,7 @@
         <v>544</v>
       </c>
       <c r="M264" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="265" spans="8:13">
@@ -5726,7 +5735,7 @@
         <v>545</v>
       </c>
       <c r="M265" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="266" spans="8:13">
@@ -5734,7 +5743,7 @@
         <v>546</v>
       </c>
       <c r="M266" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="267" spans="8:13">
@@ -5742,7 +5751,7 @@
         <v>547</v>
       </c>
       <c r="M267" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="268" spans="8:13">
@@ -5750,7 +5759,7 @@
         <v>548</v>
       </c>
       <c r="M268" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="269" spans="8:13">
@@ -5758,7 +5767,7 @@
         <v>549</v>
       </c>
       <c r="M269" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="270" spans="8:13">
@@ -5766,7 +5775,7 @@
         <v>550</v>
       </c>
       <c r="M270" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="271" spans="8:13">
@@ -5774,7 +5783,7 @@
         <v>551</v>
       </c>
       <c r="M271" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="272" spans="8:13">
@@ -5782,7 +5791,7 @@
         <v>552</v>
       </c>
       <c r="M272" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="273" spans="8:13">
@@ -5790,87 +5799,112 @@
         <v>553</v>
       </c>
       <c r="M273" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="274" spans="8:13">
       <c r="M274" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275" spans="8:13">
       <c r="M275" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="276" spans="8:13">
       <c r="M276" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="277" spans="8:13">
       <c r="M277" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
     </row>
     <row r="278" spans="8:13">
       <c r="M278" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
     </row>
     <row r="279" spans="8:13">
       <c r="M279" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
     </row>
     <row r="280" spans="8:13">
       <c r="M280" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
     </row>
     <row r="281" spans="8:13">
       <c r="M281" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="282" spans="8:13">
       <c r="M282" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="283" spans="8:13">
       <c r="M283" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="284" spans="8:13">
       <c r="M284" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="285" spans="8:13">
       <c r="M285" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="286" spans="8:13">
       <c r="M286" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="287" spans="8:13">
       <c r="M287" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="288" spans="8:13">
       <c r="M288" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="289" spans="13:13">
       <c r="M289" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="290" spans="13:13">
+      <c r="M290" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="291" spans="13:13">
+      <c r="M291" t="s">
         <v>594</v>
+      </c>
+    </row>
+    <row r="292" spans="13:13">
+      <c r="M292" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="293" spans="13:13">
+      <c r="M293" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="294" spans="13:13">
+      <c r="M294" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -20,7 +20,7 @@
     <definedName name="clinicalsetting">'cv_sample'!$G$1:$G$2</definedName>
     <definedName name="countryoftravel">'cv_sample'!$H$1:$H$273</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$O$1:$O$3</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="616">
   <si>
     <t>alias</t>
   </si>
@@ -847,7 +847,7 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>subject_exposure</t>
+    <t>subject exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
@@ -862,7 +862,7 @@
     <t>travel-related</t>
   </si>
   <si>
-    <t>travelrelation</t>
+    <t>travel-relation</t>
   </si>
   <si>
     <t>(Optional) Designates the relation of the main diagnosis to the patient's travel.</t>
@@ -874,7 +874,7 @@
     <t>during travel</t>
   </si>
   <si>
-    <t>clinical_setting</t>
+    <t>clinical setting</t>
   </si>
   <si>
     <t>(Optional) The timing of the clinic visit in relation to travel.</t>
@@ -1699,7 +1699,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>country_of_travel</t>
+    <t>country of travel</t>
   </si>
   <si>
     <t>(Optional) The name of the country of patient's travel.</t>
@@ -1711,22 +1711,22 @@
     <t>(Mandatory) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>subject_exposure_duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
+    <t>subject exposure duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
   </si>
   <si>
     <t>Arctic Ocean</t>
@@ -1747,7 +1747,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>Eswatini</t>
+    <t>East Timor</t>
   </si>
   <si>
     <t>Falkland Islands (Islas Malvinas)</t>
@@ -1759,21 +1759,12 @@
     <t>Kerguelen Archipelago</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Mediterranean Sea</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1831,13 +1822,13 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
@@ -1852,13 +1843,13 @@
     <t>recovered with sequelae</t>
   </si>
   <si>
-    <t>host_disease_outcome</t>
+    <t>host disease outcome</t>
   </si>
   <si>
     <t>(Optional) Disease outcome in the host.</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Mandatory) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
@@ -1882,13 +1873,13 @@
     <t>(Recommended) Serological variety of a species (usually a prokaryote) characterized by its antigenic properties</t>
   </si>
   <si>
-    <t>serovar_insilico</t>
+    <t>serovar_in-silico</t>
   </si>
   <si>
     <t>(Recommended) Serological variety of a species characterized by its antigenic properties derived by in silico prediction</t>
   </si>
   <si>
-    <t>isolation_source_hostassociated</t>
+    <t>isolation source host-associated</t>
   </si>
   <si>
     <t>(Recommended) Name of host tissue or organ sampled for analysis. example: tracheal tissue</t>
@@ -3472,31 +3463,31 @@
         <v>562</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="150" customHeight="1">
@@ -3537,31 +3528,31 @@
         <v>563</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3579,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:O294"/>
+  <dimension ref="F1:O289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3608,7 +3599,7 @@
         <v>281</v>
       </c>
       <c r="O1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="6:15">
@@ -3625,7 +3616,7 @@
         <v>282</v>
       </c>
       <c r="O2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="6:15">
@@ -3639,7 +3630,7 @@
         <v>283</v>
       </c>
       <c r="O3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="6:15">
@@ -4191,7 +4182,7 @@
         <v>352</v>
       </c>
       <c r="M72" t="s">
-        <v>348</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" spans="8:13">
@@ -4199,7 +4190,7 @@
         <v>353</v>
       </c>
       <c r="M73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="8:13">
@@ -4207,7 +4198,7 @@
         <v>354</v>
       </c>
       <c r="M74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="8:13">
@@ -4215,7 +4206,7 @@
         <v>355</v>
       </c>
       <c r="M75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="8:13">
@@ -4223,7 +4214,7 @@
         <v>356</v>
       </c>
       <c r="M76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="8:13">
@@ -4231,7 +4222,7 @@
         <v>357</v>
       </c>
       <c r="M77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="8:13">
@@ -4239,7 +4230,7 @@
         <v>358</v>
       </c>
       <c r="M78" t="s">
-        <v>570</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="8:13">
@@ -4783,7 +4774,7 @@
         <v>426</v>
       </c>
       <c r="M146" t="s">
-        <v>574</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="8:13">
@@ -4791,7 +4782,7 @@
         <v>427</v>
       </c>
       <c r="M147" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="8:13">
@@ -4799,7 +4790,7 @@
         <v>428</v>
       </c>
       <c r="M148" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="8:13">
@@ -4807,7 +4798,7 @@
         <v>429</v>
       </c>
       <c r="M149" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="8:13">
@@ -4903,7 +4894,7 @@
         <v>441</v>
       </c>
       <c r="M161" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="162" spans="8:13">
@@ -4919,7 +4910,7 @@
         <v>443</v>
       </c>
       <c r="M163" t="s">
-        <v>576</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="8:13">
@@ -4991,7 +4982,7 @@
         <v>452</v>
       </c>
       <c r="M172" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="173" spans="8:13">
@@ -5103,7 +5094,7 @@
         <v>466</v>
       </c>
       <c r="M186" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="187" spans="8:13">
@@ -5111,7 +5102,7 @@
         <v>467</v>
       </c>
       <c r="M187" t="s">
-        <v>579</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" spans="8:13">
@@ -5119,7 +5110,7 @@
         <v>468</v>
       </c>
       <c r="M188" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="189" spans="8:13">
@@ -5127,7 +5118,7 @@
         <v>469</v>
       </c>
       <c r="M189" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" spans="8:13">
@@ -5135,7 +5126,7 @@
         <v>470</v>
       </c>
       <c r="M190" t="s">
-        <v>464</v>
+        <v>577</v>
       </c>
     </row>
     <row r="191" spans="8:13">
@@ -5143,7 +5134,7 @@
         <v>471</v>
       </c>
       <c r="M191" t="s">
-        <v>580</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="8:13">
@@ -5151,7 +5142,7 @@
         <v>472</v>
       </c>
       <c r="M192" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="8:13">
@@ -5159,7 +5150,7 @@
         <v>473</v>
       </c>
       <c r="M193" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="8:13">
@@ -5167,7 +5158,7 @@
         <v>474</v>
       </c>
       <c r="M194" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="195" spans="8:13">
@@ -5175,7 +5166,7 @@
         <v>475</v>
       </c>
       <c r="M195" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="196" spans="8:13">
@@ -5183,7 +5174,7 @@
         <v>476</v>
       </c>
       <c r="M196" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="197" spans="8:13">
@@ -5191,7 +5182,7 @@
         <v>477</v>
       </c>
       <c r="M197" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="8:13">
@@ -5199,7 +5190,7 @@
         <v>478</v>
       </c>
       <c r="M198" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="8:13">
@@ -5207,7 +5198,7 @@
         <v>479</v>
       </c>
       <c r="M199" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="8:13">
@@ -5215,7 +5206,7 @@
         <v>480</v>
       </c>
       <c r="M200" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="201" spans="8:13">
@@ -5223,7 +5214,7 @@
         <v>481</v>
       </c>
       <c r="M201" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="8:13">
@@ -5231,7 +5222,7 @@
         <v>482</v>
       </c>
       <c r="M202" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="203" spans="8:13">
@@ -5239,7 +5230,7 @@
         <v>483</v>
       </c>
       <c r="M203" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204" spans="8:13">
@@ -5247,7 +5238,7 @@
         <v>484</v>
       </c>
       <c r="M204" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="205" spans="8:13">
@@ -5255,7 +5246,7 @@
         <v>485</v>
       </c>
       <c r="M205" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="8:13">
@@ -5263,7 +5254,7 @@
         <v>486</v>
       </c>
       <c r="M206" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" spans="8:13">
@@ -5271,7 +5262,7 @@
         <v>487</v>
       </c>
       <c r="M207" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="208" spans="8:13">
@@ -5279,7 +5270,7 @@
         <v>488</v>
       </c>
       <c r="M208" t="s">
-        <v>481</v>
+        <v>578</v>
       </c>
     </row>
     <row r="209" spans="8:13">
@@ -5287,7 +5278,7 @@
         <v>489</v>
       </c>
       <c r="M209" t="s">
-        <v>581</v>
+        <v>482</v>
       </c>
     </row>
     <row r="210" spans="8:13">
@@ -5295,7 +5286,7 @@
         <v>490</v>
       </c>
       <c r="M210" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="211" spans="8:13">
@@ -5303,7 +5294,7 @@
         <v>491</v>
       </c>
       <c r="M211" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="8:13">
@@ -5311,7 +5302,7 @@
         <v>492</v>
       </c>
       <c r="M212" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="8:13">
@@ -5319,7 +5310,7 @@
         <v>493</v>
       </c>
       <c r="M213" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="214" spans="8:13">
@@ -5327,7 +5318,7 @@
         <v>494</v>
       </c>
       <c r="M214" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="215" spans="8:13">
@@ -5335,7 +5326,7 @@
         <v>495</v>
       </c>
       <c r="M215" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="216" spans="8:13">
@@ -5343,7 +5334,7 @@
         <v>496</v>
       </c>
       <c r="M216" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="217" spans="8:13">
@@ -5351,7 +5342,7 @@
         <v>497</v>
       </c>
       <c r="M217" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" spans="8:13">
@@ -5359,7 +5350,7 @@
         <v>498</v>
       </c>
       <c r="M218" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="8:13">
@@ -5367,7 +5358,7 @@
         <v>499</v>
       </c>
       <c r="M219" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="8:13">
@@ -5375,7 +5366,7 @@
         <v>500</v>
       </c>
       <c r="M220" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="221" spans="8:13">
@@ -5383,7 +5374,7 @@
         <v>501</v>
       </c>
       <c r="M221" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="8:13">
@@ -5391,7 +5382,7 @@
         <v>502</v>
       </c>
       <c r="M222" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="223" spans="8:13">
@@ -5399,7 +5390,7 @@
         <v>503</v>
       </c>
       <c r="M223" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="8:13">
@@ -5407,7 +5398,7 @@
         <v>504</v>
       </c>
       <c r="M224" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="8:13">
@@ -5415,7 +5406,7 @@
         <v>505</v>
       </c>
       <c r="M225" t="s">
-        <v>498</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="8:13">
@@ -5423,7 +5414,7 @@
         <v>506</v>
       </c>
       <c r="M226" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="227" spans="8:13">
@@ -5431,7 +5422,7 @@
         <v>507</v>
       </c>
       <c r="M227" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="8:13">
@@ -5439,7 +5430,7 @@
         <v>508</v>
       </c>
       <c r="M228" t="s">
-        <v>582</v>
+        <v>503</v>
       </c>
     </row>
     <row r="229" spans="8:13">
@@ -5447,7 +5438,7 @@
         <v>509</v>
       </c>
       <c r="M229" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="8:13">
@@ -5455,7 +5446,7 @@
         <v>510</v>
       </c>
       <c r="M230" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="231" spans="8:13">
@@ -5463,7 +5454,7 @@
         <v>511</v>
       </c>
       <c r="M231" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" spans="8:13">
@@ -5471,7 +5462,7 @@
         <v>512</v>
       </c>
       <c r="M232" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="233" spans="8:13">
@@ -5479,7 +5470,7 @@
         <v>513</v>
       </c>
       <c r="M233" t="s">
-        <v>505</v>
+        <v>580</v>
       </c>
     </row>
     <row r="234" spans="8:13">
@@ -5487,7 +5478,7 @@
         <v>514</v>
       </c>
       <c r="M234" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="235" spans="8:13">
@@ -5495,7 +5486,7 @@
         <v>515</v>
       </c>
       <c r="M235" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="236" spans="8:13">
@@ -5503,7 +5494,7 @@
         <v>516</v>
       </c>
       <c r="M236" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="237" spans="8:13">
@@ -5511,7 +5502,7 @@
         <v>517</v>
       </c>
       <c r="M237" t="s">
-        <v>583</v>
+        <v>513</v>
       </c>
     </row>
     <row r="238" spans="8:13">
@@ -5519,7 +5510,7 @@
         <v>518</v>
       </c>
       <c r="M238" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="239" spans="8:13">
@@ -5527,7 +5518,7 @@
         <v>519</v>
       </c>
       <c r="M239" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="240" spans="8:13">
@@ -5535,7 +5526,7 @@
         <v>520</v>
       </c>
       <c r="M240" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="241" spans="8:13">
@@ -5543,7 +5534,7 @@
         <v>521</v>
       </c>
       <c r="M241" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="242" spans="8:13">
@@ -5551,7 +5542,7 @@
         <v>522</v>
       </c>
       <c r="M242" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="243" spans="8:13">
@@ -5559,7 +5550,7 @@
         <v>523</v>
       </c>
       <c r="M243" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="244" spans="8:13">
@@ -5567,7 +5558,7 @@
         <v>524</v>
       </c>
       <c r="M244" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="245" spans="8:13">
@@ -5575,7 +5566,7 @@
         <v>525</v>
       </c>
       <c r="M245" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="246" spans="8:13">
@@ -5583,7 +5574,7 @@
         <v>526</v>
       </c>
       <c r="M246" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="247" spans="8:13">
@@ -5591,7 +5582,7 @@
         <v>527</v>
       </c>
       <c r="M247" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
     </row>
     <row r="248" spans="8:13">
@@ -5599,7 +5590,7 @@
         <v>528</v>
       </c>
       <c r="M248" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="249" spans="8:13">
@@ -5607,7 +5598,7 @@
         <v>529</v>
       </c>
       <c r="M249" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="250" spans="8:13">
@@ -5615,7 +5606,7 @@
         <v>530</v>
       </c>
       <c r="M250" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="251" spans="8:13">
@@ -5623,7 +5614,7 @@
         <v>531</v>
       </c>
       <c r="M251" t="s">
-        <v>584</v>
+        <v>527</v>
       </c>
     </row>
     <row r="252" spans="8:13">
@@ -5631,7 +5622,7 @@
         <v>532</v>
       </c>
       <c r="M252" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="253" spans="8:13">
@@ -5639,7 +5630,7 @@
         <v>533</v>
       </c>
       <c r="M253" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="254" spans="8:13">
@@ -5647,7 +5638,7 @@
         <v>534</v>
       </c>
       <c r="M254" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="255" spans="8:13">
@@ -5655,7 +5646,7 @@
         <v>535</v>
       </c>
       <c r="M255" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="256" spans="8:13">
@@ -5663,7 +5654,7 @@
         <v>536</v>
       </c>
       <c r="M256" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="257" spans="8:13">
@@ -5671,7 +5662,7 @@
         <v>537</v>
       </c>
       <c r="M257" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="258" spans="8:13">
@@ -5679,7 +5670,7 @@
         <v>538</v>
       </c>
       <c r="M258" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="259" spans="8:13">
@@ -5687,7 +5678,7 @@
         <v>539</v>
       </c>
       <c r="M259" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="260" spans="8:13">
@@ -5695,7 +5686,7 @@
         <v>540</v>
       </c>
       <c r="M260" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="261" spans="8:13">
@@ -5703,7 +5694,7 @@
         <v>541</v>
       </c>
       <c r="M261" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="8:13">
@@ -5711,7 +5702,7 @@
         <v>542</v>
       </c>
       <c r="M262" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="263" spans="8:13">
@@ -5719,7 +5710,7 @@
         <v>543</v>
       </c>
       <c r="M263" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="264" spans="8:13">
@@ -5727,7 +5718,7 @@
         <v>544</v>
       </c>
       <c r="M264" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="265" spans="8:13">
@@ -5735,7 +5726,7 @@
         <v>545</v>
       </c>
       <c r="M265" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="266" spans="8:13">
@@ -5743,7 +5734,7 @@
         <v>546</v>
       </c>
       <c r="M266" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="267" spans="8:13">
@@ -5751,7 +5742,7 @@
         <v>547</v>
       </c>
       <c r="M267" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="268" spans="8:13">
@@ -5759,7 +5750,7 @@
         <v>548</v>
       </c>
       <c r="M268" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="269" spans="8:13">
@@ -5767,7 +5758,7 @@
         <v>549</v>
       </c>
       <c r="M269" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="270" spans="8:13">
@@ -5775,7 +5766,7 @@
         <v>550</v>
       </c>
       <c r="M270" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="8:13">
@@ -5783,7 +5774,7 @@
         <v>551</v>
       </c>
       <c r="M271" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="272" spans="8:13">
@@ -5791,7 +5782,7 @@
         <v>552</v>
       </c>
       <c r="M272" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="273" spans="8:13">
@@ -5799,112 +5790,87 @@
         <v>553</v>
       </c>
       <c r="M273" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="274" spans="8:13">
       <c r="M274" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="275" spans="8:13">
       <c r="M275" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="8:13">
       <c r="M276" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="277" spans="8:13">
       <c r="M277" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
     </row>
     <row r="278" spans="8:13">
       <c r="M278" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
     </row>
     <row r="279" spans="8:13">
       <c r="M279" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
     </row>
     <row r="280" spans="8:13">
       <c r="M280" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
     </row>
     <row r="281" spans="8:13">
       <c r="M281" t="s">
-        <v>553</v>
+        <v>586</v>
       </c>
     </row>
     <row r="282" spans="8:13">
       <c r="M282" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="283" spans="8:13">
       <c r="M283" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="284" spans="8:13">
       <c r="M284" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="285" spans="8:13">
       <c r="M285" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="286" spans="8:13">
       <c r="M286" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="287" spans="8:13">
       <c r="M287" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="288" spans="8:13">
       <c r="M288" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="289" spans="13:13">
       <c r="M289" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="290" spans="13:13">
-      <c r="M290" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="291" spans="13:13">
-      <c r="M291" t="s">
         <v>594</v>
-      </c>
-    </row>
-    <row r="292" spans="13:13">
-      <c r="M292" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="293" spans="13:13">
-      <c r="M293" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="294" spans="13:13">
-      <c r="M294" t="s">
-        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -17,25 +17,25 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="clinicalsetting">'cv_sample'!$G$1:$G$2</definedName>
-    <definedName name="countryoftravel">'cv_sample'!$H$1:$H$273</definedName>
+    <definedName name="clinicalsetting">'cv_sample'!$I$1:$I$2</definedName>
+    <definedName name="countryoftravel">'cv_sample'!$J$1:$J$273</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$289</definedName>
-    <definedName name="hostdiseaseoutcome">'cv_sample'!$O$1:$O$3</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
+    <definedName name="hostdiseaseoutcome">'cv_sample'!$Q$1:$Q$3</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="travelrelation">'cv_sample'!$F$1:$F$3</definedName>
+    <definedName name="travelrelation">'cv_sample'!$H$1:$H$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="620">
   <si>
     <t>alias</t>
   </si>
@@ -839,6 +839,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3416,7 +3428,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3425,7 +3437,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3442,16 +3454,16 @@
         <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>554</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>556</v>
+        <v>283</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>558</v>
@@ -3463,16 +3475,16 @@
         <v>562</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>606</v>
@@ -3489,8 +3501,14 @@
       <c r="U1" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="150" customHeight="1">
+      <c r="V1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3507,16 +3525,16 @@
         <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>555</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>557</v>
+        <v>284</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>559</v>
@@ -3528,16 +3546,16 @@
         <v>563</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>607</v>
@@ -3554,22 +3572,28 @@
       <c r="U2" s="2" t="s">
         <v>615</v>
       </c>
+      <c r="V2" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>619</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>travelrelation</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
       <formula1>clinicalsetting</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>countryoftravel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
       <formula1>hostdiseaseoutcome</formula1>
     </dataValidation>
   </dataValidations>
@@ -3579,2298 +3603,2298 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:O289"/>
+  <dimension ref="H1:Q289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="6:15">
-      <c r="F1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" t="s">
+    <row r="1" spans="8:17">
+      <c r="H1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="8:17">
+      <c r="H2" t="s">
         <v>277</v>
       </c>
-      <c r="H1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M1" t="s">
-        <v>281</v>
-      </c>
-      <c r="O1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="6:15">
-      <c r="F2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="8:17">
+      <c r="H3" t="s">
         <v>278</v>
       </c>
-      <c r="H2" t="s">
-        <v>282</v>
-      </c>
-      <c r="M2" t="s">
-        <v>282</v>
-      </c>
-      <c r="O2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="6:15">
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H3" t="s">
-        <v>283</v>
-      </c>
-      <c r="M3" t="s">
-        <v>283</v>
+      <c r="J3" t="s">
+        <v>287</v>
       </c>
       <c r="O3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="6:15">
-      <c r="H4" t="s">
-        <v>284</v>
-      </c>
-      <c r="M4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="6:15">
-      <c r="H5" t="s">
-        <v>285</v>
-      </c>
-      <c r="M5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="6:15">
-      <c r="H6" t="s">
-        <v>286</v>
-      </c>
-      <c r="M6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="6:15">
-      <c r="H7" t="s">
         <v>287</v>
       </c>
-      <c r="M7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="6:15">
-      <c r="H8" t="s">
+      <c r="Q3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="8:17">
+      <c r="J4" t="s">
         <v>288</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
-      <c r="H9" t="s">
+    <row r="5" spans="8:17">
+      <c r="J5" t="s">
         <v>289</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
-      <c r="H10" t="s">
+    <row r="6" spans="8:17">
+      <c r="J6" t="s">
         <v>290</v>
       </c>
-      <c r="M10" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="11" spans="6:15">
-      <c r="H11" t="s">
+      <c r="O6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="8:17">
+      <c r="J7" t="s">
         <v>291</v>
       </c>
-      <c r="M11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="6:15">
-      <c r="H12" t="s">
+      <c r="O7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="8:17">
+      <c r="J8" t="s">
         <v>292</v>
       </c>
-      <c r="M12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="6:15">
-      <c r="H13" t="s">
+      <c r="O8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="8:17">
+      <c r="J9" t="s">
         <v>293</v>
       </c>
-      <c r="M13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="6:15">
-      <c r="H14" t="s">
+      <c r="O9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="8:17">
+      <c r="J10" t="s">
         <v>294</v>
       </c>
-      <c r="M14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="6:15">
-      <c r="H15" t="s">
+      <c r="O10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="8:17">
+      <c r="J11" t="s">
         <v>295</v>
       </c>
-      <c r="M15" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="16" spans="6:15">
-      <c r="H16" t="s">
+      <c r="O11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="8:17">
+      <c r="J12" t="s">
         <v>296</v>
       </c>
-      <c r="M16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="8:13">
-      <c r="H17" t="s">
+      <c r="O12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="8:17">
+      <c r="J13" t="s">
         <v>297</v>
       </c>
-      <c r="M17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="8:13">
-      <c r="H18" t="s">
+      <c r="O13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="8:17">
+      <c r="J14" t="s">
         <v>298</v>
       </c>
-      <c r="M18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="8:13">
-      <c r="H19" t="s">
+      <c r="O14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="8:17">
+      <c r="J15" t="s">
         <v>299</v>
       </c>
-      <c r="M19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="8:13">
-      <c r="H20" t="s">
+      <c r="O15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="16" spans="8:17">
+      <c r="J16" t="s">
         <v>300</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="8:13">
-      <c r="H21" t="s">
+    <row r="17" spans="10:15">
+      <c r="J17" t="s">
         <v>301</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O17" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="8:13">
-      <c r="H22" t="s">
+    <row r="18" spans="10:15">
+      <c r="J18" t="s">
         <v>302</v>
       </c>
-      <c r="M22" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="23" spans="8:13">
-      <c r="H23" t="s">
+      <c r="O18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="10:15">
+      <c r="J19" t="s">
         <v>303</v>
       </c>
-      <c r="M23" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="8:13">
-      <c r="H24" t="s">
+      <c r="O19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="10:15">
+      <c r="J20" t="s">
         <v>304</v>
       </c>
-      <c r="M24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="8:13">
-      <c r="H25" t="s">
+      <c r="O20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="10:15">
+      <c r="J21" t="s">
         <v>305</v>
       </c>
-      <c r="M25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="8:13">
-      <c r="H26" t="s">
+      <c r="O21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="10:15">
+      <c r="J22" t="s">
         <v>306</v>
       </c>
-      <c r="M26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="8:13">
-      <c r="H27" t="s">
+      <c r="O22" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="23" spans="10:15">
+      <c r="J23" t="s">
         <v>307</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O23" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="8:13">
-      <c r="H28" t="s">
+    <row r="24" spans="10:15">
+      <c r="J24" t="s">
         <v>308</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O24" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="8:13">
-      <c r="H29" t="s">
+    <row r="25" spans="10:15">
+      <c r="J25" t="s">
         <v>309</v>
       </c>
-      <c r="M29" t="s">
+      <c r="O25" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="8:13">
-      <c r="H30" t="s">
+    <row r="26" spans="10:15">
+      <c r="J26" t="s">
         <v>310</v>
       </c>
-      <c r="M30" t="s">
+      <c r="O26" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="8:13">
-      <c r="H31" t="s">
+    <row r="27" spans="10:15">
+      <c r="J27" t="s">
         <v>311</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O27" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="8:13">
-      <c r="H32" t="s">
+    <row r="28" spans="10:15">
+      <c r="J28" t="s">
         <v>312</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O28" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="8:13">
-      <c r="H33" t="s">
+    <row r="29" spans="10:15">
+      <c r="J29" t="s">
         <v>313</v>
       </c>
-      <c r="M33" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="34" spans="8:13">
-      <c r="H34" t="s">
+      <c r="O29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="10:15">
+      <c r="J30" t="s">
         <v>314</v>
       </c>
-      <c r="M34" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" spans="8:13">
-      <c r="H35" t="s">
+      <c r="O30" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="10:15">
+      <c r="J31" t="s">
         <v>315</v>
       </c>
-      <c r="M35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="36" spans="8:13">
-      <c r="H36" t="s">
+      <c r="O31" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="10:15">
+      <c r="J32" t="s">
         <v>316</v>
       </c>
-      <c r="M36" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="8:13">
-      <c r="H37" t="s">
+      <c r="O32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="10:15">
+      <c r="J33" t="s">
         <v>317</v>
       </c>
-      <c r="M37" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="8:13">
-      <c r="H38" t="s">
+      <c r="O33" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" spans="10:15">
+      <c r="J34" t="s">
         <v>318</v>
       </c>
-      <c r="M38" t="s">
+      <c r="O34" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="8:13">
-      <c r="H39" t="s">
+    <row r="35" spans="10:15">
+      <c r="J35" t="s">
         <v>319</v>
       </c>
-      <c r="M39" t="s">
+      <c r="O35" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="8:13">
-      <c r="H40" t="s">
+    <row r="36" spans="10:15">
+      <c r="J36" t="s">
         <v>320</v>
       </c>
-      <c r="M40" t="s">
+      <c r="O36" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="8:13">
-      <c r="H41" t="s">
+    <row r="37" spans="10:15">
+      <c r="J37" t="s">
         <v>321</v>
       </c>
-      <c r="M41" t="s">
+      <c r="O37" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="8:13">
-      <c r="H42" t="s">
+    <row r="38" spans="10:15">
+      <c r="J38" t="s">
         <v>322</v>
       </c>
-      <c r="M42" t="s">
+      <c r="O38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="10:15">
+      <c r="J39" t="s">
+        <v>323</v>
+      </c>
+      <c r="O39" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="8:13">
-      <c r="H43" t="s">
+    <row r="40" spans="10:15">
+      <c r="J40" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="10:15">
+      <c r="J41" t="s">
+        <v>325</v>
+      </c>
+      <c r="O41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="10:15">
+      <c r="J42" t="s">
+        <v>326</v>
+      </c>
+      <c r="O42" t="s">
         <v>323</v>
       </c>
-      <c r="M43" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="8:13">
-      <c r="H44" t="s">
+    </row>
+    <row r="43" spans="10:15">
+      <c r="J43" t="s">
+        <v>327</v>
+      </c>
+      <c r="O43" t="s">
         <v>324</v>
       </c>
-      <c r="M44" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="45" spans="8:13">
-      <c r="H45" t="s">
+    </row>
+    <row r="44" spans="10:15">
+      <c r="J44" t="s">
+        <v>328</v>
+      </c>
+      <c r="O44" t="s">
         <v>325</v>
       </c>
-      <c r="M45" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="46" spans="8:13">
-      <c r="H46" t="s">
+    </row>
+    <row r="45" spans="10:15">
+      <c r="J45" t="s">
+        <v>329</v>
+      </c>
+      <c r="O45" t="s">
         <v>326</v>
       </c>
-      <c r="M46" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="8:13">
-      <c r="H47" t="s">
+    </row>
+    <row r="46" spans="10:15">
+      <c r="J46" t="s">
+        <v>330</v>
+      </c>
+      <c r="O46" t="s">
         <v>327</v>
       </c>
-      <c r="M47" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="48" spans="8:13">
-      <c r="H48" t="s">
+    </row>
+    <row r="47" spans="10:15">
+      <c r="J47" t="s">
+        <v>331</v>
+      </c>
+      <c r="O47" t="s">
         <v>328</v>
       </c>
-      <c r="M48" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="49" spans="8:13">
-      <c r="H49" t="s">
+    </row>
+    <row r="48" spans="10:15">
+      <c r="J48" t="s">
+        <v>332</v>
+      </c>
+      <c r="O48" t="s">
         <v>329</v>
       </c>
-      <c r="M49" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="50" spans="8:13">
-      <c r="H50" t="s">
+    </row>
+    <row r="49" spans="10:15">
+      <c r="J49" t="s">
+        <v>333</v>
+      </c>
+      <c r="O49" t="s">
         <v>330</v>
       </c>
-      <c r="M50" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="51" spans="8:13">
-      <c r="H51" t="s">
+    </row>
+    <row r="50" spans="10:15">
+      <c r="J50" t="s">
+        <v>334</v>
+      </c>
+      <c r="O50" t="s">
         <v>331</v>
       </c>
-      <c r="M51" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="8:13">
-      <c r="H52" t="s">
+    </row>
+    <row r="51" spans="10:15">
+      <c r="J51" t="s">
+        <v>335</v>
+      </c>
+      <c r="O51" t="s">
         <v>332</v>
       </c>
-      <c r="M52" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="53" spans="8:13">
-      <c r="H53" t="s">
+    </row>
+    <row r="52" spans="10:15">
+      <c r="J52" t="s">
+        <v>336</v>
+      </c>
+      <c r="O52" t="s">
         <v>333</v>
       </c>
-      <c r="M53" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="8:13">
-      <c r="H54" t="s">
+    </row>
+    <row r="53" spans="10:15">
+      <c r="J53" t="s">
+        <v>337</v>
+      </c>
+      <c r="O53" t="s">
         <v>334</v>
       </c>
-      <c r="M54" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="8:13">
-      <c r="H55" t="s">
+    </row>
+    <row r="54" spans="10:15">
+      <c r="J54" t="s">
+        <v>338</v>
+      </c>
+      <c r="O54" t="s">
         <v>335</v>
       </c>
-      <c r="M55" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="56" spans="8:13">
-      <c r="H56" t="s">
+    </row>
+    <row r="55" spans="10:15">
+      <c r="J55" t="s">
+        <v>339</v>
+      </c>
+      <c r="O55" t="s">
         <v>336</v>
       </c>
-      <c r="M56" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="57" spans="8:13">
-      <c r="H57" t="s">
+    </row>
+    <row r="56" spans="10:15">
+      <c r="J56" t="s">
+        <v>340</v>
+      </c>
+      <c r="O56" t="s">
         <v>337</v>
       </c>
-      <c r="M57" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="58" spans="8:13">
-      <c r="H58" t="s">
+    </row>
+    <row r="57" spans="10:15">
+      <c r="J57" t="s">
+        <v>341</v>
+      </c>
+      <c r="O57" t="s">
         <v>338</v>
       </c>
-      <c r="M58" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="59" spans="8:13">
-      <c r="H59" t="s">
+    </row>
+    <row r="58" spans="10:15">
+      <c r="J58" t="s">
+        <v>342</v>
+      </c>
+      <c r="O58" t="s">
         <v>339</v>
       </c>
-      <c r="M59" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="60" spans="8:13">
-      <c r="H60" t="s">
+    </row>
+    <row r="59" spans="10:15">
+      <c r="J59" t="s">
+        <v>343</v>
+      </c>
+      <c r="O59" t="s">
         <v>340</v>
       </c>
-      <c r="M60" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="61" spans="8:13">
-      <c r="H61" t="s">
+    </row>
+    <row r="60" spans="10:15">
+      <c r="J60" t="s">
+        <v>344</v>
+      </c>
+      <c r="O60" t="s">
         <v>341</v>
       </c>
-      <c r="M61" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="62" spans="8:13">
-      <c r="H62" t="s">
+    </row>
+    <row r="61" spans="10:15">
+      <c r="J61" t="s">
+        <v>345</v>
+      </c>
+      <c r="O61" t="s">
         <v>342</v>
       </c>
-      <c r="M62" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="63" spans="8:13">
-      <c r="H63" t="s">
+    </row>
+    <row r="62" spans="10:15">
+      <c r="J62" t="s">
+        <v>346</v>
+      </c>
+      <c r="O62" t="s">
         <v>343</v>
       </c>
-      <c r="M63" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="64" spans="8:13">
-      <c r="H64" t="s">
+    </row>
+    <row r="63" spans="10:15">
+      <c r="J63" t="s">
+        <v>347</v>
+      </c>
+      <c r="O63" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="64" spans="10:15">
+      <c r="J64" t="s">
+        <v>348</v>
+      </c>
+      <c r="O64" t="s">
         <v>344</v>
       </c>
-      <c r="M64" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="65" spans="8:13">
-      <c r="H65" t="s">
+    </row>
+    <row r="65" spans="10:15">
+      <c r="J65" t="s">
+        <v>349</v>
+      </c>
+      <c r="O65" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="66" spans="10:15">
+      <c r="J66" t="s">
+        <v>350</v>
+      </c>
+      <c r="O66" t="s">
         <v>345</v>
       </c>
-      <c r="M65" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="66" spans="8:13">
-      <c r="H66" t="s">
-        <v>346</v>
-      </c>
-      <c r="M66" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="67" spans="8:13">
-      <c r="H67" t="s">
+    </row>
+    <row r="67" spans="10:15">
+      <c r="J67" t="s">
+        <v>351</v>
+      </c>
+      <c r="O67" t="s">
         <v>347</v>
       </c>
-      <c r="M67" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="68" spans="8:13">
-      <c r="H68" t="s">
+    </row>
+    <row r="68" spans="10:15">
+      <c r="J68" t="s">
+        <v>352</v>
+      </c>
+      <c r="O68" t="s">
         <v>348</v>
       </c>
-      <c r="M68" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="69" spans="8:13">
-      <c r="H69" t="s">
+    </row>
+    <row r="69" spans="10:15">
+      <c r="J69" t="s">
+        <v>353</v>
+      </c>
+      <c r="O69" t="s">
         <v>349</v>
       </c>
-      <c r="M69" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="70" spans="8:13">
-      <c r="H70" t="s">
+    </row>
+    <row r="70" spans="10:15">
+      <c r="J70" t="s">
+        <v>354</v>
+      </c>
+      <c r="O70" t="s">
         <v>350</v>
       </c>
-      <c r="M70" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="71" spans="8:13">
-      <c r="H71" t="s">
+    </row>
+    <row r="71" spans="10:15">
+      <c r="J71" t="s">
+        <v>355</v>
+      </c>
+      <c r="O71" t="s">
         <v>351</v>
       </c>
-      <c r="M71" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="72" spans="8:13">
-      <c r="H72" t="s">
+    </row>
+    <row r="72" spans="10:15">
+      <c r="J72" t="s">
+        <v>356</v>
+      </c>
+      <c r="O72" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="73" spans="10:15">
+      <c r="J73" t="s">
+        <v>357</v>
+      </c>
+      <c r="O73" t="s">
         <v>352</v>
       </c>
-      <c r="M72" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="73" spans="8:13">
-      <c r="H73" t="s">
+    </row>
+    <row r="74" spans="10:15">
+      <c r="J74" t="s">
+        <v>358</v>
+      </c>
+      <c r="O74" t="s">
         <v>353</v>
       </c>
-      <c r="M73" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="74" spans="8:13">
-      <c r="H74" t="s">
+    </row>
+    <row r="75" spans="10:15">
+      <c r="J75" t="s">
+        <v>359</v>
+      </c>
+      <c r="O75" t="s">
         <v>354</v>
       </c>
-      <c r="M74" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="75" spans="8:13">
-      <c r="H75" t="s">
+    </row>
+    <row r="76" spans="10:15">
+      <c r="J76" t="s">
+        <v>360</v>
+      </c>
+      <c r="O76" t="s">
         <v>355</v>
       </c>
-      <c r="M75" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="76" spans="8:13">
-      <c r="H76" t="s">
+    </row>
+    <row r="77" spans="10:15">
+      <c r="J77" t="s">
+        <v>361</v>
+      </c>
+      <c r="O77" t="s">
         <v>356</v>
       </c>
-      <c r="M76" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="77" spans="8:13">
-      <c r="H77" t="s">
+    </row>
+    <row r="78" spans="10:15">
+      <c r="J78" t="s">
+        <v>362</v>
+      </c>
+      <c r="O78" t="s">
         <v>357</v>
       </c>
-      <c r="M77" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="78" spans="8:13">
-      <c r="H78" t="s">
+    </row>
+    <row r="79" spans="10:15">
+      <c r="J79" t="s">
+        <v>363</v>
+      </c>
+      <c r="O79" t="s">
         <v>358</v>
       </c>
-      <c r="M78" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="79" spans="8:13">
-      <c r="H79" t="s">
+    </row>
+    <row r="80" spans="10:15">
+      <c r="J80" t="s">
+        <v>364</v>
+      </c>
+      <c r="O80" t="s">
         <v>359</v>
       </c>
-      <c r="M79" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="80" spans="8:13">
-      <c r="H80" t="s">
-        <v>360</v>
-      </c>
-      <c r="M80" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="81" spans="8:13">
-      <c r="H81" t="s">
+    </row>
+    <row r="81" spans="10:15">
+      <c r="J81" t="s">
+        <v>365</v>
+      </c>
+      <c r="O81" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="82" spans="10:15">
+      <c r="J82" t="s">
+        <v>366</v>
+      </c>
+      <c r="O82" t="s">
         <v>361</v>
       </c>
-      <c r="M81" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="82" spans="8:13">
-      <c r="H82" t="s">
-        <v>362</v>
-      </c>
-      <c r="M82" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="83" spans="8:13">
-      <c r="H83" t="s">
+    </row>
+    <row r="83" spans="10:15">
+      <c r="J83" t="s">
+        <v>367</v>
+      </c>
+      <c r="O83" t="s">
         <v>363</v>
       </c>
-      <c r="M83" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="84" spans="8:13">
-      <c r="H84" t="s">
+    </row>
+    <row r="84" spans="10:15">
+      <c r="J84" t="s">
+        <v>368</v>
+      </c>
+      <c r="O84" t="s">
         <v>364</v>
       </c>
-      <c r="M84" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="85" spans="8:13">
-      <c r="H85" t="s">
-        <v>365</v>
-      </c>
-      <c r="M85" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="86" spans="8:13">
-      <c r="H86" t="s">
+    </row>
+    <row r="85" spans="10:15">
+      <c r="J85" t="s">
+        <v>369</v>
+      </c>
+      <c r="O85" t="s">
         <v>366</v>
       </c>
-      <c r="M86" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="87" spans="8:13">
-      <c r="H87" t="s">
+    </row>
+    <row r="86" spans="10:15">
+      <c r="J86" t="s">
+        <v>370</v>
+      </c>
+      <c r="O86" t="s">
         <v>367</v>
       </c>
-      <c r="M87" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="88" spans="8:13">
-      <c r="H88" t="s">
+    </row>
+    <row r="87" spans="10:15">
+      <c r="J87" t="s">
+        <v>371</v>
+      </c>
+      <c r="O87" t="s">
         <v>368</v>
       </c>
-      <c r="M88" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="89" spans="8:13">
-      <c r="H89" t="s">
+    </row>
+    <row r="88" spans="10:15">
+      <c r="J88" t="s">
+        <v>372</v>
+      </c>
+      <c r="O88" t="s">
         <v>369</v>
       </c>
-      <c r="M89" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="90" spans="8:13">
-      <c r="H90" t="s">
-        <v>370</v>
-      </c>
-      <c r="M90" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="91" spans="8:13">
-      <c r="H91" t="s">
+    </row>
+    <row r="89" spans="10:15">
+      <c r="J89" t="s">
+        <v>373</v>
+      </c>
+      <c r="O89" t="s">
         <v>371</v>
       </c>
-      <c r="M91" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="92" spans="8:13">
-      <c r="H92" t="s">
+    </row>
+    <row r="90" spans="10:15">
+      <c r="J90" t="s">
+        <v>374</v>
+      </c>
+      <c r="O90" t="s">
         <v>372</v>
       </c>
-      <c r="M92" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="93" spans="8:13">
-      <c r="H93" t="s">
+    </row>
+    <row r="91" spans="10:15">
+      <c r="J91" t="s">
+        <v>375</v>
+      </c>
+      <c r="O91" t="s">
         <v>373</v>
       </c>
-      <c r="M93" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="94" spans="8:13">
-      <c r="H94" t="s">
+    </row>
+    <row r="92" spans="10:15">
+      <c r="J92" t="s">
+        <v>376</v>
+      </c>
+      <c r="O92" t="s">
         <v>374</v>
       </c>
-      <c r="M94" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="95" spans="8:13">
-      <c r="H95" t="s">
+    </row>
+    <row r="93" spans="10:15">
+      <c r="J93" t="s">
+        <v>377</v>
+      </c>
+      <c r="O93" t="s">
         <v>375</v>
       </c>
-      <c r="M95" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="96" spans="8:13">
-      <c r="H96" t="s">
+    </row>
+    <row r="94" spans="10:15">
+      <c r="J94" t="s">
+        <v>378</v>
+      </c>
+      <c r="O94" t="s">
         <v>376</v>
       </c>
-      <c r="M96" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="97" spans="8:13">
-      <c r="H97" t="s">
+    </row>
+    <row r="95" spans="10:15">
+      <c r="J95" t="s">
+        <v>379</v>
+      </c>
+      <c r="O95" t="s">
         <v>377</v>
       </c>
-      <c r="M97" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="98" spans="8:13">
-      <c r="H98" t="s">
+    </row>
+    <row r="96" spans="10:15">
+      <c r="J96" t="s">
+        <v>380</v>
+      </c>
+      <c r="O96" t="s">
         <v>378</v>
       </c>
-      <c r="M98" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="99" spans="8:13">
-      <c r="H99" t="s">
+    </row>
+    <row r="97" spans="10:15">
+      <c r="J97" t="s">
+        <v>381</v>
+      </c>
+      <c r="O97" t="s">
         <v>379</v>
       </c>
-      <c r="M99" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="100" spans="8:13">
-      <c r="H100" t="s">
+    </row>
+    <row r="98" spans="10:15">
+      <c r="J98" t="s">
+        <v>382</v>
+      </c>
+      <c r="O98" t="s">
         <v>380</v>
       </c>
-      <c r="M100" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="101" spans="8:13">
-      <c r="H101" t="s">
+    </row>
+    <row r="99" spans="10:15">
+      <c r="J99" t="s">
+        <v>383</v>
+      </c>
+      <c r="O99" t="s">
         <v>381</v>
       </c>
-      <c r="M101" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="102" spans="8:13">
-      <c r="H102" t="s">
+    </row>
+    <row r="100" spans="10:15">
+      <c r="J100" t="s">
+        <v>384</v>
+      </c>
+      <c r="O100" t="s">
         <v>382</v>
       </c>
-      <c r="M102" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="103" spans="8:13">
-      <c r="H103" t="s">
+    </row>
+    <row r="101" spans="10:15">
+      <c r="J101" t="s">
+        <v>385</v>
+      </c>
+      <c r="O101" t="s">
         <v>383</v>
       </c>
-      <c r="M103" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="104" spans="8:13">
-      <c r="H104" t="s">
+    </row>
+    <row r="102" spans="10:15">
+      <c r="J102" t="s">
+        <v>386</v>
+      </c>
+      <c r="O102" t="s">
         <v>384</v>
       </c>
-      <c r="M104" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="105" spans="8:13">
-      <c r="H105" t="s">
+    </row>
+    <row r="103" spans="10:15">
+      <c r="J103" t="s">
+        <v>387</v>
+      </c>
+      <c r="O103" t="s">
         <v>385</v>
       </c>
-      <c r="M105" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="106" spans="8:13">
-      <c r="H106" t="s">
+    </row>
+    <row r="104" spans="10:15">
+      <c r="J104" t="s">
+        <v>388</v>
+      </c>
+      <c r="O104" t="s">
         <v>386</v>
       </c>
-      <c r="M106" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="107" spans="8:13">
-      <c r="H107" t="s">
+    </row>
+    <row r="105" spans="10:15">
+      <c r="J105" t="s">
+        <v>389</v>
+      </c>
+      <c r="O105" t="s">
         <v>387</v>
       </c>
-      <c r="M107" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="108" spans="8:13">
-      <c r="H108" t="s">
+    </row>
+    <row r="106" spans="10:15">
+      <c r="J106" t="s">
+        <v>390</v>
+      </c>
+      <c r="O106" t="s">
         <v>388</v>
       </c>
-      <c r="M108" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="109" spans="8:13">
-      <c r="H109" t="s">
+    </row>
+    <row r="107" spans="10:15">
+      <c r="J107" t="s">
+        <v>391</v>
+      </c>
+      <c r="O107" t="s">
         <v>389</v>
       </c>
-      <c r="M109" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="110" spans="8:13">
-      <c r="H110" t="s">
+    </row>
+    <row r="108" spans="10:15">
+      <c r="J108" t="s">
+        <v>392</v>
+      </c>
+      <c r="O108" t="s">
         <v>390</v>
       </c>
-      <c r="M110" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="111" spans="8:13">
-      <c r="H111" t="s">
+    </row>
+    <row r="109" spans="10:15">
+      <c r="J109" t="s">
+        <v>393</v>
+      </c>
+      <c r="O109" t="s">
         <v>391</v>
       </c>
-      <c r="M111" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="112" spans="8:13">
-      <c r="H112" t="s">
+    </row>
+    <row r="110" spans="10:15">
+      <c r="J110" t="s">
+        <v>394</v>
+      </c>
+      <c r="O110" t="s">
         <v>392</v>
       </c>
-      <c r="M112" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="113" spans="8:13">
-      <c r="H113" t="s">
+    </row>
+    <row r="111" spans="10:15">
+      <c r="J111" t="s">
+        <v>395</v>
+      </c>
+      <c r="O111" t="s">
         <v>393</v>
       </c>
-      <c r="M113" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="114" spans="8:13">
-      <c r="H114" t="s">
+    </row>
+    <row r="112" spans="10:15">
+      <c r="J112" t="s">
+        <v>396</v>
+      </c>
+      <c r="O112" t="s">
         <v>394</v>
       </c>
-      <c r="M114" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="115" spans="8:13">
-      <c r="H115" t="s">
+    </row>
+    <row r="113" spans="10:15">
+      <c r="J113" t="s">
+        <v>397</v>
+      </c>
+      <c r="O113" t="s">
         <v>395</v>
       </c>
-      <c r="M115" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="116" spans="8:13">
-      <c r="H116" t="s">
+    </row>
+    <row r="114" spans="10:15">
+      <c r="J114" t="s">
+        <v>398</v>
+      </c>
+      <c r="O114" t="s">
         <v>396</v>
       </c>
-      <c r="M116" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="117" spans="8:13">
-      <c r="H117" t="s">
+    </row>
+    <row r="115" spans="10:15">
+      <c r="J115" t="s">
+        <v>399</v>
+      </c>
+      <c r="O115" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="116" spans="10:15">
+      <c r="J116" t="s">
+        <v>400</v>
+      </c>
+      <c r="O116" t="s">
         <v>397</v>
       </c>
-      <c r="M117" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="118" spans="8:13">
-      <c r="H118" t="s">
+    </row>
+    <row r="117" spans="10:15">
+      <c r="J117" t="s">
+        <v>401</v>
+      </c>
+      <c r="O117" t="s">
         <v>398</v>
       </c>
-      <c r="M118" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="119" spans="8:13">
-      <c r="H119" t="s">
+    </row>
+    <row r="118" spans="10:15">
+      <c r="J118" t="s">
+        <v>402</v>
+      </c>
+      <c r="O118" t="s">
         <v>399</v>
       </c>
-      <c r="M119" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="120" spans="8:13">
-      <c r="H120" t="s">
+    </row>
+    <row r="119" spans="10:15">
+      <c r="J119" t="s">
+        <v>403</v>
+      </c>
+      <c r="O119" t="s">
         <v>400</v>
       </c>
-      <c r="M120" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="121" spans="8:13">
-      <c r="H121" t="s">
+    </row>
+    <row r="120" spans="10:15">
+      <c r="J120" t="s">
+        <v>404</v>
+      </c>
+      <c r="O120" t="s">
         <v>401</v>
       </c>
-      <c r="M121" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="122" spans="8:13">
-      <c r="H122" t="s">
+    </row>
+    <row r="121" spans="10:15">
+      <c r="J121" t="s">
+        <v>405</v>
+      </c>
+      <c r="O121" t="s">
         <v>402</v>
       </c>
-      <c r="M122" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="123" spans="8:13">
-      <c r="H123" t="s">
+    </row>
+    <row r="122" spans="10:15">
+      <c r="J122" t="s">
+        <v>406</v>
+      </c>
+      <c r="O122" t="s">
         <v>403</v>
       </c>
-      <c r="M123" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="124" spans="8:13">
-      <c r="H124" t="s">
+    </row>
+    <row r="123" spans="10:15">
+      <c r="J123" t="s">
+        <v>407</v>
+      </c>
+      <c r="O123" t="s">
         <v>404</v>
       </c>
-      <c r="M124" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="125" spans="8:13">
-      <c r="H125" t="s">
+    </row>
+    <row r="124" spans="10:15">
+      <c r="J124" t="s">
+        <v>408</v>
+      </c>
+      <c r="O124" t="s">
         <v>405</v>
       </c>
-      <c r="M125" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="126" spans="8:13">
-      <c r="H126" t="s">
+    </row>
+    <row r="125" spans="10:15">
+      <c r="J125" t="s">
+        <v>409</v>
+      </c>
+      <c r="O125" t="s">
         <v>406</v>
       </c>
-      <c r="M126" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="127" spans="8:13">
-      <c r="H127" t="s">
+    </row>
+    <row r="126" spans="10:15">
+      <c r="J126" t="s">
+        <v>410</v>
+      </c>
+      <c r="O126" t="s">
         <v>407</v>
       </c>
-      <c r="M127" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="128" spans="8:13">
-      <c r="H128" t="s">
+    </row>
+    <row r="127" spans="10:15">
+      <c r="J127" t="s">
+        <v>411</v>
+      </c>
+      <c r="O127" t="s">
         <v>408</v>
       </c>
-      <c r="M128" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="129" spans="8:13">
-      <c r="H129" t="s">
+    </row>
+    <row r="128" spans="10:15">
+      <c r="J128" t="s">
+        <v>412</v>
+      </c>
+      <c r="O128" t="s">
         <v>409</v>
       </c>
-      <c r="M129" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="130" spans="8:13">
-      <c r="H130" t="s">
+    </row>
+    <row r="129" spans="10:15">
+      <c r="J129" t="s">
+        <v>413</v>
+      </c>
+      <c r="O129" t="s">
         <v>410</v>
       </c>
-      <c r="M130" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="131" spans="8:13">
-      <c r="H131" t="s">
+    </row>
+    <row r="130" spans="10:15">
+      <c r="J130" t="s">
+        <v>414</v>
+      </c>
+      <c r="O130" t="s">
         <v>411</v>
       </c>
-      <c r="M131" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="132" spans="8:13">
-      <c r="H132" t="s">
+    </row>
+    <row r="131" spans="10:15">
+      <c r="J131" t="s">
+        <v>415</v>
+      </c>
+      <c r="O131" t="s">
         <v>412</v>
       </c>
-      <c r="M132" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="133" spans="8:13">
-      <c r="H133" t="s">
+    </row>
+    <row r="132" spans="10:15">
+      <c r="J132" t="s">
+        <v>416</v>
+      </c>
+      <c r="O132" t="s">
         <v>413</v>
       </c>
-      <c r="M133" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="134" spans="8:13">
-      <c r="H134" t="s">
+    </row>
+    <row r="133" spans="10:15">
+      <c r="J133" t="s">
+        <v>417</v>
+      </c>
+      <c r="O133" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="134" spans="10:15">
+      <c r="J134" t="s">
+        <v>418</v>
+      </c>
+      <c r="O134" t="s">
         <v>414</v>
       </c>
-      <c r="M134" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="135" spans="8:13">
-      <c r="H135" t="s">
+    </row>
+    <row r="135" spans="10:15">
+      <c r="J135" t="s">
+        <v>419</v>
+      </c>
+      <c r="O135" t="s">
         <v>415</v>
       </c>
-      <c r="M135" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="136" spans="8:13">
-      <c r="H136" t="s">
-        <v>416</v>
-      </c>
-      <c r="M136" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="137" spans="8:13">
-      <c r="H137" t="s">
+    </row>
+    <row r="136" spans="10:15">
+      <c r="J136" t="s">
+        <v>420</v>
+      </c>
+      <c r="O136" t="s">
         <v>417</v>
       </c>
-      <c r="M137" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="138" spans="8:13">
-      <c r="H138" t="s">
+    </row>
+    <row r="137" spans="10:15">
+      <c r="J137" t="s">
+        <v>421</v>
+      </c>
+      <c r="O137" t="s">
         <v>418</v>
       </c>
-      <c r="M138" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="139" spans="8:13">
-      <c r="H139" t="s">
+    </row>
+    <row r="138" spans="10:15">
+      <c r="J138" t="s">
+        <v>422</v>
+      </c>
+      <c r="O138" t="s">
         <v>419</v>
       </c>
-      <c r="M139" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="140" spans="8:13">
-      <c r="H140" t="s">
+    </row>
+    <row r="139" spans="10:15">
+      <c r="J139" t="s">
+        <v>423</v>
+      </c>
+      <c r="O139" t="s">
         <v>420</v>
       </c>
-      <c r="M140" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="141" spans="8:13">
-      <c r="H141" t="s">
+    </row>
+    <row r="140" spans="10:15">
+      <c r="J140" t="s">
+        <v>424</v>
+      </c>
+      <c r="O140" t="s">
         <v>421</v>
       </c>
-      <c r="M141" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="142" spans="8:13">
-      <c r="H142" t="s">
+    </row>
+    <row r="141" spans="10:15">
+      <c r="J141" t="s">
+        <v>425</v>
+      </c>
+      <c r="O141" t="s">
         <v>422</v>
       </c>
-      <c r="M142" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="143" spans="8:13">
-      <c r="H143" t="s">
+    </row>
+    <row r="142" spans="10:15">
+      <c r="J142" t="s">
+        <v>426</v>
+      </c>
+      <c r="O142" t="s">
         <v>423</v>
       </c>
-      <c r="M143" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="144" spans="8:13">
-      <c r="H144" t="s">
+    </row>
+    <row r="143" spans="10:15">
+      <c r="J143" t="s">
+        <v>427</v>
+      </c>
+      <c r="O143" t="s">
         <v>424</v>
       </c>
-      <c r="M144" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="145" spans="8:13">
-      <c r="H145" t="s">
+    </row>
+    <row r="144" spans="10:15">
+      <c r="J144" t="s">
+        <v>428</v>
+      </c>
+      <c r="O144" t="s">
         <v>425</v>
       </c>
-      <c r="M145" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="146" spans="8:13">
-      <c r="H146" t="s">
+    </row>
+    <row r="145" spans="10:15">
+      <c r="J145" t="s">
+        <v>429</v>
+      </c>
+      <c r="O145" t="s">
         <v>426</v>
       </c>
-      <c r="M146" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="147" spans="8:13">
-      <c r="H147" t="s">
+    </row>
+    <row r="146" spans="10:15">
+      <c r="J146" t="s">
+        <v>430</v>
+      </c>
+      <c r="O146" t="s">
         <v>427</v>
       </c>
-      <c r="M147" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="148" spans="8:13">
-      <c r="H148" t="s">
+    </row>
+    <row r="147" spans="10:15">
+      <c r="J147" t="s">
+        <v>431</v>
+      </c>
+      <c r="O147" t="s">
         <v>428</v>
       </c>
-      <c r="M148" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="149" spans="8:13">
-      <c r="H149" t="s">
+    </row>
+    <row r="148" spans="10:15">
+      <c r="J148" t="s">
+        <v>432</v>
+      </c>
+      <c r="O148" t="s">
         <v>429</v>
       </c>
-      <c r="M149" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="150" spans="8:13">
-      <c r="H150" t="s">
+    </row>
+    <row r="149" spans="10:15">
+      <c r="J149" t="s">
+        <v>433</v>
+      </c>
+      <c r="O149" t="s">
         <v>430</v>
       </c>
-      <c r="M150" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="151" spans="8:13">
-      <c r="H151" t="s">
+    </row>
+    <row r="150" spans="10:15">
+      <c r="J150" t="s">
+        <v>434</v>
+      </c>
+      <c r="O150" t="s">
         <v>431</v>
       </c>
-      <c r="M151" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="152" spans="8:13">
-      <c r="H152" t="s">
+    </row>
+    <row r="151" spans="10:15">
+      <c r="J151" t="s">
+        <v>435</v>
+      </c>
+      <c r="O151" t="s">
         <v>432</v>
       </c>
-      <c r="M152" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="153" spans="8:13">
-      <c r="H153" t="s">
+    </row>
+    <row r="152" spans="10:15">
+      <c r="J152" t="s">
+        <v>436</v>
+      </c>
+      <c r="O152" t="s">
         <v>433</v>
       </c>
-      <c r="M153" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="154" spans="8:13">
-      <c r="H154" t="s">
+    </row>
+    <row r="153" spans="10:15">
+      <c r="J153" t="s">
+        <v>437</v>
+      </c>
+      <c r="O153" t="s">
         <v>434</v>
       </c>
-      <c r="M154" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="155" spans="8:13">
-      <c r="H155" t="s">
+    </row>
+    <row r="154" spans="10:15">
+      <c r="J154" t="s">
+        <v>438</v>
+      </c>
+      <c r="O154" t="s">
         <v>435</v>
       </c>
-      <c r="M155" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="156" spans="8:13">
-      <c r="H156" t="s">
+    </row>
+    <row r="155" spans="10:15">
+      <c r="J155" t="s">
+        <v>439</v>
+      </c>
+      <c r="O155" t="s">
         <v>436</v>
       </c>
-      <c r="M156" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="157" spans="8:13">
-      <c r="H157" t="s">
+    </row>
+    <row r="156" spans="10:15">
+      <c r="J156" t="s">
+        <v>440</v>
+      </c>
+      <c r="O156" t="s">
         <v>437</v>
       </c>
-      <c r="M157" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="158" spans="8:13">
-      <c r="H158" t="s">
+    </row>
+    <row r="157" spans="10:15">
+      <c r="J157" t="s">
+        <v>441</v>
+      </c>
+      <c r="O157" t="s">
         <v>438</v>
       </c>
-      <c r="M158" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="159" spans="8:13">
-      <c r="H159" t="s">
+    </row>
+    <row r="158" spans="10:15">
+      <c r="J158" t="s">
+        <v>442</v>
+      </c>
+      <c r="O158" t="s">
         <v>439</v>
       </c>
-      <c r="M159" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="160" spans="8:13">
-      <c r="H160" t="s">
+    </row>
+    <row r="159" spans="10:15">
+      <c r="J159" t="s">
+        <v>443</v>
+      </c>
+      <c r="O159" t="s">
         <v>440</v>
       </c>
-      <c r="M160" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="161" spans="8:13">
-      <c r="H161" t="s">
+    </row>
+    <row r="160" spans="10:15">
+      <c r="J160" t="s">
+        <v>444</v>
+      </c>
+      <c r="O160" t="s">
         <v>441</v>
       </c>
-      <c r="M161" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="162" spans="8:13">
-      <c r="H162" t="s">
+    </row>
+    <row r="161" spans="10:15">
+      <c r="J161" t="s">
+        <v>445</v>
+      </c>
+      <c r="O161" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="162" spans="10:15">
+      <c r="J162" t="s">
+        <v>446</v>
+      </c>
+      <c r="O162" t="s">
         <v>442</v>
       </c>
-      <c r="M162" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="163" spans="8:13">
-      <c r="H163" t="s">
+    </row>
+    <row r="163" spans="10:15">
+      <c r="J163" t="s">
+        <v>447</v>
+      </c>
+      <c r="O163" t="s">
         <v>443</v>
       </c>
-      <c r="M163" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="164" spans="8:13">
-      <c r="H164" t="s">
+    </row>
+    <row r="164" spans="10:15">
+      <c r="J164" t="s">
+        <v>448</v>
+      </c>
+      <c r="O164" t="s">
         <v>444</v>
       </c>
-      <c r="M164" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="165" spans="8:13">
-      <c r="H165" t="s">
+    </row>
+    <row r="165" spans="10:15">
+      <c r="J165" t="s">
+        <v>449</v>
+      </c>
+      <c r="O165" t="s">
         <v>445</v>
       </c>
-      <c r="M165" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="166" spans="8:13">
-      <c r="H166" t="s">
+    </row>
+    <row r="166" spans="10:15">
+      <c r="J166" t="s">
+        <v>450</v>
+      </c>
+      <c r="O166" t="s">
         <v>446</v>
       </c>
-      <c r="M166" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="167" spans="8:13">
-      <c r="H167" t="s">
+    </row>
+    <row r="167" spans="10:15">
+      <c r="J167" t="s">
+        <v>451</v>
+      </c>
+      <c r="O167" t="s">
         <v>447</v>
       </c>
-      <c r="M167" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="168" spans="8:13">
-      <c r="H168" t="s">
+    </row>
+    <row r="168" spans="10:15">
+      <c r="J168" t="s">
+        <v>452</v>
+      </c>
+      <c r="O168" t="s">
         <v>448</v>
       </c>
-      <c r="M168" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="169" spans="8:13">
-      <c r="H169" t="s">
+    </row>
+    <row r="169" spans="10:15">
+      <c r="J169" t="s">
+        <v>453</v>
+      </c>
+      <c r="O169" t="s">
         <v>449</v>
       </c>
-      <c r="M169" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="170" spans="8:13">
-      <c r="H170" t="s">
+    </row>
+    <row r="170" spans="10:15">
+      <c r="J170" t="s">
+        <v>454</v>
+      </c>
+      <c r="O170" t="s">
         <v>450</v>
       </c>
-      <c r="M170" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="171" spans="8:13">
-      <c r="H171" t="s">
+    </row>
+    <row r="171" spans="10:15">
+      <c r="J171" t="s">
+        <v>455</v>
+      </c>
+      <c r="O171" t="s">
         <v>451</v>
       </c>
-      <c r="M171" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="172" spans="8:13">
-      <c r="H172" t="s">
+    </row>
+    <row r="172" spans="10:15">
+      <c r="J172" t="s">
+        <v>456</v>
+      </c>
+      <c r="O172" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="173" spans="10:15">
+      <c r="J173" t="s">
+        <v>457</v>
+      </c>
+      <c r="O173" t="s">
         <v>452</v>
       </c>
-      <c r="M172" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="173" spans="8:13">
-      <c r="H173" t="s">
+    </row>
+    <row r="174" spans="10:15">
+      <c r="J174" t="s">
+        <v>458</v>
+      </c>
+      <c r="O174" t="s">
         <v>453</v>
       </c>
-      <c r="M173" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="174" spans="8:13">
-      <c r="H174" t="s">
+    </row>
+    <row r="175" spans="10:15">
+      <c r="J175" t="s">
+        <v>459</v>
+      </c>
+      <c r="O175" t="s">
         <v>454</v>
       </c>
-      <c r="M174" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="175" spans="8:13">
-      <c r="H175" t="s">
+    </row>
+    <row r="176" spans="10:15">
+      <c r="J176" t="s">
+        <v>460</v>
+      </c>
+      <c r="O176" t="s">
         <v>455</v>
       </c>
-      <c r="M175" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="176" spans="8:13">
-      <c r="H176" t="s">
+    </row>
+    <row r="177" spans="10:15">
+      <c r="J177" t="s">
+        <v>461</v>
+      </c>
+      <c r="O177" t="s">
         <v>456</v>
       </c>
-      <c r="M176" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="177" spans="8:13">
-      <c r="H177" t="s">
-        <v>457</v>
-      </c>
-      <c r="M177" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="178" spans="8:13">
-      <c r="H178" t="s">
+    </row>
+    <row r="178" spans="10:15">
+      <c r="J178" t="s">
+        <v>462</v>
+      </c>
+      <c r="O178" t="s">
         <v>458</v>
       </c>
-      <c r="M178" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="179" spans="8:13">
-      <c r="H179" t="s">
+    </row>
+    <row r="179" spans="10:15">
+      <c r="J179" t="s">
+        <v>463</v>
+      </c>
+      <c r="O179" t="s">
         <v>459</v>
       </c>
-      <c r="M179" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="180" spans="8:13">
-      <c r="H180" t="s">
+    </row>
+    <row r="180" spans="10:15">
+      <c r="J180" t="s">
+        <v>464</v>
+      </c>
+      <c r="O180" t="s">
         <v>460</v>
       </c>
-      <c r="M180" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="181" spans="8:13">
-      <c r="H181" t="s">
+    </row>
+    <row r="181" spans="10:15">
+      <c r="J181" t="s">
+        <v>465</v>
+      </c>
+      <c r="O181" t="s">
         <v>461</v>
       </c>
-      <c r="M181" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="182" spans="8:13">
-      <c r="H182" t="s">
+    </row>
+    <row r="182" spans="10:15">
+      <c r="J182" t="s">
+        <v>466</v>
+      </c>
+      <c r="O182" t="s">
         <v>462</v>
       </c>
-      <c r="M182" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="183" spans="8:13">
-      <c r="H183" t="s">
+    </row>
+    <row r="183" spans="10:15">
+      <c r="J183" t="s">
+        <v>467</v>
+      </c>
+      <c r="O183" t="s">
         <v>463</v>
       </c>
-      <c r="M183" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="184" spans="8:13">
-      <c r="H184" t="s">
+    </row>
+    <row r="184" spans="10:15">
+      <c r="J184" t="s">
+        <v>468</v>
+      </c>
+      <c r="O184" t="s">
         <v>464</v>
       </c>
-      <c r="M184" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="185" spans="8:13">
-      <c r="H185" t="s">
+    </row>
+    <row r="185" spans="10:15">
+      <c r="J185" t="s">
+        <v>469</v>
+      </c>
+      <c r="O185" t="s">
         <v>465</v>
       </c>
-      <c r="M185" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="186" spans="8:13">
-      <c r="H186" t="s">
+    </row>
+    <row r="186" spans="10:15">
+      <c r="J186" t="s">
+        <v>470</v>
+      </c>
+      <c r="O186" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="187" spans="10:15">
+      <c r="J187" t="s">
+        <v>471</v>
+      </c>
+      <c r="O187" t="s">
         <v>466</v>
       </c>
-      <c r="M186" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="187" spans="8:13">
-      <c r="H187" t="s">
+    </row>
+    <row r="188" spans="10:15">
+      <c r="J188" t="s">
+        <v>472</v>
+      </c>
+      <c r="O188" t="s">
         <v>467</v>
       </c>
-      <c r="M187" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="188" spans="8:13">
-      <c r="H188" t="s">
+    </row>
+    <row r="189" spans="10:15">
+      <c r="J189" t="s">
+        <v>473</v>
+      </c>
+      <c r="O189" t="s">
         <v>468</v>
       </c>
-      <c r="M188" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="189" spans="8:13">
-      <c r="H189" t="s">
+    </row>
+    <row r="190" spans="10:15">
+      <c r="J190" t="s">
+        <v>474</v>
+      </c>
+      <c r="O190" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="191" spans="10:15">
+      <c r="J191" t="s">
+        <v>475</v>
+      </c>
+      <c r="O191" t="s">
         <v>469</v>
       </c>
-      <c r="M189" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="190" spans="8:13">
-      <c r="H190" t="s">
+    </row>
+    <row r="192" spans="10:15">
+      <c r="J192" t="s">
+        <v>476</v>
+      </c>
+      <c r="O192" t="s">
         <v>470</v>
       </c>
-      <c r="M190" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="191" spans="8:13">
-      <c r="H191" t="s">
+    </row>
+    <row r="193" spans="10:15">
+      <c r="J193" t="s">
+        <v>477</v>
+      </c>
+      <c r="O193" t="s">
         <v>471</v>
       </c>
-      <c r="M191" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="192" spans="8:13">
-      <c r="H192" t="s">
+    </row>
+    <row r="194" spans="10:15">
+      <c r="J194" t="s">
+        <v>478</v>
+      </c>
+      <c r="O194" t="s">
         <v>472</v>
       </c>
-      <c r="M192" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="193" spans="8:13">
-      <c r="H193" t="s">
+    </row>
+    <row r="195" spans="10:15">
+      <c r="J195" t="s">
+        <v>479</v>
+      </c>
+      <c r="O195" t="s">
         <v>473</v>
       </c>
-      <c r="M193" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="194" spans="8:13">
-      <c r="H194" t="s">
+    </row>
+    <row r="196" spans="10:15">
+      <c r="J196" t="s">
+        <v>480</v>
+      </c>
+      <c r="O196" t="s">
         <v>474</v>
       </c>
-      <c r="M194" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="195" spans="8:13">
-      <c r="H195" t="s">
+    </row>
+    <row r="197" spans="10:15">
+      <c r="J197" t="s">
+        <v>481</v>
+      </c>
+      <c r="O197" t="s">
         <v>475</v>
       </c>
-      <c r="M195" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="196" spans="8:13">
-      <c r="H196" t="s">
+    </row>
+    <row r="198" spans="10:15">
+      <c r="J198" t="s">
+        <v>482</v>
+      </c>
+      <c r="O198" t="s">
         <v>476</v>
       </c>
-      <c r="M196" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="197" spans="8:13">
-      <c r="H197" t="s">
+    </row>
+    <row r="199" spans="10:15">
+      <c r="J199" t="s">
+        <v>483</v>
+      </c>
+      <c r="O199" t="s">
         <v>477</v>
       </c>
-      <c r="M197" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="198" spans="8:13">
-      <c r="H198" t="s">
+    </row>
+    <row r="200" spans="10:15">
+      <c r="J200" t="s">
+        <v>484</v>
+      </c>
+      <c r="O200" t="s">
         <v>478</v>
       </c>
-      <c r="M198" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="199" spans="8:13">
-      <c r="H199" t="s">
+    </row>
+    <row r="201" spans="10:15">
+      <c r="J201" t="s">
+        <v>485</v>
+      </c>
+      <c r="O201" t="s">
         <v>479</v>
       </c>
-      <c r="M199" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="200" spans="8:13">
-      <c r="H200" t="s">
+    </row>
+    <row r="202" spans="10:15">
+      <c r="J202" t="s">
+        <v>486</v>
+      </c>
+      <c r="O202" t="s">
         <v>480</v>
       </c>
-      <c r="M200" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="201" spans="8:13">
-      <c r="H201" t="s">
+    </row>
+    <row r="203" spans="10:15">
+      <c r="J203" t="s">
+        <v>487</v>
+      </c>
+      <c r="O203" t="s">
         <v>481</v>
       </c>
-      <c r="M201" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="202" spans="8:13">
-      <c r="H202" t="s">
+    </row>
+    <row r="204" spans="10:15">
+      <c r="J204" t="s">
+        <v>488</v>
+      </c>
+      <c r="O204" t="s">
         <v>482</v>
       </c>
-      <c r="M202" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="203" spans="8:13">
-      <c r="H203" t="s">
+    </row>
+    <row r="205" spans="10:15">
+      <c r="J205" t="s">
+        <v>489</v>
+      </c>
+      <c r="O205" t="s">
         <v>483</v>
       </c>
-      <c r="M203" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="204" spans="8:13">
-      <c r="H204" t="s">
+    </row>
+    <row r="206" spans="10:15">
+      <c r="J206" t="s">
+        <v>490</v>
+      </c>
+      <c r="O206" t="s">
         <v>484</v>
       </c>
-      <c r="M204" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="205" spans="8:13">
-      <c r="H205" t="s">
+    </row>
+    <row r="207" spans="10:15">
+      <c r="J207" t="s">
+        <v>491</v>
+      </c>
+      <c r="O207" t="s">
         <v>485</v>
       </c>
-      <c r="M205" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="206" spans="8:13">
-      <c r="H206" t="s">
+    </row>
+    <row r="208" spans="10:15">
+      <c r="J208" t="s">
+        <v>492</v>
+      </c>
+      <c r="O208" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="209" spans="10:15">
+      <c r="J209" t="s">
+        <v>493</v>
+      </c>
+      <c r="O209" t="s">
         <v>486</v>
       </c>
-      <c r="M206" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="207" spans="8:13">
-      <c r="H207" t="s">
+    </row>
+    <row r="210" spans="10:15">
+      <c r="J210" t="s">
+        <v>494</v>
+      </c>
+      <c r="O210" t="s">
         <v>487</v>
       </c>
-      <c r="M207" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="208" spans="8:13">
-      <c r="H208" t="s">
-        <v>488</v>
-      </c>
-      <c r="M208" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="209" spans="8:13">
-      <c r="H209" t="s">
+    </row>
+    <row r="211" spans="10:15">
+      <c r="J211" t="s">
+        <v>495</v>
+      </c>
+      <c r="O211" t="s">
         <v>489</v>
       </c>
-      <c r="M209" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="210" spans="8:13">
-      <c r="H210" t="s">
+    </row>
+    <row r="212" spans="10:15">
+      <c r="J212" t="s">
+        <v>496</v>
+      </c>
+      <c r="O212" t="s">
         <v>490</v>
       </c>
-      <c r="M210" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="211" spans="8:13">
-      <c r="H211" t="s">
+    </row>
+    <row r="213" spans="10:15">
+      <c r="J213" t="s">
+        <v>497</v>
+      </c>
+      <c r="O213" t="s">
         <v>491</v>
       </c>
-      <c r="M211" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="212" spans="8:13">
-      <c r="H212" t="s">
-        <v>492</v>
-      </c>
-      <c r="M212" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="213" spans="8:13">
-      <c r="H213" t="s">
+    </row>
+    <row r="214" spans="10:15">
+      <c r="J214" t="s">
+        <v>498</v>
+      </c>
+      <c r="O214" t="s">
         <v>493</v>
       </c>
-      <c r="M213" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="214" spans="8:13">
-      <c r="H214" t="s">
+    </row>
+    <row r="215" spans="10:15">
+      <c r="J215" t="s">
+        <v>499</v>
+      </c>
+      <c r="O215" t="s">
         <v>494</v>
       </c>
-      <c r="M214" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="215" spans="8:13">
-      <c r="H215" t="s">
+    </row>
+    <row r="216" spans="10:15">
+      <c r="J216" t="s">
+        <v>500</v>
+      </c>
+      <c r="O216" t="s">
         <v>495</v>
       </c>
-      <c r="M215" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="216" spans="8:13">
-      <c r="H216" t="s">
+    </row>
+    <row r="217" spans="10:15">
+      <c r="J217" t="s">
+        <v>501</v>
+      </c>
+      <c r="O217" t="s">
         <v>496</v>
       </c>
-      <c r="M216" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="217" spans="8:13">
-      <c r="H217" t="s">
+    </row>
+    <row r="218" spans="10:15">
+      <c r="J218" t="s">
+        <v>502</v>
+      </c>
+      <c r="O218" t="s">
         <v>497</v>
       </c>
-      <c r="M217" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="218" spans="8:13">
-      <c r="H218" t="s">
+    </row>
+    <row r="219" spans="10:15">
+      <c r="J219" t="s">
+        <v>503</v>
+      </c>
+      <c r="O219" t="s">
         <v>498</v>
       </c>
-      <c r="M218" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="219" spans="8:13">
-      <c r="H219" t="s">
+    </row>
+    <row r="220" spans="10:15">
+      <c r="J220" t="s">
+        <v>504</v>
+      </c>
+      <c r="O220" t="s">
         <v>499</v>
       </c>
-      <c r="M219" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="220" spans="8:13">
-      <c r="H220" t="s">
+    </row>
+    <row r="221" spans="10:15">
+      <c r="J221" t="s">
+        <v>505</v>
+      </c>
+      <c r="O221" t="s">
         <v>500</v>
       </c>
-      <c r="M220" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="221" spans="8:13">
-      <c r="H221" t="s">
-        <v>501</v>
-      </c>
-      <c r="M221" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="222" spans="8:13">
-      <c r="H222" t="s">
+    </row>
+    <row r="222" spans="10:15">
+      <c r="J222" t="s">
+        <v>506</v>
+      </c>
+      <c r="O222" t="s">
         <v>502</v>
       </c>
-      <c r="M222" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="223" spans="8:13">
-      <c r="H223" t="s">
+    </row>
+    <row r="223" spans="10:15">
+      <c r="J223" t="s">
+        <v>507</v>
+      </c>
+      <c r="O223" t="s">
         <v>503</v>
       </c>
-      <c r="M223" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="224" spans="8:13">
-      <c r="H224" t="s">
+    </row>
+    <row r="224" spans="10:15">
+      <c r="J224" t="s">
+        <v>508</v>
+      </c>
+      <c r="O224" t="s">
         <v>504</v>
       </c>
-      <c r="M224" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="225" spans="8:13">
-      <c r="H225" t="s">
+    </row>
+    <row r="225" spans="10:15">
+      <c r="J225" t="s">
+        <v>509</v>
+      </c>
+      <c r="O225" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="226" spans="10:15">
+      <c r="J226" t="s">
+        <v>510</v>
+      </c>
+      <c r="O226" t="s">
         <v>505</v>
       </c>
-      <c r="M225" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="226" spans="8:13">
-      <c r="H226" t="s">
+    </row>
+    <row r="227" spans="10:15">
+      <c r="J227" t="s">
+        <v>511</v>
+      </c>
+      <c r="O227" t="s">
         <v>506</v>
       </c>
-      <c r="M226" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="227" spans="8:13">
-      <c r="H227" t="s">
+    </row>
+    <row r="228" spans="10:15">
+      <c r="J228" t="s">
+        <v>512</v>
+      </c>
+      <c r="O228" t="s">
         <v>507</v>
       </c>
-      <c r="M227" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="228" spans="8:13">
-      <c r="H228" t="s">
+    </row>
+    <row r="229" spans="10:15">
+      <c r="J229" t="s">
+        <v>513</v>
+      </c>
+      <c r="O229" t="s">
         <v>508</v>
       </c>
-      <c r="M228" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="229" spans="8:13">
-      <c r="H229" t="s">
+    </row>
+    <row r="230" spans="10:15">
+      <c r="J230" t="s">
+        <v>514</v>
+      </c>
+      <c r="O230" t="s">
         <v>509</v>
       </c>
-      <c r="M229" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="230" spans="8:13">
-      <c r="H230" t="s">
+    </row>
+    <row r="231" spans="10:15">
+      <c r="J231" t="s">
+        <v>515</v>
+      </c>
+      <c r="O231" t="s">
         <v>510</v>
       </c>
-      <c r="M230" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="231" spans="8:13">
-      <c r="H231" t="s">
+    </row>
+    <row r="232" spans="10:15">
+      <c r="J232" t="s">
+        <v>516</v>
+      </c>
+      <c r="O232" t="s">
         <v>511</v>
       </c>
-      <c r="M231" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="232" spans="8:13">
-      <c r="H232" t="s">
-        <v>512</v>
-      </c>
-      <c r="M232" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="233" spans="8:13">
-      <c r="H233" t="s">
+    </row>
+    <row r="233" spans="10:15">
+      <c r="J233" t="s">
+        <v>517</v>
+      </c>
+      <c r="O233" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="234" spans="10:15">
+      <c r="J234" t="s">
+        <v>518</v>
+      </c>
+      <c r="O234" t="s">
         <v>513</v>
       </c>
-      <c r="M233" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="234" spans="8:13">
-      <c r="H234" t="s">
+    </row>
+    <row r="235" spans="10:15">
+      <c r="J235" t="s">
+        <v>519</v>
+      </c>
+      <c r="O235" t="s">
         <v>514</v>
       </c>
-      <c r="M234" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="235" spans="8:13">
-      <c r="H235" t="s">
+    </row>
+    <row r="236" spans="10:15">
+      <c r="J236" t="s">
+        <v>520</v>
+      </c>
+      <c r="O236" t="s">
         <v>515</v>
       </c>
-      <c r="M235" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="236" spans="8:13">
-      <c r="H236" t="s">
-        <v>516</v>
-      </c>
-      <c r="M236" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="237" spans="8:13">
-      <c r="H237" t="s">
+    </row>
+    <row r="237" spans="10:15">
+      <c r="J237" t="s">
+        <v>521</v>
+      </c>
+      <c r="O237" t="s">
         <v>517</v>
       </c>
-      <c r="M237" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="238" spans="8:13">
-      <c r="H238" t="s">
+    </row>
+    <row r="238" spans="10:15">
+      <c r="J238" t="s">
+        <v>522</v>
+      </c>
+      <c r="O238" t="s">
         <v>518</v>
       </c>
-      <c r="M238" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="239" spans="8:13">
-      <c r="H239" t="s">
+    </row>
+    <row r="239" spans="10:15">
+      <c r="J239" t="s">
+        <v>523</v>
+      </c>
+      <c r="O239" t="s">
         <v>519</v>
       </c>
-      <c r="M239" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="240" spans="8:13">
-      <c r="H240" t="s">
+    </row>
+    <row r="240" spans="10:15">
+      <c r="J240" t="s">
+        <v>524</v>
+      </c>
+      <c r="O240" t="s">
         <v>520</v>
       </c>
-      <c r="M240" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="241" spans="8:13">
-      <c r="H241" t="s">
+    </row>
+    <row r="241" spans="10:15">
+      <c r="J241" t="s">
+        <v>525</v>
+      </c>
+      <c r="O241" t="s">
         <v>521</v>
       </c>
-      <c r="M241" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="242" spans="8:13">
-      <c r="H242" t="s">
+    </row>
+    <row r="242" spans="10:15">
+      <c r="J242" t="s">
+        <v>526</v>
+      </c>
+      <c r="O242" t="s">
         <v>522</v>
       </c>
-      <c r="M242" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="243" spans="8:13">
-      <c r="H243" t="s">
+    </row>
+    <row r="243" spans="10:15">
+      <c r="J243" t="s">
+        <v>527</v>
+      </c>
+      <c r="O243" t="s">
         <v>523</v>
       </c>
-      <c r="M243" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="244" spans="8:13">
-      <c r="H244" t="s">
+    </row>
+    <row r="244" spans="10:15">
+      <c r="J244" t="s">
+        <v>528</v>
+      </c>
+      <c r="O244" t="s">
         <v>524</v>
       </c>
-      <c r="M244" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="245" spans="8:13">
-      <c r="H245" t="s">
+    </row>
+    <row r="245" spans="10:15">
+      <c r="J245" t="s">
+        <v>529</v>
+      </c>
+      <c r="O245" t="s">
         <v>525</v>
       </c>
-      <c r="M245" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="246" spans="8:13">
-      <c r="H246" t="s">
+    </row>
+    <row r="246" spans="10:15">
+      <c r="J246" t="s">
+        <v>530</v>
+      </c>
+      <c r="O246" t="s">
         <v>526</v>
       </c>
-      <c r="M246" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="247" spans="8:13">
-      <c r="H247" t="s">
+    </row>
+    <row r="247" spans="10:15">
+      <c r="J247" t="s">
+        <v>531</v>
+      </c>
+      <c r="O247" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="248" spans="10:15">
+      <c r="J248" t="s">
+        <v>532</v>
+      </c>
+      <c r="O248" t="s">
         <v>527</v>
       </c>
-      <c r="M247" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="248" spans="8:13">
-      <c r="H248" t="s">
-        <v>528</v>
-      </c>
-      <c r="M248" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="249" spans="8:13">
-      <c r="H249" t="s">
+    </row>
+    <row r="249" spans="10:15">
+      <c r="J249" t="s">
+        <v>533</v>
+      </c>
+      <c r="O249" t="s">
         <v>529</v>
       </c>
-      <c r="M249" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="250" spans="8:13">
-      <c r="H250" t="s">
+    </row>
+    <row r="250" spans="10:15">
+      <c r="J250" t="s">
+        <v>534</v>
+      </c>
+      <c r="O250" t="s">
         <v>530</v>
       </c>
-      <c r="M250" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="251" spans="8:13">
-      <c r="H251" t="s">
+    </row>
+    <row r="251" spans="10:15">
+      <c r="J251" t="s">
+        <v>535</v>
+      </c>
+      <c r="O251" t="s">
         <v>531</v>
       </c>
-      <c r="M251" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="252" spans="8:13">
-      <c r="H252" t="s">
+    </row>
+    <row r="252" spans="10:15">
+      <c r="J252" t="s">
+        <v>536</v>
+      </c>
+      <c r="O252" t="s">
         <v>532</v>
       </c>
-      <c r="M252" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="253" spans="8:13">
-      <c r="H253" t="s">
+    </row>
+    <row r="253" spans="10:15">
+      <c r="J253" t="s">
+        <v>537</v>
+      </c>
+      <c r="O253" t="s">
         <v>533</v>
       </c>
-      <c r="M253" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="254" spans="8:13">
-      <c r="H254" t="s">
+    </row>
+    <row r="254" spans="10:15">
+      <c r="J254" t="s">
+        <v>538</v>
+      </c>
+      <c r="O254" t="s">
         <v>534</v>
       </c>
-      <c r="M254" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="255" spans="8:13">
-      <c r="H255" t="s">
+    </row>
+    <row r="255" spans="10:15">
+      <c r="J255" t="s">
+        <v>539</v>
+      </c>
+      <c r="O255" t="s">
         <v>535</v>
       </c>
-      <c r="M255" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="256" spans="8:13">
-      <c r="H256" t="s">
+    </row>
+    <row r="256" spans="10:15">
+      <c r="J256" t="s">
+        <v>540</v>
+      </c>
+      <c r="O256" t="s">
         <v>536</v>
       </c>
-      <c r="M256" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="257" spans="8:13">
-      <c r="H257" t="s">
+    </row>
+    <row r="257" spans="10:15">
+      <c r="J257" t="s">
+        <v>541</v>
+      </c>
+      <c r="O257" t="s">
         <v>537</v>
       </c>
-      <c r="M257" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="258" spans="8:13">
-      <c r="H258" t="s">
+    </row>
+    <row r="258" spans="10:15">
+      <c r="J258" t="s">
+        <v>542</v>
+      </c>
+      <c r="O258" t="s">
         <v>538</v>
       </c>
-      <c r="M258" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="259" spans="8:13">
-      <c r="H259" t="s">
+    </row>
+    <row r="259" spans="10:15">
+      <c r="J259" t="s">
+        <v>543</v>
+      </c>
+      <c r="O259" t="s">
         <v>539</v>
       </c>
-      <c r="M259" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="260" spans="8:13">
-      <c r="H260" t="s">
-        <v>540</v>
-      </c>
-      <c r="M260" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="261" spans="8:13">
-      <c r="H261" t="s">
+    </row>
+    <row r="260" spans="10:15">
+      <c r="J260" t="s">
+        <v>544</v>
+      </c>
+      <c r="O260" t="s">
         <v>541</v>
       </c>
-      <c r="M261" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="262" spans="8:13">
-      <c r="H262" t="s">
+    </row>
+    <row r="261" spans="10:15">
+      <c r="J261" t="s">
+        <v>545</v>
+      </c>
+      <c r="O261" t="s">
         <v>542</v>
       </c>
-      <c r="M262" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="263" spans="8:13">
-      <c r="H263" t="s">
+    </row>
+    <row r="262" spans="10:15">
+      <c r="J262" t="s">
+        <v>546</v>
+      </c>
+      <c r="O262" t="s">
         <v>543</v>
       </c>
-      <c r="M263" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="264" spans="8:13">
-      <c r="H264" t="s">
+    </row>
+    <row r="263" spans="10:15">
+      <c r="J263" t="s">
+        <v>547</v>
+      </c>
+      <c r="O263" t="s">
         <v>544</v>
       </c>
-      <c r="M264" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="265" spans="8:13">
-      <c r="H265" t="s">
+    </row>
+    <row r="264" spans="10:15">
+      <c r="J264" t="s">
+        <v>548</v>
+      </c>
+      <c r="O264" t="s">
         <v>545</v>
       </c>
-      <c r="M265" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="266" spans="8:13">
-      <c r="H266" t="s">
+    </row>
+    <row r="265" spans="10:15">
+      <c r="J265" t="s">
+        <v>549</v>
+      </c>
+      <c r="O265" t="s">
         <v>546</v>
       </c>
-      <c r="M266" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="267" spans="8:13">
-      <c r="H267" t="s">
+    </row>
+    <row r="266" spans="10:15">
+      <c r="J266" t="s">
+        <v>550</v>
+      </c>
+      <c r="O266" t="s">
         <v>547</v>
       </c>
-      <c r="M267" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="268" spans="8:13">
-      <c r="H268" t="s">
+    </row>
+    <row r="267" spans="10:15">
+      <c r="J267" t="s">
+        <v>551</v>
+      </c>
+      <c r="O267" t="s">
         <v>548</v>
       </c>
-      <c r="M268" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="269" spans="8:13">
-      <c r="H269" t="s">
+    </row>
+    <row r="268" spans="10:15">
+      <c r="J268" t="s">
+        <v>552</v>
+      </c>
+      <c r="O268" t="s">
         <v>549</v>
       </c>
-      <c r="M269" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="270" spans="8:13">
-      <c r="H270" t="s">
+    </row>
+    <row r="269" spans="10:15">
+      <c r="J269" t="s">
+        <v>553</v>
+      </c>
+      <c r="O269" t="s">
         <v>550</v>
       </c>
-      <c r="M270" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="271" spans="8:13">
-      <c r="H271" t="s">
+    </row>
+    <row r="270" spans="10:15">
+      <c r="J270" t="s">
+        <v>554</v>
+      </c>
+      <c r="O270" t="s">
         <v>551</v>
       </c>
-      <c r="M271" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="272" spans="8:13">
-      <c r="H272" t="s">
+    </row>
+    <row r="271" spans="10:15">
+      <c r="J271" t="s">
+        <v>555</v>
+      </c>
+      <c r="O271" t="s">
         <v>552</v>
       </c>
-      <c r="M272" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="273" spans="8:13">
-      <c r="H273" t="s">
+    </row>
+    <row r="272" spans="10:15">
+      <c r="J272" t="s">
+        <v>556</v>
+      </c>
+      <c r="O272" t="s">
         <v>553</v>
       </c>
-      <c r="M273" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="274" spans="8:13">
-      <c r="M274" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="275" spans="8:13">
-      <c r="M275" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="276" spans="8:13">
-      <c r="M276" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="277" spans="8:13">
-      <c r="M277" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="278" spans="8:13">
-      <c r="M278" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="279" spans="8:13">
-      <c r="M279" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="280" spans="8:13">
-      <c r="M280" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="281" spans="8:13">
-      <c r="M281" t="s">
+    </row>
+    <row r="273" spans="10:15">
+      <c r="J273" t="s">
+        <v>557</v>
+      </c>
+      <c r="O273" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="274" spans="10:15">
+      <c r="O274" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="275" spans="10:15">
+      <c r="O275" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="276" spans="10:15">
+      <c r="O276" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="277" spans="10:15">
+      <c r="O277" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="282" spans="8:13">
-      <c r="M282" t="s">
+    <row r="278" spans="10:15">
+      <c r="O278" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="283" spans="8:13">
-      <c r="M283" t="s">
+    <row r="279" spans="10:15">
+      <c r="O279" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="284" spans="8:13">
-      <c r="M284" t="s">
+    <row r="280" spans="10:15">
+      <c r="O280" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="285" spans="8:13">
-      <c r="M285" t="s">
+    <row r="281" spans="10:15">
+      <c r="O281" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="286" spans="8:13">
-      <c r="M286" t="s">
+    <row r="282" spans="10:15">
+      <c r="O282" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="287" spans="8:13">
-      <c r="M287" t="s">
+    <row r="283" spans="10:15">
+      <c r="O283" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="288" spans="8:13">
-      <c r="M288" t="s">
+    <row r="284" spans="10:15">
+      <c r="O284" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="289" spans="13:13">
-      <c r="M289" t="s">
+    <row r="285" spans="10:15">
+      <c r="O285" t="s">
         <v>594</v>
+      </c>
+    </row>
+    <row r="286" spans="10:15">
+      <c r="O286" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="287" spans="10:15">
+      <c r="O287" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="288" spans="10:15">
+      <c r="O288" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="289" spans="15:15">
+      <c r="O289" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -20,7 +20,7 @@
     <definedName name="clinicalsetting">'cv_sample'!$I$1:$I$2</definedName>
     <definedName name="countryoftravel">'cv_sample'!$J$1:$J$273</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$294</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$Q$1:$Q$3</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="623">
   <si>
     <t>alias</t>
   </si>
@@ -1738,7 +1738,7 @@
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: week, month, year, day)</t>
   </si>
   <si>
     <t>Arctic Ocean</t>
@@ -1759,7 +1759,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>East Timor</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Falkland Islands (Islas Malvinas)</t>
@@ -1771,10 +1771,19 @@
     <t>Kerguelen Archipelago</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Mediterranean Sea</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
     <t>Myanmar</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
   </si>
   <si>
     <t>North Sea</t>
@@ -3481,31 +3490,31 @@
         <v>566</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="150" customHeight="1">
@@ -3552,31 +3561,31 @@
         <v>567</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +3612,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:Q289"/>
+  <dimension ref="H1:Q294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3623,7 +3632,7 @@
         <v>285</v>
       </c>
       <c r="Q1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="8:17">
@@ -3640,7 +3649,7 @@
         <v>286</v>
       </c>
       <c r="Q2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="8:17">
@@ -3654,7 +3663,7 @@
         <v>287</v>
       </c>
       <c r="Q3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="8:17">
@@ -4206,7 +4215,7 @@
         <v>356</v>
       </c>
       <c r="O72" t="s">
-        <v>574</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="10:15">
@@ -4214,7 +4223,7 @@
         <v>357</v>
       </c>
       <c r="O73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="10:15">
@@ -4222,7 +4231,7 @@
         <v>358</v>
       </c>
       <c r="O74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="10:15">
@@ -4230,7 +4239,7 @@
         <v>359</v>
       </c>
       <c r="O75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="10:15">
@@ -4238,7 +4247,7 @@
         <v>360</v>
       </c>
       <c r="O76" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="10:15">
@@ -4246,7 +4255,7 @@
         <v>361</v>
       </c>
       <c r="O77" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="10:15">
@@ -4254,7 +4263,7 @@
         <v>362</v>
       </c>
       <c r="O78" t="s">
-        <v>357</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79" spans="10:15">
@@ -4798,7 +4807,7 @@
         <v>430</v>
       </c>
       <c r="O146" t="s">
-        <v>427</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147" spans="10:15">
@@ -4806,7 +4815,7 @@
         <v>431</v>
       </c>
       <c r="O147" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="10:15">
@@ -4814,7 +4823,7 @@
         <v>432</v>
       </c>
       <c r="O148" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="10:15">
@@ -4822,7 +4831,7 @@
         <v>433</v>
       </c>
       <c r="O149" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="10:15">
@@ -4918,7 +4927,7 @@
         <v>445</v>
       </c>
       <c r="O161" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="10:15">
@@ -4934,7 +4943,7 @@
         <v>447</v>
       </c>
       <c r="O163" t="s">
-        <v>443</v>
+        <v>580</v>
       </c>
     </row>
     <row r="164" spans="10:15">
@@ -5006,7 +5015,7 @@
         <v>456</v>
       </c>
       <c r="O172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="10:15">
@@ -5118,7 +5127,7 @@
         <v>470</v>
       </c>
       <c r="O186" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="187" spans="10:15">
@@ -5126,7 +5135,7 @@
         <v>471</v>
       </c>
       <c r="O187" t="s">
-        <v>466</v>
+        <v>583</v>
       </c>
     </row>
     <row r="188" spans="10:15">
@@ -5134,7 +5143,7 @@
         <v>472</v>
       </c>
       <c r="O188" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="189" spans="10:15">
@@ -5142,7 +5151,7 @@
         <v>473</v>
       </c>
       <c r="O189" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="10:15">
@@ -5150,7 +5159,7 @@
         <v>474</v>
       </c>
       <c r="O190" t="s">
-        <v>581</v>
+        <v>468</v>
       </c>
     </row>
     <row r="191" spans="10:15">
@@ -5158,7 +5167,7 @@
         <v>475</v>
       </c>
       <c r="O191" t="s">
-        <v>469</v>
+        <v>584</v>
       </c>
     </row>
     <row r="192" spans="10:15">
@@ -5166,7 +5175,7 @@
         <v>476</v>
       </c>
       <c r="O192" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="193" spans="10:15">
@@ -5174,7 +5183,7 @@
         <v>477</v>
       </c>
       <c r="O193" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="194" spans="10:15">
@@ -5182,7 +5191,7 @@
         <v>478</v>
       </c>
       <c r="O194" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="195" spans="10:15">
@@ -5190,7 +5199,7 @@
         <v>479</v>
       </c>
       <c r="O195" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="196" spans="10:15">
@@ -5198,7 +5207,7 @@
         <v>480</v>
       </c>
       <c r="O196" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="197" spans="10:15">
@@ -5206,7 +5215,7 @@
         <v>481</v>
       </c>
       <c r="O197" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="198" spans="10:15">
@@ -5214,7 +5223,7 @@
         <v>482</v>
       </c>
       <c r="O198" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="199" spans="10:15">
@@ -5222,7 +5231,7 @@
         <v>483</v>
       </c>
       <c r="O199" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="10:15">
@@ -5230,7 +5239,7 @@
         <v>484</v>
       </c>
       <c r="O200" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="10:15">
@@ -5238,7 +5247,7 @@
         <v>485</v>
       </c>
       <c r="O201" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="10:15">
@@ -5246,7 +5255,7 @@
         <v>486</v>
       </c>
       <c r="O202" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="10:15">
@@ -5254,7 +5263,7 @@
         <v>487</v>
       </c>
       <c r="O203" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="204" spans="10:15">
@@ -5262,7 +5271,7 @@
         <v>488</v>
       </c>
       <c r="O204" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="10:15">
@@ -5270,7 +5279,7 @@
         <v>489</v>
       </c>
       <c r="O205" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="206" spans="10:15">
@@ -5278,7 +5287,7 @@
         <v>490</v>
       </c>
       <c r="O206" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="207" spans="10:15">
@@ -5286,7 +5295,7 @@
         <v>491</v>
       </c>
       <c r="O207" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="208" spans="10:15">
@@ -5294,7 +5303,7 @@
         <v>492</v>
       </c>
       <c r="O208" t="s">
-        <v>582</v>
+        <v>485</v>
       </c>
     </row>
     <row r="209" spans="10:15">
@@ -5302,7 +5311,7 @@
         <v>493</v>
       </c>
       <c r="O209" t="s">
-        <v>486</v>
+        <v>585</v>
       </c>
     </row>
     <row r="210" spans="10:15">
@@ -5310,7 +5319,7 @@
         <v>494</v>
       </c>
       <c r="O210" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="10:15">
@@ -5318,7 +5327,7 @@
         <v>495</v>
       </c>
       <c r="O211" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="10:15">
@@ -5326,7 +5335,7 @@
         <v>496</v>
       </c>
       <c r="O212" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="213" spans="10:15">
@@ -5334,7 +5343,7 @@
         <v>497</v>
       </c>
       <c r="O213" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="214" spans="10:15">
@@ -5342,7 +5351,7 @@
         <v>498</v>
       </c>
       <c r="O214" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="215" spans="10:15">
@@ -5350,7 +5359,7 @@
         <v>499</v>
       </c>
       <c r="O215" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="216" spans="10:15">
@@ -5358,7 +5367,7 @@
         <v>500</v>
       </c>
       <c r="O216" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="10:15">
@@ -5366,7 +5375,7 @@
         <v>501</v>
       </c>
       <c r="O217" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="10:15">
@@ -5374,7 +5383,7 @@
         <v>502</v>
       </c>
       <c r="O218" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="10:15">
@@ -5382,7 +5391,7 @@
         <v>503</v>
       </c>
       <c r="O219" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="10:15">
@@ -5390,7 +5399,7 @@
         <v>504</v>
       </c>
       <c r="O220" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="221" spans="10:15">
@@ -5398,7 +5407,7 @@
         <v>505</v>
       </c>
       <c r="O221" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="222" spans="10:15">
@@ -5406,7 +5415,7 @@
         <v>506</v>
       </c>
       <c r="O222" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="223" spans="10:15">
@@ -5414,7 +5423,7 @@
         <v>507</v>
       </c>
       <c r="O223" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="10:15">
@@ -5422,7 +5431,7 @@
         <v>508</v>
       </c>
       <c r="O224" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="10:15">
@@ -5430,7 +5439,7 @@
         <v>509</v>
       </c>
       <c r="O225" t="s">
-        <v>583</v>
+        <v>502</v>
       </c>
     </row>
     <row r="226" spans="10:15">
@@ -5438,7 +5447,7 @@
         <v>510</v>
       </c>
       <c r="O226" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="227" spans="10:15">
@@ -5446,7 +5455,7 @@
         <v>511</v>
       </c>
       <c r="O227" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="228" spans="10:15">
@@ -5454,7 +5463,7 @@
         <v>512</v>
       </c>
       <c r="O228" t="s">
-        <v>507</v>
+        <v>586</v>
       </c>
     </row>
     <row r="229" spans="10:15">
@@ -5462,7 +5471,7 @@
         <v>513</v>
       </c>
       <c r="O229" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="230" spans="10:15">
@@ -5470,7 +5479,7 @@
         <v>514</v>
       </c>
       <c r="O230" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="231" spans="10:15">
@@ -5478,7 +5487,7 @@
         <v>515</v>
       </c>
       <c r="O231" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="232" spans="10:15">
@@ -5486,7 +5495,7 @@
         <v>516</v>
       </c>
       <c r="O232" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="233" spans="10:15">
@@ -5494,7 +5503,7 @@
         <v>517</v>
       </c>
       <c r="O233" t="s">
-        <v>584</v>
+        <v>509</v>
       </c>
     </row>
     <row r="234" spans="10:15">
@@ -5502,7 +5511,7 @@
         <v>518</v>
       </c>
       <c r="O234" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="235" spans="10:15">
@@ -5510,7 +5519,7 @@
         <v>519</v>
       </c>
       <c r="O235" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="236" spans="10:15">
@@ -5518,7 +5527,7 @@
         <v>520</v>
       </c>
       <c r="O236" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="237" spans="10:15">
@@ -5526,7 +5535,7 @@
         <v>521</v>
       </c>
       <c r="O237" t="s">
-        <v>517</v>
+        <v>587</v>
       </c>
     </row>
     <row r="238" spans="10:15">
@@ -5534,7 +5543,7 @@
         <v>522</v>
       </c>
       <c r="O238" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="239" spans="10:15">
@@ -5542,7 +5551,7 @@
         <v>523</v>
       </c>
       <c r="O239" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="240" spans="10:15">
@@ -5550,7 +5559,7 @@
         <v>524</v>
       </c>
       <c r="O240" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241" spans="10:15">
@@ -5558,7 +5567,7 @@
         <v>525</v>
       </c>
       <c r="O241" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="10:15">
@@ -5566,7 +5575,7 @@
         <v>526</v>
       </c>
       <c r="O242" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="243" spans="10:15">
@@ -5574,7 +5583,7 @@
         <v>527</v>
       </c>
       <c r="O243" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="244" spans="10:15">
@@ -5582,7 +5591,7 @@
         <v>528</v>
       </c>
       <c r="O244" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="245" spans="10:15">
@@ -5590,7 +5599,7 @@
         <v>529</v>
       </c>
       <c r="O245" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="246" spans="10:15">
@@ -5598,7 +5607,7 @@
         <v>530</v>
       </c>
       <c r="O246" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="247" spans="10:15">
@@ -5606,7 +5615,7 @@
         <v>531</v>
       </c>
       <c r="O247" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
     </row>
     <row r="248" spans="10:15">
@@ -5614,7 +5623,7 @@
         <v>532</v>
       </c>
       <c r="O248" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="249" spans="10:15">
@@ -5622,7 +5631,7 @@
         <v>533</v>
       </c>
       <c r="O249" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="250" spans="10:15">
@@ -5630,7 +5639,7 @@
         <v>534</v>
       </c>
       <c r="O250" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="251" spans="10:15">
@@ -5638,7 +5647,7 @@
         <v>535</v>
       </c>
       <c r="O251" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
     </row>
     <row r="252" spans="10:15">
@@ -5646,7 +5655,7 @@
         <v>536</v>
       </c>
       <c r="O252" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="253" spans="10:15">
@@ -5654,7 +5663,7 @@
         <v>537</v>
       </c>
       <c r="O253" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="254" spans="10:15">
@@ -5662,7 +5671,7 @@
         <v>538</v>
       </c>
       <c r="O254" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="255" spans="10:15">
@@ -5670,7 +5679,7 @@
         <v>539</v>
       </c>
       <c r="O255" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="256" spans="10:15">
@@ -5678,7 +5687,7 @@
         <v>540</v>
       </c>
       <c r="O256" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="257" spans="10:15">
@@ -5686,7 +5695,7 @@
         <v>541</v>
       </c>
       <c r="O257" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="258" spans="10:15">
@@ -5694,7 +5703,7 @@
         <v>542</v>
       </c>
       <c r="O258" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="259" spans="10:15">
@@ -5702,7 +5711,7 @@
         <v>543</v>
       </c>
       <c r="O259" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="260" spans="10:15">
@@ -5710,7 +5719,7 @@
         <v>544</v>
       </c>
       <c r="O260" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="261" spans="10:15">
@@ -5718,7 +5727,7 @@
         <v>545</v>
       </c>
       <c r="O261" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="262" spans="10:15">
@@ -5726,7 +5735,7 @@
         <v>546</v>
       </c>
       <c r="O262" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="263" spans="10:15">
@@ -5734,7 +5743,7 @@
         <v>547</v>
       </c>
       <c r="O263" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="264" spans="10:15">
@@ -5742,7 +5751,7 @@
         <v>548</v>
       </c>
       <c r="O264" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="10:15">
@@ -5750,7 +5759,7 @@
         <v>549</v>
       </c>
       <c r="O265" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="266" spans="10:15">
@@ -5758,7 +5767,7 @@
         <v>550</v>
       </c>
       <c r="O266" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="267" spans="10:15">
@@ -5766,7 +5775,7 @@
         <v>551</v>
       </c>
       <c r="O267" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="268" spans="10:15">
@@ -5774,7 +5783,7 @@
         <v>552</v>
       </c>
       <c r="O268" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="269" spans="10:15">
@@ -5782,7 +5791,7 @@
         <v>553</v>
       </c>
       <c r="O269" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="270" spans="10:15">
@@ -5790,7 +5799,7 @@
         <v>554</v>
       </c>
       <c r="O270" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="271" spans="10:15">
@@ -5798,7 +5807,7 @@
         <v>555</v>
       </c>
       <c r="O271" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="272" spans="10:15">
@@ -5806,7 +5815,7 @@
         <v>556</v>
       </c>
       <c r="O272" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="10:15">
@@ -5814,87 +5823,112 @@
         <v>557</v>
       </c>
       <c r="O273" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="274" spans="10:15">
       <c r="O274" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="275" spans="10:15">
       <c r="O275" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="10:15">
       <c r="O276" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="10:15">
       <c r="O277" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="10:15">
       <c r="O278" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
     </row>
     <row r="279" spans="10:15">
       <c r="O279" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
     </row>
     <row r="280" spans="10:15">
       <c r="O280" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
     </row>
     <row r="281" spans="10:15">
       <c r="O281" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
     </row>
     <row r="282" spans="10:15">
       <c r="O282" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="283" spans="10:15">
       <c r="O283" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="284" spans="10:15">
       <c r="O284" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="285" spans="10:15">
       <c r="O285" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="286" spans="10:15">
       <c r="O286" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="287" spans="10:15">
       <c r="O287" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="288" spans="10:15">
       <c r="O288" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="289" spans="15:15">
       <c r="O289" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="290" spans="15:15">
+      <c r="O290" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="291" spans="15:15">
+      <c r="O291" t="s">
         <v>598</v>
+      </c>
+    </row>
+    <row r="292" spans="15:15">
+      <c r="O292" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="293" spans="15:15">
+      <c r="O293" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="294" spans="15:15">
+      <c r="O294" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000044/metadata_template_ERC000044.xlsx
+++ b/templates/ERC000044/metadata_template_ERC000044.xlsx
@@ -20,7 +20,7 @@
     <definedName name="clinicalsetting">'cv_sample'!$I$1:$I$2</definedName>
     <definedName name="countryoftravel">'cv_sample'!$J$1:$J$273</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$294</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$Q$1:$Q$3</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="623">
   <si>
     <t>alias</t>
   </si>
@@ -1738,7 +1738,7 @@
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
   </si>
   <si>
     <t>Arctic Ocean</t>
@@ -1759,7 +1759,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>East Timor</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Falkland Islands (Islas Malvinas)</t>
@@ -1771,10 +1771,19 @@
     <t>Kerguelen Archipelago</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Mediterranean Sea</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
     <t>Myanmar</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
   </si>
   <si>
     <t>North Sea</t>
@@ -3481,31 +3490,31 @@
         <v>566</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="150" customHeight="1">
@@ -3552,31 +3561,31 @@
         <v>567</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +3612,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:Q289"/>
+  <dimension ref="H1:Q294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3623,7 +3632,7 @@
         <v>285</v>
       </c>
       <c r="Q1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="8:17">
@@ -3640,7 +3649,7 @@
         <v>286</v>
       </c>
       <c r="Q2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="8:17">
@@ -3654,7 +3663,7 @@
         <v>287</v>
       </c>
       <c r="Q3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="8:17">
@@ -4206,7 +4215,7 @@
         <v>356</v>
       </c>
       <c r="O72" t="s">
-        <v>574</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="10:15">
@@ -4214,7 +4223,7 @@
         <v>357</v>
       </c>
       <c r="O73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="10:15">
@@ -4222,7 +4231,7 @@
         <v>358</v>
       </c>
       <c r="O74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="10:15">
@@ -4230,7 +4239,7 @@
         <v>359</v>
       </c>
       <c r="O75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="10:15">
@@ -4238,7 +4247,7 @@
         <v>360</v>
       </c>
       <c r="O76" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="10:15">
@@ -4246,7 +4255,7 @@
         <v>361</v>
       </c>
       <c r="O77" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="10:15">
@@ -4254,7 +4263,7 @@
         <v>362</v>
       </c>
       <c r="O78" t="s">
-        <v>357</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79" spans="10:15">
@@ -4798,7 +4807,7 @@
         <v>430</v>
       </c>
       <c r="O146" t="s">
-        <v>427</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147" spans="10:15">
@@ -4806,7 +4815,7 @@
         <v>431</v>
       </c>
       <c r="O147" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="10:15">
@@ -4814,7 +4823,7 @@
         <v>432</v>
       </c>
       <c r="O148" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="10:15">
@@ -4822,7 +4831,7 @@
         <v>433</v>
       </c>
       <c r="O149" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="10:15">
@@ -4918,7 +4927,7 @@
         <v>445</v>
       </c>
       <c r="O161" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="10:15">
@@ -4934,7 +4943,7 @@
         <v>447</v>
       </c>
       <c r="O163" t="s">
-        <v>443</v>
+        <v>580</v>
       </c>
     </row>
     <row r="164" spans="10:15">
@@ -5006,7 +5015,7 @@
         <v>456</v>
       </c>
       <c r="O172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="10:15">
@@ -5118,7 +5127,7 @@
         <v>470</v>
       </c>
       <c r="O186" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="187" spans="10:15">
@@ -5126,7 +5135,7 @@
         <v>471</v>
       </c>
       <c r="O187" t="s">
-        <v>466</v>
+        <v>583</v>
       </c>
     </row>
     <row r="188" spans="10:15">
@@ -5134,7 +5143,7 @@
         <v>472</v>
       </c>
       <c r="O188" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="189" spans="10:15">
@@ -5142,7 +5151,7 @@
         <v>473</v>
       </c>
       <c r="O189" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="10:15">
@@ -5150,7 +5159,7 @@
         <v>474</v>
       </c>
       <c r="O190" t="s">
-        <v>581</v>
+        <v>468</v>
       </c>
     </row>
     <row r="191" spans="10:15">
@@ -5158,7 +5167,7 @@
         <v>475</v>
       </c>
       <c r="O191" t="s">
-        <v>469</v>
+        <v>584</v>
       </c>
     </row>
     <row r="192" spans="10:15">
@@ -5166,7 +5175,7 @@
         <v>476</v>
       </c>
       <c r="O192" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="193" spans="10:15">
@@ -5174,7 +5183,7 @@
         <v>477</v>
       </c>
       <c r="O193" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="194" spans="10:15">
@@ -5182,7 +5191,7 @@
         <v>478</v>
       </c>
       <c r="O194" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="195" spans="10:15">
@@ -5190,7 +5199,7 @@
         <v>479</v>
       </c>
       <c r="O195" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="196" spans="10:15">
@@ -5198,7 +5207,7 @@
         <v>480</v>
       </c>
       <c r="O196" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="197" spans="10:15">
@@ -5206,7 +5215,7 @@
         <v>481</v>
       </c>
       <c r="O197" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="198" spans="10:15">
@@ -5214,7 +5223,7 @@
         <v>482</v>
       </c>
       <c r="O198" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="199" spans="10:15">
@@ -5222,7 +5231,7 @@
         <v>483</v>
       </c>
       <c r="O199" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="10:15">
@@ -5230,7 +5239,7 @@
         <v>484</v>
       </c>
       <c r="O200" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="10:15">
@@ -5238,7 +5247,7 @@
         <v>485</v>
       </c>
       <c r="O201" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="10:15">
@@ -5246,7 +5255,7 @@
         <v>486</v>
       </c>
       <c r="O202" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="10:15">
@@ -5254,7 +5263,7 @@
         <v>487</v>
       </c>
       <c r="O203" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="204" spans="10:15">
@@ -5262,7 +5271,7 @@
         <v>488</v>
       </c>
       <c r="O204" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="10:15">
@@ -5270,7 +5279,7 @@
         <v>489</v>
       </c>
       <c r="O205" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="206" spans="10:15">
@@ -5278,7 +5287,7 @@
         <v>490</v>
       </c>
       <c r="O206" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="207" spans="10:15">
@@ -5286,7 +5295,7 @@
         <v>491</v>
       </c>
       <c r="O207" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="208" spans="10:15">
@@ -5294,7 +5303,7 @@
         <v>492</v>
       </c>
       <c r="O208" t="s">
-        <v>582</v>
+        <v>485</v>
       </c>
     </row>
     <row r="209" spans="10:15">
@@ -5302,7 +5311,7 @@
         <v>493</v>
       </c>
       <c r="O209" t="s">
-        <v>486</v>
+        <v>585</v>
       </c>
     </row>
     <row r="210" spans="10:15">
@@ -5310,7 +5319,7 @@
         <v>494</v>
       </c>
       <c r="O210" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="10:15">
@@ -5318,7 +5327,7 @@
         <v>495</v>
       </c>
       <c r="O211" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="10:15">
@@ -5326,7 +5335,7 @@
         <v>496</v>
       </c>
       <c r="O212" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="213" spans="10:15">
@@ -5334,7 +5343,7 @@
         <v>497</v>
       </c>
       <c r="O213" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="214" spans="10:15">
@@ -5342,7 +5351,7 @@
         <v>498</v>
       </c>
       <c r="O214" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="215" spans="10:15">
@@ -5350,7 +5359,7 @@
         <v>499</v>
       </c>
       <c r="O215" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="216" spans="10:15">
@@ -5358,7 +5367,7 @@
         <v>500</v>
       </c>
       <c r="O216" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="10:15">
@@ -5366,7 +5375,7 @@
         <v>501</v>
       </c>
       <c r="O217" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="10:15">
@@ -5374,7 +5383,7 @@
         <v>502</v>
       </c>
       <c r="O218" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="10:15">
@@ -5382,7 +5391,7 @@
         <v>503</v>
       </c>
       <c r="O219" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="10:15">
@@ -5390,7 +5399,7 @@
         <v>504</v>
       </c>
       <c r="O220" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="221" spans="10:15">
@@ -5398,7 +5407,7 @@
         <v>505</v>
       </c>
       <c r="O221" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="222" spans="10:15">
@@ -5406,7 +5415,7 @@
         <v>506</v>
       </c>
       <c r="O222" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="223" spans="10:15">
@@ -5414,7 +5423,7 @@
         <v>507</v>
       </c>
       <c r="O223" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="10:15">
@@ -5422,7 +5431,7 @@
         <v>508</v>
       </c>
       <c r="O224" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="10:15">
@@ -5430,7 +5439,7 @@
         <v>509</v>
       </c>
       <c r="O225" t="s">
-        <v>583</v>
+        <v>502</v>
       </c>
     </row>
     <row r="226" spans="10:15">
@@ -5438,7 +5447,7 @@
         <v>510</v>
       </c>
       <c r="O226" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="227" spans="10:15">
@@ -5446,7 +5455,7 @@
         <v>511</v>
       </c>
       <c r="O227" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="228" spans="10:15">
@@ -5454,7 +5463,7 @@
         <v>512</v>
       </c>
       <c r="O228" t="s">
-        <v>507</v>
+        <v>586</v>
       </c>
     </row>
     <row r="229" spans="10:15">
@@ -5462,7 +5471,7 @@
         <v>513</v>
       </c>
       <c r="O229" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="230" spans="10:15">
@@ -5470,7 +5479,7 @@
         <v>514</v>
       </c>
       <c r="O230" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="231" spans="10:15">
@@ -5478,7 +5487,7 @@
         <v>515</v>
       </c>
       <c r="O231" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="232" spans="10:15">
@@ -5486,7 +5495,7 @@
         <v>516</v>
       </c>
       <c r="O232" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="233" spans="10:15">
@@ -5494,7 +5503,7 @@
         <v>517</v>
       </c>
       <c r="O233" t="s">
-        <v>584</v>
+        <v>509</v>
       </c>
     </row>
     <row r="234" spans="10:15">
@@ -5502,7 +5511,7 @@
         <v>518</v>
       </c>
       <c r="O234" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="235" spans="10:15">
@@ -5510,7 +5519,7 @@
         <v>519</v>
       </c>
       <c r="O235" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="236" spans="10:15">
@@ -5518,7 +5527,7 @@
         <v>520</v>
       </c>
       <c r="O236" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="237" spans="10:15">
@@ -5526,7 +5535,7 @@
         <v>521</v>
       </c>
       <c r="O237" t="s">
-        <v>517</v>
+        <v>587</v>
       </c>
     </row>
     <row r="238" spans="10:15">
@@ -5534,7 +5543,7 @@
         <v>522</v>
       </c>
       <c r="O238" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="239" spans="10:15">
@@ -5542,7 +5551,7 @@
         <v>523</v>
       </c>
       <c r="O239" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="240" spans="10:15">
@@ -5550,7 +5559,7 @@
         <v>524</v>
       </c>
       <c r="O240" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241" spans="10:15">
@@ -5558,7 +5567,7 @@
         <v>525</v>
       </c>
       <c r="O241" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="10:15">
@@ -5566,7 +5575,7 @@
         <v>526</v>
       </c>
       <c r="O242" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="243" spans="10:15">
@@ -5574,7 +5583,7 @@
         <v>527</v>
       </c>
       <c r="O243" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="244" spans="10:15">
@@ -5582,7 +5591,7 @@
         <v>528</v>
       </c>
       <c r="O244" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="245" spans="10:15">
@@ -5590,7 +5599,7 @@
         <v>529</v>
       </c>
       <c r="O245" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="246" spans="10:15">
@@ -5598,7 +5607,7 @@
         <v>530</v>
       </c>
       <c r="O246" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="247" spans="10:15">
@@ -5606,7 +5615,7 @@
         <v>531</v>
       </c>
       <c r="O247" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
     </row>
     <row r="248" spans="10:15">
@@ -5614,7 +5623,7 @@
         <v>532</v>
       </c>
       <c r="O248" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="249" spans="10:15">
@@ -5622,7 +5631,7 @@
         <v>533</v>
       </c>
       <c r="O249" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="250" spans="10:15">
@@ -5630,7 +5639,7 @@
         <v>534</v>
       </c>
       <c r="O250" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="251" spans="10:15">
@@ -5638,7 +5647,7 @@
         <v>535</v>
       </c>
       <c r="O251" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
     </row>
     <row r="252" spans="10:15">
@@ -5646,7 +5655,7 @@
         <v>536</v>
       </c>
       <c r="O252" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="253" spans="10:15">
@@ -5654,7 +5663,7 @@
         <v>537</v>
       </c>
       <c r="O253" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="254" spans="10:15">
@@ -5662,7 +5671,7 @@
         <v>538</v>
       </c>
       <c r="O254" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="255" spans="10:15">
@@ -5670,7 +5679,7 @@
         <v>539</v>
       </c>
       <c r="O255" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="256" spans="10:15">
@@ -5678,7 +5687,7 @@
         <v>540</v>
       </c>
       <c r="O256" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="257" spans="10:15">
@@ -5686,7 +5695,7 @@
         <v>541</v>
       </c>
       <c r="O257" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="258" spans="10:15">
@@ -5694,7 +5703,7 @@
         <v>542</v>
       </c>
       <c r="O258" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="259" spans="10:15">
@@ -5702,7 +5711,7 @@
         <v>543</v>
       </c>
       <c r="O259" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="260" spans="10:15">
@@ -5710,7 +5719,7 @@
         <v>544</v>
       </c>
       <c r="O260" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="261" spans="10:15">
@@ -5718,7 +5727,7 @@
         <v>545</v>
       </c>
       <c r="O261" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="262" spans="10:15">
@@ -5726,7 +5735,7 @@
         <v>546</v>
       </c>
       <c r="O262" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="263" spans="10:15">
@@ -5734,7 +5743,7 @@
         <v>547</v>
       </c>
       <c r="O263" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="264" spans="10:15">
@@ -5742,7 +5751,7 @@
         <v>548</v>
       </c>
       <c r="O264" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="10:15">
@@ -5750,7 +5759,7 @@
         <v>549</v>
       </c>
       <c r="O265" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="266" spans="10:15">
@@ -5758,7 +5767,7 @@
         <v>550</v>
       </c>
       <c r="O266" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="267" spans="10:15">
@@ -5766,7 +5775,7 @@
         <v>551</v>
       </c>
       <c r="O267" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="268" spans="10:15">
@@ -5774,7 +5783,7 @@
         <v>552</v>
       </c>
       <c r="O268" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="269" spans="10:15">
@@ -5782,7 +5791,7 @@
         <v>553</v>
       </c>
       <c r="O269" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="270" spans="10:15">
@@ -5790,7 +5799,7 @@
         <v>554</v>
       </c>
       <c r="O270" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="271" spans="10:15">
@@ -5798,7 +5807,7 @@
         <v>555</v>
       </c>
       <c r="O271" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="272" spans="10:15">
@@ -5806,7 +5815,7 @@
         <v>556</v>
       </c>
       <c r="O272" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="10:15">
@@ -5814,87 +5823,112 @@
         <v>557</v>
       </c>
       <c r="O273" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="274" spans="10:15">
       <c r="O274" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="275" spans="10:15">
       <c r="O275" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="10:15">
       <c r="O276" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="10:15">
       <c r="O277" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="10:15">
       <c r="O278" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
     </row>
     <row r="279" spans="10:15">
       <c r="O279" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
     </row>
     <row r="280" spans="10:15">
       <c r="O280" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
     </row>
     <row r="281" spans="10:15">
       <c r="O281" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
     </row>
     <row r="282" spans="10:15">
       <c r="O282" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="283" spans="10:15">
       <c r="O283" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="284" spans="10:15">
       <c r="O284" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="285" spans="10:15">
       <c r="O285" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="286" spans="10:15">
       <c r="O286" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="287" spans="10:15">
       <c r="O287" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="288" spans="10:15">
       <c r="O288" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="289" spans="15:15">
       <c r="O289" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="290" spans="15:15">
+      <c r="O290" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="291" spans="15:15">
+      <c r="O291" t="s">
         <v>598</v>
+      </c>
+    </row>
+    <row r="292" spans="15:15">
+      <c r="O292" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="293" spans="15:15">
+      <c r="O293" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="294" spans="15:15">
+      <c r="O294" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
